--- a/e-Controle de Horas (IMR).xlsx
+++ b/e-Controle de Horas (IMR).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="43">
   <si>
     <t>Data</t>
   </si>
@@ -50,13 +50,7 @@
     <t>Diário</t>
   </si>
   <si>
-    <t>PONTO DE ISAQUE RIBEIRO - AGOSTO/2010</t>
-  </si>
-  <si>
     <t xml:space="preserve">* Observação: </t>
-  </si>
-  <si>
-    <t>Dias sem a saída p/ o almoço e seu retorno</t>
   </si>
   <si>
     <t>Mês</t>
@@ -128,25 +122,6 @@
     <t>BANCO DE HORAS (ANO 2012)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Analista: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>ISAQUE MARINHO RIBEIRO</t>
-    </r>
-  </si>
-  <si>
     <t>HORAS DE ISAQUE MARINHO RIBEIRO - OUTUBRO/2012</t>
   </si>
   <si>
@@ -154,6 +129,24 @@
   </si>
   <si>
     <t>HORAS DE ISAQUE MARINHO RIBEIRO - SETEMBRO/2012</t>
+  </si>
+  <si>
+    <t>HORAS DE ISAQUE MARINHO RIBEIRO - AGOSTO/2012</t>
+  </si>
+  <si>
+    <t>Dias sem a saída p/ o almoço e sem retorno</t>
+  </si>
+  <si>
+    <t>Hora/Mês</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Analista:</t>
+  </si>
+  <si>
+    <t>ISAQUE MARINHO RIBEIRO</t>
   </si>
 </sst>
 </file>
@@ -163,7 +156,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -299,6 +292,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -729,7 +729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -834,9 +834,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -954,6 +951,18 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="21" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -970,7 +979,10 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -994,284 +1006,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <u val="none"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <u val="none"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <u val="none"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <u val="none"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <u val="none"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-    </dxf>
+  <dxfs count="40">
     <dxf>
       <font>
         <b/>
@@ -1507,74 +1242,6 @@
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
       </font>
     </dxf>
     <dxf>
@@ -1987,11 +1654,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2000,414 +1667,519 @@
     <col min="2" max="3" width="12.85546875" style="31" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="31" customWidth="1"/>
     <col min="5" max="6" width="9.140625" style="32" customWidth="1"/>
-    <col min="7" max="16384" width="16.5703125" style="32"/>
+    <col min="7" max="7" width="1.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="16.5703125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
+      <c r="A1" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="33" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="33"/>
+      <c r="A2" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="85"/>
+      <c r="C2" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="33" t="s">
+        <v>40</v>
+      </c>
       <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="60">
+      <c r="D3" s="59"/>
+      <c r="E3" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="77">
         <v>0.16666666666666666</v>
       </c>
-      <c r="G3" s="33"/>
+      <c r="G3" s="33" t="s">
+        <v>40</v>
+      </c>
       <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="33"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="78">
+        <f>22*F3</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>40</v>
+      </c>
       <c r="H4" s="35"/>
     </row>
-    <row r="5" spans="1:8" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="35"/>
+    </row>
+    <row r="6" spans="1:8" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="D6" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="35"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65">
+        <v>0</v>
+      </c>
+      <c r="F7" s="66">
+        <f t="shared" ref="F7" si="0">D7-E7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="35"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="40">
+        <v>0</v>
+      </c>
+      <c r="F8" s="41">
+        <f t="shared" ref="F8:F12" si="1">D8-E8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="35"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="65">
+        <v>0</v>
+      </c>
+      <c r="F9" s="66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="40">
+        <v>0</v>
+      </c>
+      <c r="F10" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="35"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="65">
+        <v>0</v>
+      </c>
+      <c r="F11" s="66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="35"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="40">
+        <v>0</v>
+      </c>
+      <c r="F12" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="35"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="63">
+        <f>'07-2012'!G34</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="63">
+        <f>'07-2012'!H34</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="64">
+        <f>'07-2012'!I34</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="65">
+        <v>0</v>
+      </c>
+      <c r="F13" s="66">
+        <f>D13-E13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="35"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="39">
+        <f>'08-2012'!G34</f>
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="39">
+        <f>'08-2012'!H34</f>
+        <v>0.64722222222222214</v>
+      </c>
+      <c r="D14" s="44">
+        <f>'08-2012'!I34</f>
+        <v>0.14722222222222217</v>
+      </c>
+      <c r="E14" s="40">
+        <v>0</v>
+      </c>
+      <c r="F14" s="41">
+        <f t="shared" ref="F14:F18" si="2">D14-E14</f>
+        <v>0.14722222222222217</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="35"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="63">
+        <f>'09-2012'!G34</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="63">
+        <f>'09-2012'!H34</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="64">
+        <f>'09-2012'!I34</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="65">
+        <v>0</v>
+      </c>
+      <c r="F15" s="66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="35"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="40">
+        <v>0</v>
+      </c>
+      <c r="F16" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="35"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="65">
+        <v>0</v>
+      </c>
+      <c r="F17" s="66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="35"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="55">
+        <v>0</v>
+      </c>
+      <c r="F18" s="56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="35"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="35"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="45"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="35"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66">
-        <v>0</v>
-      </c>
-      <c r="F6" s="67">
-        <f t="shared" ref="F6" si="0">D6-E6</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="35"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="41">
-        <v>0</v>
-      </c>
-      <c r="F7" s="42">
-        <f t="shared" ref="F7:F11" si="1">D7-E7</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="35"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="66">
-        <v>0</v>
-      </c>
-      <c r="F8" s="67">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="35"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="41">
-        <v>0</v>
-      </c>
-      <c r="F9" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="35"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="66">
-        <v>0</v>
-      </c>
-      <c r="F10" s="67">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="35"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="41">
-        <v>0</v>
-      </c>
-      <c r="F11" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="35"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="64">
-        <f>'07-2012'!G34</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="64">
-        <f>'07-2012'!H34</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="65">
-        <f>'07-2012'!I34</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="66">
-        <v>0</v>
-      </c>
-      <c r="F12" s="67">
-        <f>D12-E12</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="35"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="40">
-        <f>'08-2012'!G34</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C13" s="40">
-        <f>'08-2012'!H34</f>
-        <v>0.18055555555555558</v>
-      </c>
-      <c r="D13" s="45">
-        <f>'08-2012'!I34</f>
-        <v>1.3888888888888923E-2</v>
-      </c>
-      <c r="E13" s="41">
-        <v>0</v>
-      </c>
-      <c r="F13" s="42">
-        <f t="shared" ref="F13:F17" si="2">D13-E13</f>
-        <v>1.3888888888888923E-2</v>
-      </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="35"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="64">
-        <f>'09-2012'!G34</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="64">
-        <f>'09-2012'!H34</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="65">
-        <f>'09-2012'!I34</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="66">
-        <v>0</v>
-      </c>
-      <c r="F14" s="67">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="35"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="41">
-        <v>0</v>
-      </c>
-      <c r="F15" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="35"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="68" t="s">
+      <c r="E20" s="80">
+        <f>SUM(D7:D18)</f>
+        <v>0.14722222222222217</v>
+      </c>
+      <c r="F20" s="80"/>
+      <c r="G20" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="35"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="49"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="66">
-        <v>0</v>
-      </c>
-      <c r="F16" s="67">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="35"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="62" t="s">
+      <c r="E21" s="81">
+        <f>SUM(E8:E19)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="81"/>
+      <c r="G21" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="35"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="56">
-        <v>0</v>
-      </c>
-      <c r="F17" s="57">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="35"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="35"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="48" t="s">
+      <c r="E22" s="82">
+        <f>SUM(F9:F20)</f>
+        <v>0.14722222222222217</v>
+      </c>
+      <c r="F22" s="82"/>
+      <c r="G22" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="35"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="33"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="35"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="70"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="77">
-        <f>SUM(D6:D17)</f>
-        <v>1.3888888888888923E-2</v>
-      </c>
-      <c r="F19" s="77"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="35"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="78">
-        <f>SUM(E7:E18)</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="78"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="35"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="79">
-        <f>SUM(F8:F19)</f>
-        <v>1.3888888888888923E-2</v>
-      </c>
-      <c r="F21" s="79"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="35"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="35"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="71"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="73">
-        <f>E21/F3</f>
-        <v>8.3333333333333537E-2</v>
-      </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="35"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="72">
+        <f>E22/F3</f>
+        <v>0.88333333333333308</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>40</v>
+      </c>
       <c r="H24" s="35"/>
     </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="35"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G26" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G27" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G28" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G29" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G30" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G31" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G32" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E20" formulaRange="1"/>
+    <ignoredError sqref="E21" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2417,7 +2189,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2443,17 +2215,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="84"/>
+      <c r="A1" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="88"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -2483,14 +2255,14 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="85" t="s">
+      <c r="K2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="87"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="91"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -2548,15 +2320,15 @@
         <v>0</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" ref="G4:G11" si="0">IF(AND(WEEKDAY(A4)&gt;1,WEEKDAY(A4)&lt;7),IF(((E4-D4)+(C4-B4))&gt;0,$P$4,0),"")</f>
+        <f t="shared" ref="G4" si="0">IF(AND(WEEKDAY(A4)&gt;1,WEEKDAY(A4)&lt;7),IF(((E4-D4)+(C4-B4))&gt;0,$P$4,0),"")</f>
         <v>0</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" ref="H4:H11" si="1">IF(G4&lt;&gt;0,(E4-D4)+(C4-B4),0)</f>
+        <f t="shared" ref="H4" si="1">IF(G4&lt;&gt;0,(E4-D4)+(C4-B4),0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" ref="I4:I11" si="2">IF(G4&lt;&gt;"",H4-G4,0)</f>
+        <f t="shared" ref="I4" si="2">IF(G4&lt;&gt;"",H4-G4,0)</f>
         <v>0</v>
       </c>
       <c r="K4" s="14">
@@ -2631,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L6" s="23"/>
       <c r="M6" s="23"/>
@@ -2664,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="25" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L7" s="26"/>
       <c r="M7" s="26"/>
@@ -2697,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
@@ -2730,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
@@ -3379,53 +3151,53 @@
     <mergeCell ref="K2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="I34">
-    <cfRule type="cellIs" dxfId="79" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="19" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="20" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="20" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F33">
-    <cfRule type="cellIs" dxfId="76" priority="17" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="36" priority="17" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>0.0833333333333333</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="18" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>0.0833333333333333</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I33">
-    <cfRule type="cellIs" dxfId="74" priority="15" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="34" priority="15" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H33">
-    <cfRule type="cellIs" dxfId="72" priority="13" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="32" priority="13" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0.333333333333333</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0.333333333333333</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="70" priority="11" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="30" priority="11" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>0.0833333333333333</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="12" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>0.0833333333333333</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F33">
-    <cfRule type="cellIs" dxfId="68" priority="9" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="28" priority="9" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>0.0833333333333333</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="10" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="10" stopIfTrue="1" operator="greaterThan">
       <formula>0.0833333333333333</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3436,10 +3208,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3465,17 +3240,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="84"/>
+      <c r="A1" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="88"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -3505,14 +3280,14 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="85" t="s">
+      <c r="K2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="87"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="91"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -3653,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L6" s="23"/>
       <c r="M6" s="23"/>
@@ -3686,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="25" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L7" s="26"/>
       <c r="M7" s="26"/>
@@ -3719,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
@@ -3752,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
@@ -3768,13 +3543,17 @@
         <v>0.35069444444444442</v>
       </c>
       <c r="C10" s="4">
-        <v>0.53125</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.68055555555555547</v>
+      </c>
       <c r="F10" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.12361111111111112</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="7"/>
@@ -3782,61 +3561,77 @@
       </c>
       <c r="H10" s="5">
         <f t="shared" si="8"/>
-        <v>0.18055555555555558</v>
+        <v>0.20624999999999993</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" si="9"/>
-        <v>1.3888888888888923E-2</v>
+        <v>3.9583333333333276E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>39668</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="B11" s="4">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.53125</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.57291666666666663</v>
+      </c>
       <c r="F11" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.21874999999999994</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5.2083333333333287E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>39669</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="B12" s="4">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.69791666666666663</v>
+      </c>
       <c r="F12" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.22222222222222227</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5.5555555555555608E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -4375,15 +4170,15 @@
       <c r="F34" s="10"/>
       <c r="G34" s="21">
         <f>SUM(G3:G33)</f>
-        <v>0.16666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="H34" s="21">
         <f>SUM(H3:H33)</f>
-        <v>0.18055555555555558</v>
+        <v>0.64722222222222214</v>
       </c>
       <c r="I34" s="20">
         <f>SUM(I3:I33)</f>
-        <v>1.3888888888888923E-2</v>
+        <v>0.14722222222222217</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -4405,42 +4200,42 @@
     <mergeCell ref="K2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="I34">
-    <cfRule type="cellIs" dxfId="58" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="7" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="8" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F33">
-    <cfRule type="cellIs" dxfId="55" priority="5" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="23" priority="5" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>0.0833333333333333</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="6" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>0.0833333333333333</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I33">
-    <cfRule type="cellIs" dxfId="53" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H33">
-    <cfRule type="cellIs" dxfId="51" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0.333333333333333</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0.333333333333333</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4449,7 +4244,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4475,17 +4270,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="84"/>
+      <c r="A1" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="88"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -4515,14 +4310,14 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="85" t="s">
+      <c r="K2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="87"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="91"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -4663,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L6" s="23"/>
       <c r="M6" s="23"/>
@@ -4696,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="25" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L7" s="26"/>
       <c r="M7" s="26"/>
@@ -4729,7 +4524,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
@@ -4762,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
@@ -4819,7 +4614,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="75"/>
+      <c r="K11" s="74"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -5410,37 +5205,37 @@
     <mergeCell ref="K2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="I34">
-    <cfRule type="cellIs" dxfId="49" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="8" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F33">
-    <cfRule type="cellIs" dxfId="46" priority="5" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="5" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>0.0833333333333333</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="6" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>0.0833333333333333</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I33">
-    <cfRule type="cellIs" dxfId="44" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H33">
-    <cfRule type="cellIs" dxfId="42" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0.333333333333333</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0.333333333333333</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5454,7 +5249,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5480,17 +5275,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="84"/>
+      <c r="A1" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="88"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -5520,14 +5315,14 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="85" t="s">
+      <c r="K2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="87"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="91"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -5668,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L6" s="23"/>
       <c r="M6" s="23"/>
@@ -5701,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="25" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L7" s="26"/>
       <c r="M7" s="26"/>
@@ -5734,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
@@ -5767,7 +5562,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
@@ -5824,7 +5619,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="75"/>
+      <c r="K11" s="74"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -6417,37 +6212,37 @@
     <mergeCell ref="K2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="I34">
-    <cfRule type="cellIs" dxfId="40" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="8" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F33">
-    <cfRule type="cellIs" dxfId="37" priority="5" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>0.0833333333333333</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="6" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>0.0833333333333333</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I33">
-    <cfRule type="cellIs" dxfId="35" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H33">
-    <cfRule type="cellIs" dxfId="33" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0.333333333333333</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0.333333333333333</formula>
     </cfRule>
   </conditionalFormatting>

--- a/e-Controle de Horas (IMR).xlsx
+++ b/e-Controle de Horas (IMR).xlsx
@@ -1917,22 +1917,22 @@
       </c>
       <c r="B14" s="39">
         <f>'08-2012'!G34</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="C14" s="39">
         <f>'08-2012'!H34</f>
-        <v>0.64722222222222214</v>
+        <v>1.7409722222222224</v>
       </c>
       <c r="D14" s="44">
         <f>'08-2012'!I34</f>
-        <v>0.14722222222222217</v>
+        <v>0.24097222222222245</v>
       </c>
       <c r="E14" s="40">
         <v>0</v>
       </c>
       <c r="F14" s="41">
         <f t="shared" ref="F14:F18" si="2">D14-E14</f>
-        <v>0.14722222222222217</v>
+        <v>0.24097222222222245</v>
       </c>
       <c r="G14" s="33" t="s">
         <v>40</v>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="E20" s="80">
         <f>SUM(D7:D18)</f>
-        <v>0.14722222222222217</v>
+        <v>0.24097222222222245</v>
       </c>
       <c r="F20" s="80"/>
       <c r="G20" s="33" t="s">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="E22" s="82">
         <f>SUM(F9:F20)</f>
-        <v>0.14722222222222217</v>
+        <v>0.24097222222222245</v>
       </c>
       <c r="F22" s="82"/>
       <c r="G22" s="33" t="s">
@@ -2111,7 +2111,7 @@
       <c r="E24" s="83"/>
       <c r="F24" s="72">
         <f>E22/F3</f>
-        <v>0.88333333333333308</v>
+        <v>1.4458333333333349</v>
       </c>
       <c r="G24" s="33" t="s">
         <v>40</v>
@@ -3214,7 +3214,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3293,25 +3293,33 @@
       <c r="A3" s="3">
         <v>39660</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="B3" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="F3" s="5">
         <f>(IF(AND(C3&gt;0,D3&gt;0),D3-C3,0))</f>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" ref="G3" si="0">IF(AND(WEEKDAY(A3)&gt;1,WEEKDAY(A3)&lt;7),IF(((E3-D3)+(C3-B3))&gt;0,$P$4,0),"")</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" ref="H3" si="1">IF(G3&lt;&gt;0,(E3-D3)+(C3-B3),0)</f>
-        <v>0</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" ref="I3" si="2">IF(G3&lt;&gt;"",H3-G3,0)</f>
-        <v>0</v>
+        <v>2.7755575615628914E-17</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>1</v>
@@ -3336,25 +3344,33 @@
       <c r="A4" s="3">
         <v>39661</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="B4" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="F4" s="5">
         <f>(IF(AND(C4&gt;0,D4&gt;0),D4-C4,0))</f>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" ref="G4:G5" si="3">IF(AND(WEEKDAY(A4)&gt;1,WEEKDAY(A4)&lt;7),IF(((E4-D4)+(C4-B4))&gt;0,$P$4,0),"")</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" ref="H4:H5" si="4">IF(G4&lt;&gt;0,(E4-D4)+(C4-B4),0)</f>
-        <v>0</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="I4" s="5">
         <f t="shared" ref="I4:I5" si="5">IF(G4&lt;&gt;"",H4-G4,0)</f>
-        <v>0</v>
+        <v>2.7755575615628914E-17</v>
       </c>
       <c r="K4" s="14">
         <v>0.33333333333333331</v>
@@ -3382,25 +3398,33 @@
       <c r="A5" s="3">
         <v>39662</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="F5" s="5">
         <f t="shared" ref="F5:F33" si="6">(IF(AND(C5&gt;0,D5&gt;0),D5-C5,0))</f>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.7755575615628914E-17</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -3473,25 +3497,33 @@
       <c r="A8" s="3">
         <v>39665</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="B8" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="F8" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2.7755575615628914E-17</v>
       </c>
       <c r="K8" s="25" t="s">
         <v>32</v>
@@ -3506,25 +3538,33 @@
       <c r="A9" s="3">
         <v>39666</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="B9" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="F9" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2.7755575615628914E-17</v>
       </c>
       <c r="K9" s="28" t="s">
         <v>31</v>
@@ -3688,25 +3728,33 @@
       <c r="A15" s="3">
         <v>39672</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="B15" s="4">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.71527777777777779</v>
+      </c>
       <c r="F15" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.7777777777777679E-2</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.2604166666666668</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9.3750000000000139E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -4170,15 +4218,15 @@
       <c r="F34" s="10"/>
       <c r="G34" s="21">
         <f>SUM(G3:G33)</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H34" s="21">
         <f>SUM(H3:H33)</f>
-        <v>0.64722222222222214</v>
+        <v>1.7409722222222224</v>
       </c>
       <c r="I34" s="20">
         <f>SUM(I3:I33)</f>
-        <v>0.14722222222222217</v>
+        <v>0.24097222222222245</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">

--- a/e-Controle de Horas (IMR).xlsx
+++ b/e-Controle de Horas (IMR).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="48">
   <si>
     <t>Data</t>
   </si>
@@ -148,15 +148,31 @@
   <si>
     <t>ISAQUE MARINHO RIBEIRO</t>
   </si>
+  <si>
+    <t xml:space="preserve">F e r i a d o </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentual trabalhado: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentual pendente: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimativa Padrão CH/Mês: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total CH/Mês: </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -299,8 +315,45 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF002060"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF002060"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,6 +396,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="32">
     <border>
@@ -726,10 +791,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -963,6 +1030,63 @@
     <xf numFmtId="164" fontId="21" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="24" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="26" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="27" fillId="8" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="27" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1002,9 +1126,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="40">
     <dxf>
@@ -1672,29 +1804,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
       <c r="G1" s="33" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="84" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="33" t="s">
         <v>40</v>
       </c>
@@ -1917,22 +2049,22 @@
       </c>
       <c r="B14" s="39">
         <f>'08-2012'!G34</f>
-        <v>1.5</v>
+        <v>2.8333333333333326</v>
       </c>
       <c r="C14" s="39">
         <f>'08-2012'!H34</f>
-        <v>1.7409722222222224</v>
+        <v>3.6041666666666665</v>
       </c>
       <c r="D14" s="44">
         <f>'08-2012'!I34</f>
-        <v>0.24097222222222245</v>
+        <v>0.7708333333333337</v>
       </c>
       <c r="E14" s="40">
         <v>0</v>
       </c>
       <c r="F14" s="41">
         <f t="shared" ref="F14:F18" si="2">D14-E14</f>
-        <v>0.24097222222222245</v>
+        <v>0.7708333333333337</v>
       </c>
       <c r="G14" s="33" t="s">
         <v>40</v>
@@ -2045,11 +2177,11 @@
       <c r="D20" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="80">
+      <c r="E20" s="99">
         <f>SUM(D7:D18)</f>
-        <v>0.24097222222222245</v>
-      </c>
-      <c r="F20" s="80"/>
+        <v>0.7708333333333337</v>
+      </c>
+      <c r="F20" s="99"/>
       <c r="G20" s="33" t="s">
         <v>40</v>
       </c>
@@ -2062,11 +2194,11 @@
       <c r="D21" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="81">
+      <c r="E21" s="100">
         <f>SUM(E8:E19)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="81"/>
+      <c r="F21" s="100"/>
       <c r="G21" s="33" t="s">
         <v>40</v>
       </c>
@@ -2079,11 +2211,11 @@
       <c r="D22" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="82">
+      <c r="E22" s="101">
         <f>SUM(F9:F20)</f>
-        <v>0.24097222222222245</v>
-      </c>
-      <c r="F22" s="82"/>
+        <v>0.7708333333333337</v>
+      </c>
+      <c r="F22" s="101"/>
       <c r="G22" s="33" t="s">
         <v>40</v>
       </c>
@@ -2104,14 +2236,14 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="70"/>
       <c r="B24" s="71"/>
-      <c r="C24" s="83" t="s">
+      <c r="C24" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
       <c r="F24" s="72">
         <f>E22/F3</f>
-        <v>1.4458333333333349</v>
+        <v>4.6250000000000027</v>
       </c>
       <c r="G24" s="33" t="s">
         <v>40</v>
@@ -2215,17 +2347,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="88"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -2255,14 +2387,14 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="89" t="s">
+      <c r="K2" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="91"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="110"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -3211,10 +3343,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3226,7 +3358,7 @@
     <col min="5" max="5" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -3240,17 +3372,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="88"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -3280,14 +3412,14 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="89" t="s">
+      <c r="K2" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="91"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="110"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -3321,6 +3453,10 @@
         <f t="shared" ref="I3" si="2">IF(G3&lt;&gt;"",H3-G3,0)</f>
         <v>2.7755575615628914E-17</v>
       </c>
+      <c r="J3" s="90">
+        <f>IF(AND(WEEKDAY(A3)&gt;1,WEEKDAY(A3)&lt;7),1,0)</f>
+        <v>1</v>
+      </c>
       <c r="K3" s="12" t="s">
         <v>1</v>
       </c>
@@ -3372,6 +3508,10 @@
         <f t="shared" ref="I4:I5" si="5">IF(G4&lt;&gt;"",H4-G4,0)</f>
         <v>2.7755575615628914E-17</v>
       </c>
+      <c r="J4" s="90">
+        <f t="shared" ref="J4:J33" si="6">IF(AND(WEEKDAY(A4)&gt;1,WEEKDAY(A4)&lt;7),1,0)</f>
+        <v>1</v>
+      </c>
       <c r="K4" s="14">
         <v>0.33333333333333331</v>
       </c>
@@ -3411,7 +3551,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F33" si="6">(IF(AND(C5&gt;0,D5&gt;0),D5-C5,0))</f>
+        <f t="shared" ref="F5:F33" si="7">(IF(AND(C5&gt;0,D5&gt;0),D5-C5,0))</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="G5" s="5">
@@ -3425,6 +3565,10 @@
       <c r="I5" s="5">
         <f t="shared" si="5"/>
         <v>2.7755575615628914E-17</v>
+      </c>
+      <c r="J5" s="90">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -3436,19 +3580,23 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="str">
+        <f t="shared" ref="G6:G33" si="8">IF(AND(WEEKDAY(A6)&gt;1,WEEKDAY(A6)&lt;7),IF(((E6-D6)+(C6-B6))&gt;0,$P$4,0),"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" ref="H6:H33" si="9">IF(G6&lt;&gt;0,(E6-D6)+(C6-B6),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" ref="I6:I33" si="10">IF(G6&lt;&gt;"",H6-G6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="90">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="5" t="str">
-        <f t="shared" ref="G6:G33" si="7">IF(AND(WEEKDAY(A6)&gt;1,WEEKDAY(A6)&lt;7),IF(((E6-D6)+(C6-B6))&gt;0,$P$4,0),"")</f>
-        <v/>
-      </c>
-      <c r="H6" s="5">
-        <f t="shared" ref="H6:H33" si="8">IF(G6&lt;&gt;0,(E6-D6)+(C6-B6),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" ref="I6:I33" si="9">IF(G6&lt;&gt;"",H6-G6,0)</f>
         <v>0</v>
       </c>
       <c r="K6" s="22" t="s">
@@ -3469,19 +3617,23 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="90">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H7" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K7" s="25" t="s">
@@ -3510,20 +3662,24 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F8" s="5">
+        <f t="shared" si="7"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="9"/>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="10"/>
+        <v>2.7755575615628914E-17</v>
+      </c>
+      <c r="J8" s="90">
         <f t="shared" si="6"/>
-        <v>4.166666666666663E-2</v>
-      </c>
-      <c r="G8" s="5">
-        <f t="shared" si="7"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="H8" s="5">
-        <f t="shared" si="8"/>
-        <v>0.16666666666666669</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" si="9"/>
-        <v>2.7755575615628914E-17</v>
+        <v>1</v>
       </c>
       <c r="K8" s="25" t="s">
         <v>32</v>
@@ -3551,20 +3707,24 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F9" s="5">
+        <f t="shared" si="7"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="9"/>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="10"/>
+        <v>2.7755575615628914E-17</v>
+      </c>
+      <c r="J9" s="90">
         <f t="shared" si="6"/>
-        <v>4.166666666666663E-2</v>
-      </c>
-      <c r="G9" s="5">
-        <f t="shared" si="7"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="H9" s="5">
-        <f t="shared" si="8"/>
-        <v>0.16666666666666669</v>
-      </c>
-      <c r="I9" s="5">
-        <f t="shared" si="9"/>
-        <v>2.7755575615628914E-17</v>
+        <v>1</v>
       </c>
       <c r="K9" s="28" t="s">
         <v>31</v>
@@ -3592,20 +3752,24 @@
         <v>0.68055555555555547</v>
       </c>
       <c r="F10" s="5">
+        <f t="shared" si="7"/>
+        <v>0.12361111111111112</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="9"/>
+        <v>0.20624999999999993</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="10"/>
+        <v>3.9583333333333276E-2</v>
+      </c>
+      <c r="J10" s="90">
         <f t="shared" si="6"/>
-        <v>0.12361111111111112</v>
-      </c>
-      <c r="G10" s="5">
-        <f t="shared" si="7"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="H10" s="5">
-        <f t="shared" si="8"/>
-        <v>0.20624999999999993</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" si="9"/>
-        <v>3.9583333333333276E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -3625,20 +3789,24 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="F11" s="5">
+        <f t="shared" si="7"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="9"/>
+        <v>0.21874999999999994</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="10"/>
+        <v>5.2083333333333287E-2</v>
+      </c>
+      <c r="J11" s="90">
         <f t="shared" si="6"/>
-        <v>2.777777777777779E-2</v>
-      </c>
-      <c r="G11" s="5">
-        <f t="shared" si="7"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="H11" s="5">
-        <f t="shared" si="8"/>
-        <v>0.21874999999999994</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" si="9"/>
-        <v>5.2083333333333287E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -3658,20 +3826,24 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="F12" s="5">
+        <f t="shared" si="7"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="9"/>
+        <v>0.22222222222222227</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="10"/>
+        <v>5.5555555555555608E-2</v>
+      </c>
+      <c r="J12" s="90">
         <f t="shared" si="6"/>
-        <v>1.041666666666663E-2</v>
-      </c>
-      <c r="G12" s="5">
-        <f t="shared" si="7"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="H12" s="5">
-        <f t="shared" si="8"/>
-        <v>0.22222222222222227</v>
-      </c>
-      <c r="I12" s="5">
-        <f t="shared" si="9"/>
-        <v>5.5555555555555608E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -3683,19 +3855,23 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="90">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H13" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3708,19 +3884,23 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="90">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H14" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3741,45 +3921,61 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="F15" s="5">
+        <f t="shared" si="7"/>
+        <v>2.7777777777777679E-2</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="9"/>
+        <v>0.2604166666666668</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="10"/>
+        <v>9.3750000000000139E-2</v>
+      </c>
+      <c r="J15" s="90">
         <f t="shared" si="6"/>
-        <v>2.7777777777777679E-2</v>
-      </c>
-      <c r="G15" s="5">
-        <f t="shared" si="7"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="H15" s="5">
-        <f t="shared" si="8"/>
-        <v>0.2604166666666668</v>
-      </c>
-      <c r="I15" s="5">
-        <f t="shared" si="9"/>
-        <v>9.3750000000000139E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>39673</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="B16" s="4">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F16" s="5">
+        <f t="shared" si="7"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="9"/>
+        <v>0.2604166666666668</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="10"/>
+        <v>9.3750000000000139E-2</v>
+      </c>
+      <c r="J16" s="90">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -3791,70 +3987,96 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H17" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="90">
+        <v>0</v>
+      </c>
+      <c r="K17" s="79" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>39675</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="B18" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.54861111111111105</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="9"/>
+        <v>0.21527777777777773</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="10"/>
+        <v>4.8611111111111077E-2</v>
+      </c>
+      <c r="J18" s="90">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>39676</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="B19" s="4">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.53125</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.65625</v>
+      </c>
       <c r="F19" s="5">
+        <f t="shared" si="7"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="9"/>
+        <v>0.2361111111111111</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="10"/>
+        <v>6.9444444444444448E-2</v>
+      </c>
+      <c r="J19" s="90">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -3866,19 +4088,23 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="90">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H20" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="5">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K20" s="7"/>
@@ -3892,19 +4118,23 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="90">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H21" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="5">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3912,125 +4142,185 @@
       <c r="A22" s="3">
         <v>39679</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="B22" s="4">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.51874999999999993</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.59236111111111112</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F22" s="5">
+        <f t="shared" si="7"/>
+        <v>7.3611111111111183E-2</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="9"/>
+        <v>0.24583333333333329</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="10"/>
+        <v>7.9166666666666635E-2</v>
+      </c>
+      <c r="J22" s="90">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>39680</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="B23" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.59513888888888888</v>
+      </c>
       <c r="F23" s="5">
+        <f t="shared" si="7"/>
+        <v>2.7777777777777679E-2</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="9"/>
+        <v>0.23402777777777789</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="10"/>
+        <v>6.7361111111111233E-2</v>
+      </c>
+      <c r="J23" s="90">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>39681</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="B24" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.54375000000000007</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="F24" s="5">
+        <f t="shared" si="7"/>
+        <v>1.8055555555555602E-2</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="9"/>
+        <v>0.16944444444444445</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" si="10"/>
+        <v>2.7777777777777957E-3</v>
+      </c>
+      <c r="J24" s="90">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>39682</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="B25" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.51180555555555551</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.60069444444444442</v>
+      </c>
       <c r="F25" s="5">
+        <f t="shared" si="7"/>
+        <v>1.5972222222222276E-2</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="9"/>
+        <v>0.25138888888888883</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="10"/>
+        <v>8.4722222222222171E-2</v>
+      </c>
+      <c r="J25" s="90">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>39683</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="B26" s="4">
+        <v>0.33819444444444446</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.54236111111111118</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.61319444444444449</v>
+      </c>
       <c r="F26" s="5">
+        <f t="shared" si="7"/>
+        <v>2.4305555555555469E-2</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="9"/>
+        <v>0.25069444444444455</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="10"/>
+        <v>8.4027777777777896E-2</v>
+      </c>
+      <c r="J26" s="90">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -4042,19 +4332,23 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="90">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H27" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="5">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4067,19 +4361,23 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="90">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H28" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="5">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4092,20 +4390,24 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="90">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="19"/>
     </row>
@@ -4118,20 +4420,24 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="90">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -4143,20 +4449,24 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="90">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -4168,23 +4478,27 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="90">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>39690</v>
       </c>
@@ -4193,23 +4507,27 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="90">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -4218,29 +4536,176 @@
       <c r="F34" s="10"/>
       <c r="G34" s="21">
         <f>SUM(G3:G33)</f>
-        <v>1.5</v>
+        <v>2.8333333333333326</v>
       </c>
       <c r="H34" s="21">
         <f>SUM(H3:H33)</f>
-        <v>1.7409722222222224</v>
+        <v>3.6041666666666665</v>
       </c>
       <c r="I34" s="20">
         <f>SUM(I3:I33)</f>
-        <v>0.24097222222222245</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.7708333333333337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="11"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="11"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="11"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="11"/>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="80"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" s="83">
+        <f>'BH 2012'!$F$4</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="I36" s="111"/>
+      <c r="R36" s="95">
+        <v>2000</v>
+      </c>
+      <c r="S36" s="94"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="26"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" s="86">
+        <f>G34/H36</f>
+        <v>0.7727272727272726</v>
+      </c>
+      <c r="I37" s="86">
+        <f>H34/H36</f>
+        <v>0.98295454545454541</v>
+      </c>
+      <c r="R37" s="96">
+        <f>$R$36*H37</f>
+        <v>1545.4545454545453</v>
+      </c>
+      <c r="S37" s="92">
+        <f>$R$36*I37</f>
+        <v>1965.9090909090908</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="29"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" s="89">
+        <f>1-H37</f>
+        <v>0.2272727272727274</v>
+      </c>
+      <c r="I38" s="89">
+        <f>1-I37</f>
+        <v>1.7045454545454586E-2</v>
+      </c>
+      <c r="R38" s="96">
+        <f>$R$36*H38</f>
+        <v>454.54545454545479</v>
+      </c>
+      <c r="S38" s="92">
+        <f>$R$36*I38</f>
+        <v>34.090909090909172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R39" s="96"/>
+      <c r="S39" s="27"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="80"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" s="83">
+        <f>$P$4*SUM(J3:J33)</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="I40" s="111"/>
+      <c r="R40" s="96"/>
+      <c r="S40" s="27"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="26"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" s="86">
+        <f>G34/H40</f>
+        <v>0.7727272727272726</v>
+      </c>
+      <c r="I41" s="86">
+        <f>H34/H40</f>
+        <v>0.98295454545454541</v>
+      </c>
+      <c r="R41" s="96">
+        <f>$R$36*H41</f>
+        <v>1545.4545454545453</v>
+      </c>
+      <c r="S41" s="92">
+        <f>$R$36*I41</f>
+        <v>1965.9090909090908</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="29"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" s="89">
+        <f>1-H41</f>
+        <v>0.2272727272727274</v>
+      </c>
+      <c r="I42" s="89">
+        <f>1-I41</f>
+        <v>1.7045454545454586E-2</v>
+      </c>
+      <c r="R42" s="97">
+        <f>$R$36*H42</f>
+        <v>454.54545454545479</v>
+      </c>
+      <c r="S42" s="93">
+        <f>$R$36*I42</f>
+        <v>34.090909090909172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R43" s="91"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R44" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4289,10 +4754,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4318,17 +4783,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="88"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -4358,14 +4823,14 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="89" t="s">
+      <c r="K2" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="91"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="110"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -4391,6 +4856,10 @@
         <f>IF(G3&lt;&gt;"",H3-G3,0)</f>
         <v>0</v>
       </c>
+      <c r="J3" s="90">
+        <f>IF(AND(WEEKDAY(A3)&gt;1,WEEKDAY(A3)&lt;7),1,0)</f>
+        <v>0</v>
+      </c>
       <c r="K3" s="12" t="s">
         <v>1</v>
       </c>
@@ -4434,6 +4903,10 @@
         <f t="shared" ref="I4:I33" si="3">IF(G4&lt;&gt;"",H4-G4,0)</f>
         <v>0</v>
       </c>
+      <c r="J4" s="90">
+        <f t="shared" ref="J4:J33" si="4">IF(AND(WEEKDAY(A4)&gt;1,WEEKDAY(A4)&lt;7),1,0)</f>
+        <v>0</v>
+      </c>
       <c r="K4" s="14">
         <v>0.33333333333333331</v>
       </c>
@@ -4480,6 +4953,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J5" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -4505,6 +4982,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J6" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="K6" s="22" t="s">
         <v>10</v>
       </c>
@@ -4538,6 +5019,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J7" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="K7" s="25" t="s">
         <v>38</v>
       </c>
@@ -4571,6 +5056,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J8" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="K8" s="25" t="s">
         <v>32</v>
       </c>
@@ -4604,6 +5093,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J9" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="K9" s="28" t="s">
         <v>31</v>
       </c>
@@ -4637,6 +5130,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J10" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -4662,6 +5159,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J11" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K11" s="74"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -4688,6 +5189,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J12" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -4713,6 +5218,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J13" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -4738,6 +5247,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J14" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -4763,6 +5276,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J15" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -4788,6 +5305,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J16" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -4813,6 +5334,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J17" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -4838,6 +5363,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J18" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -4863,6 +5392,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J19" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -4888,6 +5421,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J20" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -4914,6 +5451,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J21" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -4939,6 +5480,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J22" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
@@ -4964,6 +5509,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J23" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -4989,6 +5538,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J24" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
@@ -5014,6 +5567,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J25" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -5039,6 +5596,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J26" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
@@ -5064,6 +5625,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J27" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
@@ -5089,6 +5654,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J28" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
@@ -5114,6 +5683,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J29" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="K29" s="19"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -5140,6 +5713,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J30" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
@@ -5165,6 +5742,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J31" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
@@ -5190,8 +5771,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -5213,8 +5798,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -5234,18 +5823,159 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="11"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="11"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="11"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="11"/>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="80"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" s="83">
+        <f>'BH 2012'!$F$4</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="I36" s="111"/>
+      <c r="R36" s="95">
+        <v>2000</v>
+      </c>
+      <c r="S36" s="94"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="26"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" s="86">
+        <f>G34/H36</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="86">
+        <f>H34/H36</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="96">
+        <f>$R$36*H37</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="92">
+        <f>$R$36*I37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="29"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" s="89">
+        <f>1-H37</f>
+        <v>1</v>
+      </c>
+      <c r="I38" s="89">
+        <f>1-I37</f>
+        <v>1</v>
+      </c>
+      <c r="R38" s="96">
+        <f>$R$36*H38</f>
+        <v>2000</v>
+      </c>
+      <c r="S38" s="92">
+        <f>$R$36*I38</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R39" s="96"/>
+      <c r="S39" s="27"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="80"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" s="83">
+        <f>$P$4*SUM(J3:J33)</f>
+        <v>3.5</v>
+      </c>
+      <c r="I40" s="112"/>
+      <c r="R40" s="96"/>
+      <c r="S40" s="27"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="26"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" s="86">
+        <f>G34/H40</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="86">
+        <f>H34/H40</f>
+        <v>0</v>
+      </c>
+      <c r="R41" s="96">
+        <f>$R$36*H41</f>
+        <v>0</v>
+      </c>
+      <c r="S41" s="92">
+        <f>$R$36*I41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="29"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" s="89">
+        <f>1-H41</f>
+        <v>1</v>
+      </c>
+      <c r="I42" s="89">
+        <f>1-I41</f>
+        <v>1</v>
+      </c>
+      <c r="R42" s="97">
+        <f>$R$36*H42</f>
+        <v>2000</v>
+      </c>
+      <c r="S42" s="93">
+        <f>$R$36*I42</f>
+        <v>2000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5294,10 +6024,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5323,17 +6053,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="88"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -5363,14 +6093,14 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="89" t="s">
+      <c r="K2" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="91"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="110"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -5396,6 +6126,10 @@
         <f>IF(G3&lt;&gt;"",H3-G3,0)</f>
         <v>0</v>
       </c>
+      <c r="J3" s="90">
+        <f>IF(AND(WEEKDAY(A3)&gt;1,WEEKDAY(A3)&lt;7),1,0)</f>
+        <v>1</v>
+      </c>
       <c r="K3" s="12" t="s">
         <v>1</v>
       </c>
@@ -5439,6 +6173,10 @@
         <f t="shared" ref="I4:I33" si="3">IF(G4&lt;&gt;"",H4-G4,0)</f>
         <v>0</v>
       </c>
+      <c r="J4" s="90">
+        <f t="shared" ref="J4:J33" si="4">IF(AND(WEEKDAY(A4)&gt;1,WEEKDAY(A4)&lt;7),1,0)</f>
+        <v>1</v>
+      </c>
       <c r="K4" s="14">
         <v>0.33333333333333331</v>
       </c>
@@ -5485,6 +6223,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J5" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -5510,6 +6252,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J6" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="K6" s="22" t="s">
         <v>10</v>
       </c>
@@ -5543,6 +6289,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J7" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="K7" s="25" t="s">
         <v>38</v>
       </c>
@@ -5576,6 +6326,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J8" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K8" s="25" t="s">
         <v>32</v>
       </c>
@@ -5609,6 +6363,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J9" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K9" s="28" t="s">
         <v>31</v>
       </c>
@@ -5642,6 +6400,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J10" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -5667,6 +6429,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J11" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="K11" s="74"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -5693,6 +6459,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J12" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -5718,6 +6488,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J13" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -5743,6 +6517,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J14" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -5768,6 +6546,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J15" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -5793,6 +6575,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J16" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -5818,6 +6604,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J17" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -5843,6 +6633,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J18" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -5868,6 +6662,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J19" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -5893,6 +6691,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J20" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -5919,6 +6721,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J21" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -5944,6 +6750,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J22" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
@@ -5969,6 +6779,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J23" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -5994,6 +6808,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J24" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
@@ -6019,6 +6837,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J25" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -6044,6 +6866,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J26" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
@@ -6069,6 +6895,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J27" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
@@ -6094,6 +6924,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J28" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
@@ -6119,6 +6953,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J29" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K29" s="19"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -6145,6 +6983,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J30" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
@@ -6170,6 +7012,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J31" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
@@ -6195,8 +7041,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>39751</v>
       </c>
@@ -6220,8 +7070,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -6241,18 +7095,159 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="11"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="11"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="11"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="11"/>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="80"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" s="83">
+        <f>'BH 2012'!$F$4</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="I36" s="111"/>
+      <c r="R36" s="95">
+        <v>2000</v>
+      </c>
+      <c r="S36" s="94"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="26"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" s="86">
+        <f>G34/H36</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="86">
+        <f>H34/H36</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="96">
+        <f>$R$36*H37</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="92">
+        <f>$R$36*I37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="29"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" s="89">
+        <f>1-H37</f>
+        <v>1</v>
+      </c>
+      <c r="I38" s="89">
+        <f>1-I37</f>
+        <v>1</v>
+      </c>
+      <c r="R38" s="96">
+        <f>$R$36*H38</f>
+        <v>2000</v>
+      </c>
+      <c r="S38" s="92">
+        <f>$R$36*I38</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R39" s="96"/>
+      <c r="S39" s="27"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="80"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" s="83">
+        <f>$P$4*SUM(J3:J33)</f>
+        <v>3.833333333333333</v>
+      </c>
+      <c r="I40" s="112"/>
+      <c r="R40" s="96"/>
+      <c r="S40" s="27"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="26"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" s="86">
+        <f>G34/H40</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="86">
+        <f>H34/H40</f>
+        <v>0</v>
+      </c>
+      <c r="R41" s="96">
+        <f>$R$36*H41</f>
+        <v>0</v>
+      </c>
+      <c r="S41" s="92">
+        <f>$R$36*I41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="29"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" s="89">
+        <f>1-H41</f>
+        <v>1</v>
+      </c>
+      <c r="I42" s="89">
+        <f>1-I41</f>
+        <v>1</v>
+      </c>
+      <c r="R42" s="97">
+        <f>$R$36*H42</f>
+        <v>2000</v>
+      </c>
+      <c r="S42" s="93">
+        <f>$R$36*I42</f>
+        <v>2000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/e-Controle de Horas (IMR).xlsx
+++ b/e-Controle de Horas (IMR).xlsx
@@ -1087,6 +1087,12 @@
     <xf numFmtId="43" fontId="27" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1125,12 +1131,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="9" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1804,29 +1804,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
       <c r="G1" s="33" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="103" t="s">
+      <c r="B2" s="106"/>
+      <c r="C2" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
       <c r="G2" s="33" t="s">
         <v>40</v>
       </c>
@@ -2049,22 +2049,22 @@
       </c>
       <c r="B14" s="39">
         <f>'08-2012'!G34</f>
-        <v>2.8333333333333326</v>
+        <v>2.9999999999999991</v>
       </c>
       <c r="C14" s="39">
         <f>'08-2012'!H34</f>
-        <v>3.6041666666666665</v>
+        <v>3.8791666666666664</v>
       </c>
       <c r="D14" s="44">
         <f>'08-2012'!I34</f>
-        <v>0.7708333333333337</v>
+        <v>0.8791666666666671</v>
       </c>
       <c r="E14" s="40">
         <v>0</v>
       </c>
       <c r="F14" s="41">
         <f t="shared" ref="F14:F18" si="2">D14-E14</f>
-        <v>0.7708333333333337</v>
+        <v>0.8791666666666671</v>
       </c>
       <c r="G14" s="33" t="s">
         <v>40</v>
@@ -2177,11 +2177,11 @@
       <c r="D20" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="99">
+      <c r="E20" s="101">
         <f>SUM(D7:D18)</f>
-        <v>0.7708333333333337</v>
-      </c>
-      <c r="F20" s="99"/>
+        <v>0.8791666666666671</v>
+      </c>
+      <c r="F20" s="101"/>
       <c r="G20" s="33" t="s">
         <v>40</v>
       </c>
@@ -2194,11 +2194,11 @@
       <c r="D21" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="100">
+      <c r="E21" s="102">
         <f>SUM(E8:E19)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="100"/>
+      <c r="F21" s="102"/>
       <c r="G21" s="33" t="s">
         <v>40</v>
       </c>
@@ -2211,11 +2211,11 @@
       <c r="D22" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="101">
+      <c r="E22" s="103">
         <f>SUM(F9:F20)</f>
-        <v>0.7708333333333337</v>
-      </c>
-      <c r="F22" s="101"/>
+        <v>0.8791666666666671</v>
+      </c>
+      <c r="F22" s="103"/>
       <c r="G22" s="33" t="s">
         <v>40</v>
       </c>
@@ -2236,14 +2236,14 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="70"/>
       <c r="B24" s="71"/>
-      <c r="C24" s="102" t="s">
+      <c r="C24" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
       <c r="F24" s="72">
         <f>E22/F3</f>
-        <v>4.6250000000000027</v>
+        <v>5.275000000000003</v>
       </c>
       <c r="G24" s="33" t="s">
         <v>40</v>
@@ -2347,17 +2347,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="107"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="109"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -2387,14 +2387,14 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="108" t="s">
+      <c r="K2" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="110"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="112"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -3346,7 +3346,7 @@
   <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3372,17 +3372,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="107"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="109"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -3412,14 +3412,14 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="108" t="s">
+      <c r="K2" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="110"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="112"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -4502,25 +4502,33 @@
       <c r="A33" s="3">
         <v>39690</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="B33" s="4">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.53541666666666665</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.65972222222222221</v>
+      </c>
       <c r="F33" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.4027777777777768E-2</v>
       </c>
       <c r="G33" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H33" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="I33" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.10833333333333336</v>
       </c>
       <c r="J33" s="90">
         <f t="shared" si="6"/>
@@ -4536,15 +4544,15 @@
       <c r="F34" s="10"/>
       <c r="G34" s="21">
         <f>SUM(G3:G33)</f>
-        <v>2.8333333333333326</v>
+        <v>2.9999999999999991</v>
       </c>
       <c r="H34" s="21">
         <f>SUM(H3:H33)</f>
-        <v>3.6041666666666665</v>
+        <v>3.8791666666666664</v>
       </c>
       <c r="I34" s="20">
         <f>SUM(I3:I33)</f>
-        <v>0.7708333333333337</v>
+        <v>0.8791666666666671</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -4565,7 +4573,7 @@
         <f>'BH 2012'!$F$4</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="I36" s="111"/>
+      <c r="I36" s="98"/>
       <c r="R36" s="95">
         <v>2000</v>
       </c>
@@ -4583,19 +4591,19 @@
       </c>
       <c r="H37" s="86">
         <f>G34/H36</f>
-        <v>0.7727272727272726</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="I37" s="86">
         <f>H34/H36</f>
-        <v>0.98295454545454541</v>
+        <v>1.0579545454545454</v>
       </c>
       <c r="R37" s="96">
         <f>$R$36*H37</f>
-        <v>1545.4545454545453</v>
+        <v>1636.363636363636</v>
       </c>
       <c r="S37" s="92">
         <f>$R$36*I37</f>
-        <v>1965.9090909090908</v>
+        <v>2115.9090909090905</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
@@ -4610,19 +4618,19 @@
       </c>
       <c r="H38" s="89">
         <f>1-H37</f>
-        <v>0.2272727272727274</v>
+        <v>0.18181818181818199</v>
       </c>
       <c r="I38" s="89">
         <f>1-I37</f>
-        <v>1.7045454545454586E-2</v>
+        <v>-5.795454545454537E-2</v>
       </c>
       <c r="R38" s="96">
         <f>$R$36*H38</f>
-        <v>454.54545454545479</v>
+        <v>363.63636363636397</v>
       </c>
       <c r="S38" s="92">
         <f>$R$36*I38</f>
-        <v>34.090909090909172</v>
+        <v>-115.90909090909074</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
@@ -4643,7 +4651,7 @@
         <f>$P$4*SUM(J3:J33)</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="I40" s="111"/>
+      <c r="I40" s="98"/>
       <c r="R40" s="96"/>
       <c r="S40" s="27"/>
     </row>
@@ -4659,19 +4667,19 @@
       </c>
       <c r="H41" s="86">
         <f>G34/H40</f>
-        <v>0.7727272727272726</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="I41" s="86">
         <f>H34/H40</f>
-        <v>0.98295454545454541</v>
+        <v>1.0579545454545454</v>
       </c>
       <c r="R41" s="96">
         <f>$R$36*H41</f>
-        <v>1545.4545454545453</v>
+        <v>1636.363636363636</v>
       </c>
       <c r="S41" s="92">
         <f>$R$36*I41</f>
-        <v>1965.9090909090908</v>
+        <v>2115.9090909090905</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
@@ -4686,19 +4694,19 @@
       </c>
       <c r="H42" s="89">
         <f>1-H41</f>
-        <v>0.2272727272727274</v>
+        <v>0.18181818181818199</v>
       </c>
       <c r="I42" s="89">
         <f>1-I41</f>
-        <v>1.7045454545454586E-2</v>
+        <v>-5.795454545454537E-2</v>
       </c>
       <c r="R42" s="97">
         <f>$R$36*H42</f>
-        <v>454.54545454545479</v>
+        <v>363.63636363636397</v>
       </c>
       <c r="S42" s="93">
         <f>$R$36*I42</f>
-        <v>34.090909090909172</v>
+        <v>-115.90909090909074</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
@@ -4783,17 +4791,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="107"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="109"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -4823,14 +4831,14 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="108" t="s">
+      <c r="K2" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="110"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="112"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -5841,7 +5849,7 @@
         <f>'BH 2012'!$F$4</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="I36" s="111"/>
+      <c r="I36" s="98"/>
       <c r="R36" s="95">
         <v>2000</v>
       </c>
@@ -5919,7 +5927,7 @@
         <f>$P$4*SUM(J3:J33)</f>
         <v>3.5</v>
       </c>
-      <c r="I40" s="112"/>
+      <c r="I40" s="99"/>
       <c r="R40" s="96"/>
       <c r="S40" s="27"/>
     </row>
@@ -6053,17 +6061,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="107"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="109"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -6093,14 +6101,14 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="108" t="s">
+      <c r="K2" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="110"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="112"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -7113,7 +7121,7 @@
         <f>'BH 2012'!$F$4</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="I36" s="111"/>
+      <c r="I36" s="98"/>
       <c r="R36" s="95">
         <v>2000</v>
       </c>
@@ -7191,7 +7199,7 @@
         <f>$P$4*SUM(J3:J33)</f>
         <v>3.833333333333333</v>
       </c>
-      <c r="I40" s="112"/>
+      <c r="I40" s="99"/>
       <c r="R40" s="96"/>
       <c r="S40" s="27"/>
     </row>

--- a/e-Controle de Horas (IMR).xlsx
+++ b/e-Controle de Horas (IMR).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr date1904="1" codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="11340" windowHeight="8580" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="11340" windowHeight="8580" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BH 2012" sheetId="17" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="49">
   <si>
     <t>Data</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t xml:space="preserve">Total CH/Mês: </t>
+  </si>
+  <si>
+    <t>Feriado</t>
   </si>
 </sst>
 </file>
@@ -796,7 +799,7 @@
     <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1091,6 +1094,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="8" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1804,29 +1822,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
       <c r="G1" s="33" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="105" t="s">
+      <c r="B2" s="111"/>
+      <c r="C2" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
       <c r="G2" s="33" t="s">
         <v>40</v>
       </c>
@@ -2077,22 +2095,22 @@
       </c>
       <c r="B15" s="63">
         <f>'09-2012'!G34</f>
-        <v>0</v>
+        <v>2.6666666666666661</v>
       </c>
       <c r="C15" s="63">
         <f>'09-2012'!H34</f>
-        <v>0</v>
+        <v>3.9236111111111112</v>
       </c>
       <c r="D15" s="64">
         <f>'09-2012'!I34</f>
-        <v>0</v>
+        <v>1.2569444444444449</v>
       </c>
       <c r="E15" s="65">
         <v>0</v>
       </c>
       <c r="F15" s="66">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.2569444444444449</v>
       </c>
       <c r="G15" s="33" t="s">
         <v>40</v>
@@ -2177,11 +2195,11 @@
       <c r="D20" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="101">
+      <c r="E20" s="106">
         <f>SUM(D7:D18)</f>
-        <v>0.8791666666666671</v>
-      </c>
-      <c r="F20" s="101"/>
+        <v>2.136111111111112</v>
+      </c>
+      <c r="F20" s="106"/>
       <c r="G20" s="33" t="s">
         <v>40</v>
       </c>
@@ -2194,11 +2212,11 @@
       <c r="D21" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="102">
+      <c r="E21" s="107">
         <f>SUM(E8:E19)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="102"/>
+      <c r="F21" s="107"/>
       <c r="G21" s="33" t="s">
         <v>40</v>
       </c>
@@ -2211,11 +2229,11 @@
       <c r="D22" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="103">
+      <c r="E22" s="108">
         <f>SUM(F9:F20)</f>
-        <v>0.8791666666666671</v>
-      </c>
-      <c r="F22" s="103"/>
+        <v>2.136111111111112</v>
+      </c>
+      <c r="F22" s="108"/>
       <c r="G22" s="33" t="s">
         <v>40</v>
       </c>
@@ -2236,14 +2254,14 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="70"/>
       <c r="B24" s="71"/>
-      <c r="C24" s="104" t="s">
+      <c r="C24" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
       <c r="F24" s="72">
         <f>E22/F3</f>
-        <v>5.275000000000003</v>
+        <v>12.816666666666672</v>
       </c>
       <c r="G24" s="33" t="s">
         <v>40</v>
@@ -2347,17 +2365,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="109"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="114"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -2387,14 +2405,14 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="110" t="s">
+      <c r="K2" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="112"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="117"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -3345,8 +3363,8 @@
   </sheetPr>
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3372,17 +3390,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="109"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="114"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -3412,14 +3430,14 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="110" t="s">
+      <c r="K2" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="112"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="117"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -4570,14 +4588,16 @@
         <v>46</v>
       </c>
       <c r="H36" s="83">
-        <f>'BH 2012'!$F$4</f>
+        <f>IF(H40&gt;'BH 2012'!F4,'BH 2012'!F4,H40)</f>
         <v>3.6666666666666665</v>
       </c>
       <c r="I36" s="98"/>
       <c r="R36" s="95">
         <v>2000</v>
       </c>
-      <c r="S36" s="94"/>
+      <c r="S36" s="101">
+        <v>1000</v>
+      </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="26"/>
@@ -4624,7 +4644,7 @@
         <f>1-I37</f>
         <v>-5.795454545454537E-2</v>
       </c>
-      <c r="R38" s="96">
+      <c r="R38" s="100">
         <f>$R$36*H38</f>
         <v>363.63636363636397</v>
       </c>
@@ -4710,7 +4730,11 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="R43" s="91"/>
+      <c r="R43" s="104"/>
+      <c r="S43" s="103">
+        <f>S36-R38</f>
+        <v>636.36363636363603</v>
+      </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="R44" s="91"/>
@@ -4762,10 +4786,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S42"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4790,20 +4814,20 @@
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:18" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="109"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="114"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4831,16 +4855,16 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="110" t="s">
+      <c r="K2" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="112"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="117"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>39691</v>
       </c>
@@ -4887,7 +4911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>39692</v>
       </c>
@@ -4912,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="90">
-        <f t="shared" ref="J4:J33" si="4">IF(AND(WEEKDAY(A4)&gt;1,WEEKDAY(A4)&lt;7),1,0)</f>
+        <f t="shared" ref="J4:J32" si="4">IF(AND(WEEKDAY(A4)&gt;1,WEEKDAY(A4)&lt;7),1,0)</f>
         <v>0</v>
       </c>
       <c r="K4" s="14">
@@ -4937,41 +4961,53 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>39693</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="4">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.51458333333333328</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.66249999999999998</v>
+      </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5000000000000022E-2</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.26597222222222222</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.9305555555555564E-2</v>
       </c>
       <c r="J5" s="90">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>39694</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="4">
+        <v>0.33888888888888885</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.5180555555555556</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="5">
@@ -4980,15 +5016,15 @@
       </c>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.17916666666666675</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.2500000000000094E-2</v>
       </c>
       <c r="J6" s="90">
         <f t="shared" si="4"/>
@@ -5003,29 +5039,37 @@
       <c r="O6" s="23"/>
       <c r="P6" s="24"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>39695</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="B7" s="4">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.55069444444444449</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.57708333333333328</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.6388888888888795E-2</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.31736111111111126</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.1506944444444446</v>
       </c>
       <c r="J7" s="90">
         <f t="shared" si="4"/>
@@ -5040,29 +5084,37 @@
       <c r="O7" s="26"/>
       <c r="P7" s="27"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>39696</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="B8" s="4">
+        <v>0.36319444444444443</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.53402777777777777</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.68541666666666667</v>
+      </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.7222222222221877E-3</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.31250000000000006</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.1458333333333334</v>
       </c>
       <c r="J8" s="90">
         <f t="shared" si="4"/>
@@ -5077,7 +5129,7 @@
       <c r="O8" s="26"/>
       <c r="P8" s="27"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>39697</v>
       </c>
@@ -5102,8 +5154,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="90">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="28" t="s">
         <v>31</v>
@@ -5113,8 +5164,11 @@
       <c r="N9" s="29"/>
       <c r="O9" s="29"/>
       <c r="P9" s="30"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R9" s="79" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>39698</v>
       </c>
@@ -5143,7 +5197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>39699</v>
       </c>
@@ -5173,145 +5227,185 @@
       </c>
       <c r="K11" s="74"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>39700</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="B12" s="4">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.55625000000000002</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.625</v>
+      </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.0555555555555558E-2</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.25416666666666671</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.750000000000005E-2</v>
       </c>
       <c r="J12" s="90">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>39701</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="B13" s="4">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.60347222222222219</v>
+      </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.2493055555555555</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.2638888888888845E-2</v>
       </c>
       <c r="J13" s="90">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>39702</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="B14" s="4">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.6118055555555556</v>
+      </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0138888888888928E-2</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.18888888888888894</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.2222222222222282E-2</v>
       </c>
       <c r="J14" s="90">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>39703</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="B15" s="4">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.69513888888888886</v>
+      </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.0972222222222232E-2</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.26736111111111105</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.10069444444444439</v>
       </c>
       <c r="J15" s="90">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>39704</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="B16" s="4">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2500000000000067E-2</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.2097222222222222</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.3055555555555541E-2</v>
       </c>
       <c r="J16" s="90">
         <f t="shared" si="4"/>
@@ -5380,25 +5474,33 @@
       <c r="A19" s="3">
         <v>39707</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="B19" s="4">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.55625000000000002</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.71319444444444446</v>
+      </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4583333333333393E-2</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.21249999999999997</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.5833333333333309E-2</v>
       </c>
       <c r="J19" s="90">
         <f t="shared" si="4"/>
@@ -5409,25 +5511,33 @@
       <c r="A20" s="3">
         <v>39708</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="B20" s="4">
+        <v>0.41041666666666665</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.65277777777777779</v>
+      </c>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.7222222222221877E-3</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.23263888888888895</v>
       </c>
       <c r="I20" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.5972222222222293E-2</v>
       </c>
       <c r="J20" s="90">
         <f t="shared" si="4"/>
@@ -5439,25 +5549,33 @@
       <c r="A21" s="3">
         <v>39709</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="B21" s="4">
+        <v>0.34375</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.53263888888888888</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.67708333333333337</v>
+      </c>
       <c r="F21" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.9861111111111116E-2</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.30347222222222225</v>
       </c>
       <c r="I21" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.1368055555555556</v>
       </c>
       <c r="J21" s="90">
         <f t="shared" si="4"/>
@@ -5468,8 +5586,12 @@
       <c r="A22" s="3">
         <v>39710</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="4">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="5">
@@ -5478,15 +5600,15 @@
       </c>
       <c r="G22" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.18055555555555564</v>
       </c>
       <c r="I22" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.3888888888888978E-2</v>
       </c>
       <c r="J22" s="90">
         <f t="shared" si="4"/>
@@ -5497,25 +5619,33 @@
       <c r="A23" s="3">
         <v>39711</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="B23" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.7055555555555556</v>
+      </c>
       <c r="F23" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.33750000000000008</v>
       </c>
       <c r="I23" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.17083333333333342</v>
       </c>
       <c r="J23" s="90">
         <f t="shared" si="4"/>
@@ -5671,25 +5801,33 @@
       <c r="A29" s="3">
         <v>39717</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="B29" s="4">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.62569444444444444</v>
+      </c>
       <c r="F29" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.3888888888888951E-2</v>
       </c>
       <c r="G29" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H29" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="I29" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.3333333333333298E-2</v>
       </c>
       <c r="J29" s="90">
         <f t="shared" si="4"/>
@@ -5703,23 +5841,27 @@
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="D30" s="4">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.76458333333333339</v>
+      </c>
       <c r="F30" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G30" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.21250000000000002</v>
       </c>
       <c r="I30" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.5833333333333365E-2</v>
       </c>
       <c r="J30" s="90">
         <f t="shared" si="4"/>
@@ -5806,10 +5948,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J33" s="90">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+      <c r="J33" s="90"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
@@ -5820,15 +5959,15 @@
       <c r="F34" s="10"/>
       <c r="G34" s="21">
         <f>SUM(G3:G33)</f>
-        <v>0</v>
+        <v>2.6666666666666661</v>
       </c>
       <c r="H34" s="21">
         <f>SUM(H3:H33)</f>
-        <v>0</v>
+        <v>3.9236111111111112</v>
       </c>
       <c r="I34" s="20">
         <f>SUM(I3:I33)</f>
-        <v>0</v>
+        <v>1.2569444444444449</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -5846,14 +5985,17 @@
         <v>46</v>
       </c>
       <c r="H36" s="83">
-        <f>'BH 2012'!$F$4</f>
-        <v>3.6666666666666665</v>
+        <f>IF(H40&gt;'BH 2012'!F4,'BH 2012'!F4,H40)</f>
+        <v>3.1666666666666665</v>
       </c>
       <c r="I36" s="98"/>
       <c r="R36" s="95">
         <v>2000</v>
       </c>
-      <c r="S36" s="94"/>
+      <c r="S36" s="101">
+        <f>'08-2012'!S43</f>
+        <v>636.36363636363603</v>
+      </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="26"/>
@@ -5867,19 +6009,19 @@
       </c>
       <c r="H37" s="86">
         <f>G34/H36</f>
-        <v>0</v>
+        <v>0.84210526315789458</v>
       </c>
       <c r="I37" s="86">
         <f>H34/H36</f>
-        <v>0</v>
+        <v>1.2390350877192984</v>
       </c>
       <c r="R37" s="96">
         <f>$R$36*H37</f>
-        <v>0</v>
+        <v>1684.2105263157891</v>
       </c>
       <c r="S37" s="92">
         <f>$R$36*I37</f>
-        <v>0</v>
+        <v>2478.0701754385968</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
@@ -5894,19 +6036,19 @@
       </c>
       <c r="H38" s="89">
         <f>1-H37</f>
-        <v>1</v>
+        <v>0.15789473684210542</v>
       </c>
       <c r="I38" s="89">
         <f>1-I37</f>
-        <v>1</v>
-      </c>
-      <c r="R38" s="96">
+        <v>-0.23903508771929838</v>
+      </c>
+      <c r="R38" s="100">
         <f>$R$36*H38</f>
-        <v>2000</v>
+        <v>315.78947368421086</v>
       </c>
       <c r="S38" s="92">
         <f>$R$36*I38</f>
-        <v>2000</v>
+        <v>-478.07017543859678</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
@@ -5925,7 +6067,7 @@
       </c>
       <c r="H40" s="83">
         <f>$P$4*SUM(J3:J33)</f>
-        <v>3.5</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="I40" s="99"/>
       <c r="R40" s="96"/>
@@ -5943,19 +6085,19 @@
       </c>
       <c r="H41" s="86">
         <f>G34/H40</f>
-        <v>0</v>
+        <v>0.84210526315789458</v>
       </c>
       <c r="I41" s="86">
         <f>H34/H40</f>
-        <v>0</v>
+        <v>1.2390350877192984</v>
       </c>
       <c r="R41" s="96">
         <f>$R$36*H41</f>
-        <v>0</v>
+        <v>1684.2105263157891</v>
       </c>
       <c r="S41" s="92">
         <f>$R$36*I41</f>
-        <v>0</v>
+        <v>2478.0701754385968</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
@@ -5970,19 +6112,26 @@
       </c>
       <c r="H42" s="89">
         <f>1-H41</f>
-        <v>1</v>
+        <v>0.15789473684210542</v>
       </c>
       <c r="I42" s="89">
         <f>1-I41</f>
-        <v>1</v>
+        <v>-0.23903508771929838</v>
       </c>
       <c r="R42" s="97">
         <f>$R$36*H42</f>
-        <v>2000</v>
+        <v>315.78947368421086</v>
       </c>
       <c r="S42" s="93">
         <f>$R$36*I42</f>
-        <v>2000</v>
+        <v>-478.07017543859678</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R43" s="102"/>
+      <c r="S43" s="103">
+        <f>S36-R38</f>
+        <v>320.57416267942517</v>
       </c>
     </row>
   </sheetData>
@@ -6035,7 +6184,7 @@
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -6061,17 +6210,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="109"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="114"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -6101,14 +6250,14 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="110" t="s">
+      <c r="K2" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="112"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="117"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -7118,7 +7267,7 @@
         <v>46</v>
       </c>
       <c r="H36" s="83">
-        <f>'BH 2012'!$F$4</f>
+        <f>IF(H40&gt;'BH 2012'!F4,'BH 2012'!F4,H40)</f>
         <v>3.6666666666666665</v>
       </c>
       <c r="I36" s="98"/>

--- a/e-Controle de Horas (IMR).xlsx
+++ b/e-Controle de Horas (IMR).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr date1904="1" codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="11340" windowHeight="8580" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="11340" windowHeight="8580" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="BH 2012" sheetId="17" r:id="rId1"/>
@@ -1078,9 +1078,6 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="26" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1109,6 +1106,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4591,11 +4591,11 @@
         <f>IF(H40&gt;'BH 2012'!F4,'BH 2012'!F4,H40)</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="I36" s="98"/>
-      <c r="R36" s="95">
+      <c r="I36" s="97"/>
+      <c r="R36" s="94">
         <v>2000</v>
       </c>
-      <c r="S36" s="101">
+      <c r="S36" s="100">
         <v>1000</v>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
         <f>H34/H36</f>
         <v>1.0579545454545454</v>
       </c>
-      <c r="R37" s="96">
+      <c r="R37" s="95">
         <f>$R$36*H37</f>
         <v>1636.363636363636</v>
       </c>
@@ -4644,7 +4644,7 @@
         <f>1-I37</f>
         <v>-5.795454545454537E-2</v>
       </c>
-      <c r="R38" s="100">
+      <c r="R38" s="99">
         <f>$R$36*H38</f>
         <v>363.63636363636397</v>
       </c>
@@ -4654,7 +4654,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="R39" s="96"/>
+      <c r="R39" s="95"/>
       <c r="S39" s="27"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
@@ -4671,8 +4671,8 @@
         <f>$P$4*SUM(J3:J33)</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="I40" s="98"/>
-      <c r="R40" s="96"/>
+      <c r="I40" s="97"/>
+      <c r="R40" s="95"/>
       <c r="S40" s="27"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
@@ -4693,7 +4693,7 @@
         <f>H34/H40</f>
         <v>1.0579545454545454</v>
       </c>
-      <c r="R41" s="96">
+      <c r="R41" s="95">
         <f>$R$36*H41</f>
         <v>1636.363636363636</v>
       </c>
@@ -4720,7 +4720,7 @@
         <f>1-I41</f>
         <v>-5.795454545454537E-2</v>
       </c>
-      <c r="R42" s="97">
+      <c r="R42" s="96">
         <f>$R$36*H42</f>
         <v>363.63636363636397</v>
       </c>
@@ -4730,8 +4730,8 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="R43" s="104"/>
-      <c r="S43" s="103">
+      <c r="R43" s="103"/>
+      <c r="S43" s="102">
         <f>S36-R38</f>
         <v>636.36363636363603</v>
       </c>
@@ -4788,8 +4788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R43" sqref="R43:S43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5988,11 +5988,11 @@
         <f>IF(H40&gt;'BH 2012'!F4,'BH 2012'!F4,H40)</f>
         <v>3.1666666666666665</v>
       </c>
-      <c r="I36" s="98"/>
-      <c r="R36" s="95">
+      <c r="I36" s="97"/>
+      <c r="R36" s="94">
         <v>2000</v>
       </c>
-      <c r="S36" s="101">
+      <c r="S36" s="100">
         <f>'08-2012'!S43</f>
         <v>636.36363636363603</v>
       </c>
@@ -6015,7 +6015,7 @@
         <f>H34/H36</f>
         <v>1.2390350877192984</v>
       </c>
-      <c r="R37" s="96">
+      <c r="R37" s="95">
         <f>$R$36*H37</f>
         <v>1684.2105263157891</v>
       </c>
@@ -6042,7 +6042,7 @@
         <f>1-I37</f>
         <v>-0.23903508771929838</v>
       </c>
-      <c r="R38" s="100">
+      <c r="R38" s="99">
         <f>$R$36*H38</f>
         <v>315.78947368421086</v>
       </c>
@@ -6052,7 +6052,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="R39" s="96"/>
+      <c r="R39" s="95"/>
       <c r="S39" s="27"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
@@ -6069,8 +6069,8 @@
         <f>$P$4*SUM(J3:J33)</f>
         <v>3.1666666666666665</v>
       </c>
-      <c r="I40" s="99"/>
-      <c r="R40" s="96"/>
+      <c r="I40" s="98"/>
+      <c r="R40" s="95"/>
       <c r="S40" s="27"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
@@ -6091,7 +6091,7 @@
         <f>H34/H40</f>
         <v>1.2390350877192984</v>
       </c>
-      <c r="R41" s="96">
+      <c r="R41" s="95">
         <f>$R$36*H41</f>
         <v>1684.2105263157891</v>
       </c>
@@ -6118,7 +6118,7 @@
         <f>1-I41</f>
         <v>-0.23903508771929838</v>
       </c>
-      <c r="R42" s="97">
+      <c r="R42" s="96">
         <f>$R$36*H42</f>
         <v>315.78947368421086</v>
       </c>
@@ -6128,8 +6128,8 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="R43" s="102"/>
-      <c r="S43" s="103">
+      <c r="R43" s="101"/>
+      <c r="S43" s="102">
         <f>S36-R38</f>
         <v>320.57416267942517</v>
       </c>
@@ -6181,10 +6181,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S42"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -6263,25 +6263,33 @@
       <c r="A3" s="3">
         <v>39721</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="B3" s="4">
+        <v>0.36388888888888887</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="F3" s="5">
         <f>(IF(AND(C3&gt;0,D3&gt;0),D3-C3,0))</f>
-        <v>0</v>
+        <v>7.6388888888888951E-2</v>
       </c>
       <c r="G3" s="5">
         <f>IF(AND(WEEKDAY(A3)&gt;1,WEEKDAY(A3)&lt;7),IF(((E3-D3)+(C3-B3))&gt;0,$P$4,0),"")</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H3" s="5">
         <f>IF(G3&lt;&gt;0,(E3-D3)+(C3-B3),0)</f>
-        <v>0</v>
+        <v>0.20555555555555555</v>
       </c>
       <c r="I3" s="5">
         <f>IF(G3&lt;&gt;"",H3-G3,0)</f>
-        <v>0</v>
+        <v>3.888888888888889E-2</v>
       </c>
       <c r="J3" s="90">
         <f>IF(AND(WEEKDAY(A3)&gt;1,WEEKDAY(A3)&lt;7),1,0)</f>
@@ -6310,25 +6318,33 @@
       <c r="A4" s="3">
         <v>39722</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="B4" s="4">
+        <v>0.34375</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.53125</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.55069444444444449</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.59722222222222221</v>
+      </c>
       <c r="F4" s="5">
         <f t="shared" ref="F4:F33" si="0">(IF(AND(C4&gt;0,D4&gt;0),D4-C4,0))</f>
-        <v>0</v>
+        <v>1.9444444444444486E-2</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" ref="G4:G33" si="1">IF(AND(WEEKDAY(A4)&gt;1,WEEKDAY(A4)&lt;7),IF(((E4-D4)+(C4-B4))&gt;0,$P$4,0),"")</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" ref="H4:H33" si="2">IF(G4&lt;&gt;0,(E4-D4)+(C4-B4),0)</f>
-        <v>0</v>
+        <v>0.23402777777777772</v>
       </c>
       <c r="I4" s="5">
         <f t="shared" ref="I4:I33" si="3">IF(G4&lt;&gt;"",H4-G4,0)</f>
-        <v>0</v>
+        <v>6.7361111111111066E-2</v>
       </c>
       <c r="J4" s="90">
         <f t="shared" ref="J4:J33" si="4">IF(AND(WEEKDAY(A4)&gt;1,WEEKDAY(A4)&lt;7),1,0)</f>
@@ -6360,25 +6376,33 @@
       <c r="A5" s="3">
         <v>39723</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="4">
+        <v>0.34375</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.65416666666666667</v>
+      </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.28263888888888888</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.11597222222222223</v>
       </c>
       <c r="J5" s="90">
         <f t="shared" si="4"/>
@@ -6389,25 +6413,33 @@
       <c r="A6" s="3">
         <v>39724</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="B6" s="4">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.55625000000000002</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.0555555555555558E-2</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.19930555555555551</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.2638888888888856E-2</v>
       </c>
       <c r="J6" s="90">
         <f t="shared" si="4"/>
@@ -6426,25 +6458,33 @@
       <c r="A7" s="3">
         <v>39725</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="B7" s="4">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.736111111111116E-2</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.23611111111111105</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.9444444444444392E-2</v>
       </c>
       <c r="J7" s="90">
         <f t="shared" si="4"/>
@@ -7241,15 +7281,15 @@
       <c r="F34" s="10"/>
       <c r="G34" s="21">
         <f>SUM(G3:G33)</f>
-        <v>0</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="H34" s="21">
         <f>SUM(H3:H33)</f>
-        <v>0</v>
+        <v>1.1576388888888887</v>
       </c>
       <c r="I34" s="20">
         <f>SUM(I3:I33)</f>
-        <v>0</v>
+        <v>0.3243055555555554</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -7270,11 +7310,14 @@
         <f>IF(H40&gt;'BH 2012'!F4,'BH 2012'!F4,H40)</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="I36" s="98"/>
-      <c r="R36" s="95">
+      <c r="I36" s="97"/>
+      <c r="R36" s="94">
         <v>2000</v>
       </c>
-      <c r="S36" s="94"/>
+      <c r="S36" s="104">
+        <f>'09-2012'!S43</f>
+        <v>320.57416267942517</v>
+      </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="26"/>
@@ -7288,19 +7331,19 @@
       </c>
       <c r="H37" s="86">
         <f>G34/H36</f>
-        <v>0</v>
+        <v>0.22727272727272727</v>
       </c>
       <c r="I37" s="86">
         <f>H34/H36</f>
-        <v>0</v>
-      </c>
-      <c r="R37" s="96">
+        <v>0.31571969696969693</v>
+      </c>
+      <c r="R37" s="95">
         <f>$R$36*H37</f>
-        <v>0</v>
+        <v>454.5454545454545</v>
       </c>
       <c r="S37" s="92">
         <f>$R$36*I37</f>
-        <v>0</v>
+        <v>631.43939393939388</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
@@ -7315,23 +7358,23 @@
       </c>
       <c r="H38" s="89">
         <f>1-H37</f>
-        <v>1</v>
+        <v>0.77272727272727271</v>
       </c>
       <c r="I38" s="89">
         <f>1-I37</f>
-        <v>1</v>
-      </c>
-      <c r="R38" s="96">
+        <v>0.68428030303030307</v>
+      </c>
+      <c r="R38" s="95">
         <f>$R$36*H38</f>
-        <v>2000</v>
+        <v>1545.4545454545455</v>
       </c>
       <c r="S38" s="92">
         <f>$R$36*I38</f>
-        <v>2000</v>
+        <v>1368.5606060606062</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="R39" s="96"/>
+      <c r="R39" s="95"/>
       <c r="S39" s="27"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
@@ -7348,8 +7391,8 @@
         <f>$P$4*SUM(J3:J33)</f>
         <v>3.833333333333333</v>
       </c>
-      <c r="I40" s="99"/>
-      <c r="R40" s="96"/>
+      <c r="I40" s="98"/>
+      <c r="R40" s="95"/>
       <c r="S40" s="27"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
@@ -7364,19 +7407,19 @@
       </c>
       <c r="H41" s="86">
         <f>G34/H40</f>
-        <v>0</v>
+        <v>0.21739130434782608</v>
       </c>
       <c r="I41" s="86">
         <f>H34/H40</f>
-        <v>0</v>
-      </c>
-      <c r="R41" s="96">
+        <v>0.30199275362318839</v>
+      </c>
+      <c r="R41" s="95">
         <f>$R$36*H41</f>
-        <v>0</v>
+        <v>434.78260869565219</v>
       </c>
       <c r="S41" s="92">
         <f>$R$36*I41</f>
-        <v>0</v>
+        <v>603.98550724637676</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
@@ -7391,19 +7434,26 @@
       </c>
       <c r="H42" s="89">
         <f>1-H41</f>
-        <v>1</v>
+        <v>0.78260869565217395</v>
       </c>
       <c r="I42" s="89">
         <f>1-I41</f>
-        <v>1</v>
-      </c>
-      <c r="R42" s="97">
+        <v>0.69800724637681166</v>
+      </c>
+      <c r="R42" s="96">
         <f>$R$36*H42</f>
-        <v>2000</v>
+        <v>1565.217391304348</v>
       </c>
       <c r="S42" s="93">
         <f>$R$36*I42</f>
-        <v>2000</v>
+        <v>1396.0144927536232</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R43" s="101"/>
+      <c r="S43" s="102">
+        <f>S36-R38</f>
+        <v>-1224.8803827751203</v>
       </c>
     </row>
   </sheetData>

--- a/e-Controle de Horas (IMR).xlsx
+++ b/e-Controle de Horas (IMR).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="50">
   <si>
     <t>Data</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Feriado</t>
+  </si>
+  <si>
+    <t>F e r i a d o</t>
   </si>
 </sst>
 </file>
@@ -6184,7 +6187,7 @@
   <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -6577,25 +6580,33 @@
       <c r="A10" s="3">
         <v>39728</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="B10" s="4">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.68055555555555547</v>
+      </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.19444444444444436</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.7777777777777707E-2</v>
       </c>
       <c r="J10" s="90">
         <f t="shared" si="4"/>
@@ -6606,8 +6617,12 @@
       <c r="A11" s="3">
         <v>39729</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="4">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.53263888888888888</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="5">
@@ -6616,15 +6631,15 @@
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.3333333333333315E-3</v>
       </c>
       <c r="J11" s="90">
         <f t="shared" si="4"/>
@@ -6636,25 +6651,33 @@
       <c r="A12" s="3">
         <v>39730</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="B12" s="4">
+        <v>0.33263888888888887</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.54722222222222217</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.57013888888888886</v>
+      </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6666666666666607E-2</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.22083333333333338</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.4166666666666724E-2</v>
       </c>
       <c r="J12" s="90">
         <f t="shared" si="4"/>
@@ -6715,8 +6738,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="90">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K14" s="79" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -7281,15 +7306,15 @@
       <c r="F34" s="10"/>
       <c r="G34" s="21">
         <f>SUM(G3:G33)</f>
-        <v>0.83333333333333326</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="H34" s="21">
         <f>SUM(H3:H33)</f>
-        <v>1.1576388888888887</v>
+        <v>1.7479166666666666</v>
       </c>
       <c r="I34" s="20">
         <f>SUM(I3:I33)</f>
-        <v>0.3243055555555554</v>
+        <v>0.41458333333333308</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -7331,19 +7356,19 @@
       </c>
       <c r="H37" s="86">
         <f>G34/H36</f>
-        <v>0.22727272727272727</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="I37" s="86">
         <f>H34/H36</f>
-        <v>0.31571969696969693</v>
+        <v>0.47670454545454544</v>
       </c>
       <c r="R37" s="95">
         <f>$R$36*H37</f>
-        <v>454.5454545454545</v>
+        <v>727.27272727272725</v>
       </c>
       <c r="S37" s="92">
         <f>$R$36*I37</f>
-        <v>631.43939393939388</v>
+        <v>953.40909090909088</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
@@ -7358,19 +7383,19 @@
       </c>
       <c r="H38" s="89">
         <f>1-H37</f>
-        <v>0.77272727272727271</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="I38" s="89">
         <f>1-I37</f>
-        <v>0.68428030303030307</v>
+        <v>0.52329545454545456</v>
       </c>
       <c r="R38" s="95">
         <f>$R$36*H38</f>
-        <v>1545.4545454545455</v>
+        <v>1272.7272727272727</v>
       </c>
       <c r="S38" s="92">
         <f>$R$36*I38</f>
-        <v>1368.5606060606062</v>
+        <v>1046.5909090909092</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
@@ -7389,7 +7414,7 @@
       </c>
       <c r="H40" s="83">
         <f>$P$4*SUM(J3:J33)</f>
-        <v>3.833333333333333</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="I40" s="98"/>
       <c r="R40" s="95"/>
@@ -7407,19 +7432,19 @@
       </c>
       <c r="H41" s="86">
         <f>G34/H40</f>
-        <v>0.21739130434782608</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="I41" s="86">
         <f>H34/H40</f>
-        <v>0.30199275362318839</v>
+        <v>0.47670454545454544</v>
       </c>
       <c r="R41" s="95">
         <f>$R$36*H41</f>
-        <v>434.78260869565219</v>
+        <v>727.27272727272725</v>
       </c>
       <c r="S41" s="92">
         <f>$R$36*I41</f>
-        <v>603.98550724637676</v>
+        <v>953.40909090909088</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
@@ -7434,26 +7459,26 @@
       </c>
       <c r="H42" s="89">
         <f>1-H41</f>
-        <v>0.78260869565217395</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="I42" s="89">
         <f>1-I41</f>
-        <v>0.69800724637681166</v>
+        <v>0.52329545454545456</v>
       </c>
       <c r="R42" s="96">
         <f>$R$36*H42</f>
-        <v>1565.217391304348</v>
+        <v>1272.7272727272727</v>
       </c>
       <c r="S42" s="93">
         <f>$R$36*I42</f>
-        <v>1396.0144927536232</v>
+        <v>1046.5909090909092</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="R43" s="101"/>
       <c r="S43" s="102">
         <f>S36-R38</f>
-        <v>-1224.8803827751203</v>
+        <v>-952.15311004784758</v>
       </c>
     </row>
   </sheetData>

--- a/e-Controle de Horas (IMR).xlsx
+++ b/e-Controle de Horas (IMR).xlsx
@@ -6187,7 +6187,7 @@
   <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -6688,8 +6688,12 @@
       <c r="A13" s="3">
         <v>39731</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="4">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.53125</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="5">
@@ -6698,15 +6702,15 @@
       </c>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.18402777777777773</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.7361111111111077E-2</v>
       </c>
       <c r="J13" s="90">
         <f t="shared" si="4"/>
@@ -7306,15 +7310,15 @@
       <c r="F34" s="10"/>
       <c r="G34" s="21">
         <f>SUM(G3:G33)</f>
-        <v>1.3333333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="H34" s="21">
         <f>SUM(H3:H33)</f>
-        <v>1.7479166666666666</v>
+        <v>1.9319444444444442</v>
       </c>
       <c r="I34" s="20">
         <f>SUM(I3:I33)</f>
-        <v>0.41458333333333308</v>
+        <v>0.43194444444444413</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -7356,19 +7360,19 @@
       </c>
       <c r="H37" s="86">
         <f>G34/H36</f>
-        <v>0.36363636363636365</v>
+        <v>0.40909090909090912</v>
       </c>
       <c r="I37" s="86">
         <f>H34/H36</f>
-        <v>0.47670454545454544</v>
+        <v>0.52689393939393936</v>
       </c>
       <c r="R37" s="95">
         <f>$R$36*H37</f>
-        <v>727.27272727272725</v>
+        <v>818.18181818181824</v>
       </c>
       <c r="S37" s="92">
         <f>$R$36*I37</f>
-        <v>953.40909090909088</v>
+        <v>1053.7878787878788</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
@@ -7383,19 +7387,19 @@
       </c>
       <c r="H38" s="89">
         <f>1-H37</f>
-        <v>0.63636363636363635</v>
+        <v>0.59090909090909083</v>
       </c>
       <c r="I38" s="89">
         <f>1-I37</f>
-        <v>0.52329545454545456</v>
+        <v>0.47310606060606064</v>
       </c>
       <c r="R38" s="95">
         <f>$R$36*H38</f>
-        <v>1272.7272727272727</v>
+        <v>1181.8181818181818</v>
       </c>
       <c r="S38" s="92">
         <f>$R$36*I38</f>
-        <v>1046.5909090909092</v>
+        <v>946.21212121212125</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
@@ -7432,19 +7436,19 @@
       </c>
       <c r="H41" s="86">
         <f>G34/H40</f>
-        <v>0.36363636363636365</v>
+        <v>0.40909090909090912</v>
       </c>
       <c r="I41" s="86">
         <f>H34/H40</f>
-        <v>0.47670454545454544</v>
+        <v>0.52689393939393936</v>
       </c>
       <c r="R41" s="95">
         <f>$R$36*H41</f>
-        <v>727.27272727272725</v>
+        <v>818.18181818181824</v>
       </c>
       <c r="S41" s="92">
         <f>$R$36*I41</f>
-        <v>953.40909090909088</v>
+        <v>1053.7878787878788</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
@@ -7459,26 +7463,26 @@
       </c>
       <c r="H42" s="89">
         <f>1-H41</f>
-        <v>0.63636363636363635</v>
+        <v>0.59090909090909083</v>
       </c>
       <c r="I42" s="89">
         <f>1-I41</f>
-        <v>0.52329545454545456</v>
+        <v>0.47310606060606064</v>
       </c>
       <c r="R42" s="96">
         <f>$R$36*H42</f>
-        <v>1272.7272727272727</v>
+        <v>1181.8181818181818</v>
       </c>
       <c r="S42" s="93">
         <f>$R$36*I42</f>
-        <v>1046.5909090909092</v>
+        <v>946.21212121212125</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="R43" s="101"/>
       <c r="S43" s="102">
         <f>S36-R38</f>
-        <v>-952.15311004784758</v>
+        <v>-861.24401913875658</v>
       </c>
     </row>
   </sheetData>

--- a/e-Controle de Horas (IMR).xlsx
+++ b/e-Controle de Horas (IMR).xlsx
@@ -4792,7 +4792,7 @@
   <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R43" sqref="R43:S43"/>
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -6187,7 +6187,7 @@
   <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -6810,25 +6810,33 @@
       <c r="A17" s="3">
         <v>39735</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="B17" s="4">
+        <v>0.34375</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.51180555555555551</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.0277777777778567E-3</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.18888888888888877</v>
       </c>
       <c r="I17" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.2222222222222116E-2</v>
       </c>
       <c r="J17" s="90">
         <f t="shared" si="4"/>
@@ -6839,8 +6847,12 @@
       <c r="A18" s="3">
         <v>39736</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="B18" s="4">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.54027777777777775</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="5">
@@ -6849,15 +6861,15 @@
       </c>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.20902777777777776</v>
       </c>
       <c r="I18" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.2361111111111099E-2</v>
       </c>
       <c r="J18" s="90">
         <f t="shared" si="4"/>
@@ -6868,25 +6880,33 @@
       <c r="A19" s="3">
         <v>39737</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="B19" s="4">
+        <v>0.31875000000000003</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.68611111111111101</v>
+      </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.12291666666666662</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.24444444444444435</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.7777777777777696E-2</v>
       </c>
       <c r="J19" s="90">
         <f t="shared" si="4"/>
@@ -6897,25 +6917,33 @@
       <c r="A20" s="3">
         <v>39738</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="B20" s="4">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.61875000000000002</v>
+      </c>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.7916666666666718E-2</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.21666666666666662</v>
       </c>
       <c r="I20" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.9999999999999961E-2</v>
       </c>
       <c r="J20" s="90">
         <f t="shared" si="4"/>
@@ -6929,23 +6957,27 @@
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="D21" s="4">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F21" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="I21" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-3.3333333333333354E-2</v>
       </c>
       <c r="J21" s="90">
         <f t="shared" si="4"/>
@@ -7310,15 +7342,15 @@
       <c r="F34" s="10"/>
       <c r="G34" s="21">
         <f>SUM(G3:G33)</f>
-        <v>1.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="H34" s="21">
         <f>SUM(H3:H33)</f>
-        <v>1.9319444444444442</v>
+        <v>2.9243055555555553</v>
       </c>
       <c r="I34" s="20">
         <f>SUM(I3:I33)</f>
-        <v>0.43194444444444413</v>
+        <v>0.59097222222222168</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -7360,19 +7392,19 @@
       </c>
       <c r="H37" s="86">
         <f>G34/H36</f>
-        <v>0.40909090909090912</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="I37" s="86">
         <f>H34/H36</f>
-        <v>0.52689393939393936</v>
+        <v>0.79753787878787874</v>
       </c>
       <c r="R37" s="95">
         <f>$R$36*H37</f>
-        <v>818.18181818181824</v>
+        <v>1272.7272727272727</v>
       </c>
       <c r="S37" s="92">
         <f>$R$36*I37</f>
-        <v>1053.7878787878788</v>
+        <v>1595.0757575757575</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
@@ -7387,19 +7419,19 @@
       </c>
       <c r="H38" s="89">
         <f>1-H37</f>
-        <v>0.59090909090909083</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="I38" s="89">
         <f>1-I37</f>
-        <v>0.47310606060606064</v>
+        <v>0.20246212121212126</v>
       </c>
       <c r="R38" s="95">
         <f>$R$36*H38</f>
-        <v>1181.8181818181818</v>
+        <v>727.27272727272725</v>
       </c>
       <c r="S38" s="92">
         <f>$R$36*I38</f>
-        <v>946.21212121212125</v>
+        <v>404.92424242424249</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
@@ -7436,19 +7468,19 @@
       </c>
       <c r="H41" s="86">
         <f>G34/H40</f>
-        <v>0.40909090909090912</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="I41" s="86">
         <f>H34/H40</f>
-        <v>0.52689393939393936</v>
+        <v>0.79753787878787874</v>
       </c>
       <c r="R41" s="95">
         <f>$R$36*H41</f>
-        <v>818.18181818181824</v>
+        <v>1272.7272727272727</v>
       </c>
       <c r="S41" s="92">
         <f>$R$36*I41</f>
-        <v>1053.7878787878788</v>
+        <v>1595.0757575757575</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
@@ -7463,26 +7495,26 @@
       </c>
       <c r="H42" s="89">
         <f>1-H41</f>
-        <v>0.59090909090909083</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="I42" s="89">
         <f>1-I41</f>
-        <v>0.47310606060606064</v>
+        <v>0.20246212121212126</v>
       </c>
       <c r="R42" s="96">
         <f>$R$36*H42</f>
-        <v>1181.8181818181818</v>
+        <v>727.27272727272725</v>
       </c>
       <c r="S42" s="93">
         <f>$R$36*I42</f>
-        <v>946.21212121212125</v>
+        <v>404.92424242424249</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="R43" s="101"/>
       <c r="S43" s="102">
         <f>S36-R38</f>
-        <v>-861.24401913875658</v>
+        <v>-406.69856459330208</v>
       </c>
     </row>
   </sheetData>

--- a/e-Controle de Horas (IMR).xlsx
+++ b/e-Controle de Horas (IMR).xlsx
@@ -12,13 +12,14 @@
     <sheet name="08-2012" sheetId="16" r:id="rId3"/>
     <sheet name="09-2012" sheetId="18" r:id="rId4"/>
     <sheet name="10-2012" sheetId="19" r:id="rId5"/>
+    <sheet name="11-2012" sheetId="20" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="51">
   <si>
     <t>Data</t>
   </si>
@@ -168,6 +169,9 @@
   </si>
   <si>
     <t>F e r i a d o</t>
+  </si>
+  <si>
+    <t>HORAS DE ISAQUE MARINHO RIBEIRO - NOVEMBRO/2012</t>
   </si>
 </sst>
 </file>
@@ -802,7 +806,7 @@
     <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1112,6 +1116,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1159,7 +1166,86 @@
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="49">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <u val="none"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="13"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1825,29 +1911,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
       <c r="G1" s="33" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="110" t="s">
+      <c r="B2" s="112"/>
+      <c r="C2" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
       <c r="G2" s="33" t="s">
         <v>40</v>
       </c>
@@ -2198,11 +2284,11 @@
       <c r="D20" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="106">
+      <c r="E20" s="107">
         <f>SUM(D7:D18)</f>
         <v>2.136111111111112</v>
       </c>
-      <c r="F20" s="106"/>
+      <c r="F20" s="107"/>
       <c r="G20" s="33" t="s">
         <v>40</v>
       </c>
@@ -2215,11 +2301,11 @@
       <c r="D21" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="107">
+      <c r="E21" s="108">
         <f>SUM(E8:E19)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="107"/>
+      <c r="F21" s="108"/>
       <c r="G21" s="33" t="s">
         <v>40</v>
       </c>
@@ -2232,11 +2318,11 @@
       <c r="D22" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="108">
+      <c r="E22" s="109">
         <f>SUM(F9:F20)</f>
         <v>2.136111111111112</v>
       </c>
-      <c r="F22" s="108"/>
+      <c r="F22" s="109"/>
       <c r="G22" s="33" t="s">
         <v>40</v>
       </c>
@@ -2257,11 +2343,11 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="70"/>
       <c r="B24" s="71"/>
-      <c r="C24" s="109" t="s">
+      <c r="C24" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
       <c r="F24" s="72">
         <f>E22/F3</f>
         <v>12.816666666666672</v>
@@ -2368,17 +2454,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="114"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="115"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -2408,14 +2494,14 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="115" t="s">
+      <c r="K2" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="118"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -3304,53 +3390,53 @@
     <mergeCell ref="K2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="I34">
-    <cfRule type="cellIs" dxfId="39" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="19" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="20" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="20" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F33">
-    <cfRule type="cellIs" dxfId="36" priority="17" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="45" priority="17" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>0.0833333333333333</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="18" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>0.0833333333333333</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I33">
-    <cfRule type="cellIs" dxfId="34" priority="15" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="43" priority="15" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H33">
-    <cfRule type="cellIs" dxfId="32" priority="13" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="41" priority="13" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0.333333333333333</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0.333333333333333</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="30" priority="11" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="39" priority="11" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>0.0833333333333333</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="12" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>0.0833333333333333</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F33">
-    <cfRule type="cellIs" dxfId="28" priority="9" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="37" priority="9" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>0.0833333333333333</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="10" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="10" stopIfTrue="1" operator="greaterThan">
       <formula>0.0833333333333333</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3393,17 +3479,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="114"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="115"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -3433,14 +3519,14 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="115" t="s">
+      <c r="K2" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="118"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -4741,6 +4827,1401 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="R44" s="91"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="K2:P2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="cellIs" dxfId="35" priority="7" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="8" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F33">
+    <cfRule type="cellIs" dxfId="32" priority="5" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>0.0833333333333333</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="6" stopIfTrue="1" operator="greaterThan">
+      <formula>0.0833333333333333</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I33">
+    <cfRule type="cellIs" dxfId="30" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H33">
+    <cfRule type="cellIs" dxfId="28" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>0.333333333333333</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0.333333333333333</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="113" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="115"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="118"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>39691</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5">
+        <f>(IF(AND(C3&gt;0,D3&gt;0),D3-C3,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="str">
+        <f>IF(AND(WEEKDAY(A3)&gt;1,WEEKDAY(A3)&lt;7),IF(((E3-D3)+(C3-B3))&gt;0,$P$4,0),"")</f>
+        <v/>
+      </c>
+      <c r="H3" s="5">
+        <f>IF(G3&lt;&gt;0,(E3-D3)+(C3-B3),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <f>IF(G3&lt;&gt;"",H3-G3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="90">
+        <f>IF(AND(WEEKDAY(A3)&gt;1,WEEKDAY(A3)&lt;7),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>39692</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F33" si="0">(IF(AND(C4&gt;0,D4&gt;0),D4-C4,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="str">
+        <f t="shared" ref="G4:G33" si="1">IF(AND(WEEKDAY(A4)&gt;1,WEEKDAY(A4)&lt;7),IF(((E4-D4)+(C4-B4))&gt;0,$P$4,0),"")</f>
+        <v/>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" ref="H4:H33" si="2">IF(G4&lt;&gt;0,(E4-D4)+(C4-B4),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" ref="I4:I33" si="3">IF(G4&lt;&gt;"",H4-G4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="90">
+        <f t="shared" ref="J4:J32" si="4">IF(AND(WEEKDAY(A4)&gt;1,WEEKDAY(A4)&lt;7),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L4" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M4" s="15">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="N4" s="16">
+        <f>(M4-L4)</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="O4" s="17">
+        <f>(P4-(L4-K4)+M4)</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="P4" s="18">
+        <f>'BH 2012'!F3</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>39693</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.51458333333333328</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="2"/>
+        <v>0.26597222222222222</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="3"/>
+        <v>9.9305555555555564E-2</v>
+      </c>
+      <c r="J5" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>39694</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.33888888888888885</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="2"/>
+        <v>0.17916666666666675</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="3"/>
+        <v>1.2500000000000094E-2</v>
+      </c>
+      <c r="J6" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="24"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>39695</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.55069444444444449</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.57708333333333328</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>2.6388888888888795E-2</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="2"/>
+        <v>0.31736111111111126</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="3"/>
+        <v>0.1506944444444446</v>
+      </c>
+      <c r="J7" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="27"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>39696</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.36319444444444443</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.53402777777777777</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.68541666666666667</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>9.7222222222221877E-3</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.31250000000000006</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="3"/>
+        <v>0.1458333333333334</v>
+      </c>
+      <c r="J8" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="27"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>39697</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="90">
+        <v>0</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="30"/>
+      <c r="R9" s="79" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>39698</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>39699</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="74"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>39700</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.55625000000000002</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
+        <v>3.0555555555555558E-2</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="2"/>
+        <v>0.25416666666666671</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="3"/>
+        <v>8.750000000000005E-2</v>
+      </c>
+      <c r="J12" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>39701</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.60347222222222219</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="2"/>
+        <v>0.2493055555555555</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="3"/>
+        <v>8.2638888888888845E-2</v>
+      </c>
+      <c r="J13" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>39702</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.6118055555555556</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>2.0138888888888928E-2</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="2"/>
+        <v>0.18888888888888894</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="3"/>
+        <v>2.2222222222222282E-2</v>
+      </c>
+      <c r="J14" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>39703</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.69513888888888886</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>9.0972222222222232E-2</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="2"/>
+        <v>0.26736111111111105</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="3"/>
+        <v>0.10069444444444439</v>
+      </c>
+      <c r="J15" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>39704</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000067E-2</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="2"/>
+        <v>0.2097222222222222</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="3"/>
+        <v>4.3055555555555541E-2</v>
+      </c>
+      <c r="J16" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>39705</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>39706</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>39707</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.55625000000000002</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.71319444444444446</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="0"/>
+        <v>1.4583333333333393E-2</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="2"/>
+        <v>0.21249999999999997</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="3"/>
+        <v>4.5833333333333309E-2</v>
+      </c>
+      <c r="J19" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>39708</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.41041666666666665</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="0"/>
+        <v>9.7222222222221877E-3</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="2"/>
+        <v>0.23263888888888895</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="3"/>
+        <v>6.5972222222222293E-2</v>
+      </c>
+      <c r="J20" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>39709</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.34375</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.53263888888888888</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="0"/>
+        <v>2.9861111111111116E-2</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="2"/>
+        <v>0.30347222222222225</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="3"/>
+        <v>0.1368055555555556</v>
+      </c>
+      <c r="J21" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>39710</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.18055555555555564</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="3"/>
+        <v>1.3888888888888978E-2</v>
+      </c>
+      <c r="J22" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>39711</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.7055555555555556</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="0"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="2"/>
+        <v>0.33750000000000008</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="3"/>
+        <v>0.17083333333333342</v>
+      </c>
+      <c r="J23" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>39712</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>39713</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>39714</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>39715</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>39716</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>39717</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.62569444444444444</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="2"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="J29" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K29" s="19"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>39718</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.76458333333333339</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="2"/>
+        <v>0.21250000000000002</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="3"/>
+        <v>4.5833333333333365E-2</v>
+      </c>
+      <c r="J30" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>39719</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>39720</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="90"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="21">
+        <f>SUM(G3:G33)</f>
+        <v>2.6666666666666661</v>
+      </c>
+      <c r="H34" s="21">
+        <f>SUM(H3:H33)</f>
+        <v>3.9236111111111112</v>
+      </c>
+      <c r="I34" s="20">
+        <f>SUM(I3:I33)</f>
+        <v>1.2569444444444449</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="7"/>
+      <c r="B35" s="11"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="80"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" s="83">
+        <f>IF(H40&gt;'BH 2012'!F4,'BH 2012'!F4,H40)</f>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="I36" s="97"/>
+      <c r="R36" s="94">
+        <v>2000</v>
+      </c>
+      <c r="S36" s="100">
+        <f>'08-2012'!S43</f>
+        <v>636.36363636363603</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="26"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" s="86">
+        <f>G34/H36</f>
+        <v>0.84210526315789458</v>
+      </c>
+      <c r="I37" s="86">
+        <f>H34/H36</f>
+        <v>1.2390350877192984</v>
+      </c>
+      <c r="R37" s="95">
+        <f>$R$36*H37</f>
+        <v>1684.2105263157891</v>
+      </c>
+      <c r="S37" s="92">
+        <f>$R$36*I37</f>
+        <v>2478.0701754385968</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="29"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" s="89">
+        <f>1-H37</f>
+        <v>0.15789473684210542</v>
+      </c>
+      <c r="I38" s="89">
+        <f>1-I37</f>
+        <v>-0.23903508771929838</v>
+      </c>
+      <c r="R38" s="99">
+        <f>$R$36*H38</f>
+        <v>315.78947368421086</v>
+      </c>
+      <c r="S38" s="92">
+        <f>$R$36*I38</f>
+        <v>-478.07017543859678</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R39" s="95"/>
+      <c r="S39" s="27"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="80"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" s="83">
+        <f>$P$4*SUM(J3:J33)</f>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="I40" s="98"/>
+      <c r="R40" s="95"/>
+      <c r="S40" s="27"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="26"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" s="86">
+        <f>G34/H40</f>
+        <v>0.84210526315789458</v>
+      </c>
+      <c r="I41" s="86">
+        <f>H34/H40</f>
+        <v>1.2390350877192984</v>
+      </c>
+      <c r="R41" s="95">
+        <f>$R$36*H41</f>
+        <v>1684.2105263157891</v>
+      </c>
+      <c r="S41" s="92">
+        <f>$R$36*I41</f>
+        <v>2478.0701754385968</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="29"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" s="89">
+        <f>1-H41</f>
+        <v>0.15789473684210542</v>
+      </c>
+      <c r="I42" s="89">
+        <f>1-I41</f>
+        <v>-0.23903508771929838</v>
+      </c>
+      <c r="R42" s="96">
+        <f>$R$36*H42</f>
+        <v>315.78947368421086</v>
+      </c>
+      <c r="S42" s="93">
+        <f>$R$36*I42</f>
+        <v>-478.07017543859678</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R43" s="101"/>
+      <c r="S43" s="102">
+        <f>S36-R38</f>
+        <v>320.57416267942517</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4783,16 +6264,16 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4817,20 +6298,20 @@
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="114"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="113" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="115"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4858,42 +6339,50 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="115" t="s">
+      <c r="K2" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="117"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="118"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>39691</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+        <v>39721</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.36388888888888887</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="F3" s="5">
         <f>(IF(AND(C3&gt;0,D3&gt;0),D3-C3,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="5" t="str">
+        <v>7.6388888888888951E-2</v>
+      </c>
+      <c r="G3" s="5">
         <f>IF(AND(WEEKDAY(A3)&gt;1,WEEKDAY(A3)&lt;7),IF(((E3-D3)+(C3-B3))&gt;0,$P$4,0),"")</f>
-        <v/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H3" s="5">
         <f>IF(G3&lt;&gt;0,(E3-D3)+(C3-B3),0)</f>
-        <v>0</v>
+        <v>0.20555555555555555</v>
       </c>
       <c r="I3" s="5">
         <f>IF(G3&lt;&gt;"",H3-G3,0)</f>
-        <v>0</v>
+        <v>3.888888888888889E-2</v>
       </c>
       <c r="J3" s="90">
         <f>IF(AND(WEEKDAY(A3)&gt;1,WEEKDAY(A3)&lt;7),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>1</v>
@@ -4914,33 +6403,41 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>39692</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+        <v>39722</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.34375</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.53125</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.55069444444444449</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.59722222222222221</v>
+      </c>
       <c r="F4" s="5">
         <f t="shared" ref="F4:F33" si="0">(IF(AND(C4&gt;0,D4&gt;0),D4-C4,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="5" t="str">
+        <v>1.9444444444444486E-2</v>
+      </c>
+      <c r="G4" s="5">
         <f t="shared" ref="G4:G33" si="1">IF(AND(WEEKDAY(A4)&gt;1,WEEKDAY(A4)&lt;7),IF(((E4-D4)+(C4-B4))&gt;0,$P$4,0),"")</f>
-        <v/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" ref="H4:H33" si="2">IF(G4&lt;&gt;0,(E4-D4)+(C4-B4),0)</f>
-        <v>0</v>
+        <v>0.23402777777777772</v>
       </c>
       <c r="I4" s="5">
         <f t="shared" ref="I4:I33" si="3">IF(G4&lt;&gt;"",H4-G4,0)</f>
-        <v>0</v>
+        <v>6.7361111111111066E-2</v>
       </c>
       <c r="J4" s="90">
-        <f t="shared" ref="J4:J32" si="4">IF(AND(WEEKDAY(A4)&gt;1,WEEKDAY(A4)&lt;7),1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="J4:J33" si="4">IF(AND(WEEKDAY(A4)&gt;1,WEEKDAY(A4)&lt;7),1,0)</f>
+        <v>1</v>
       </c>
       <c r="K4" s="14">
         <v>0.33333333333333331</v>
@@ -4964,25 +6461,25 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>39693</v>
+        <v>39723</v>
       </c>
       <c r="B5" s="4">
-        <v>0.37152777777777773</v>
+        <v>0.34375</v>
       </c>
       <c r="C5" s="4">
-        <v>0.51458333333333328</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="D5" s="4">
-        <v>0.5395833333333333</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E5" s="4">
-        <v>0.66249999999999998</v>
+        <v>0.65416666666666667</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>2.5000000000000022E-2</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="1"/>
@@ -4990,32 +6487,36 @@
       </c>
       <c r="H5" s="5">
         <f t="shared" si="2"/>
-        <v>0.26597222222222222</v>
+        <v>0.28263888888888888</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" si="3"/>
-        <v>9.9305555555555564E-2</v>
+        <v>0.11597222222222223</v>
       </c>
       <c r="J5" s="90">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>39694</v>
+        <v>39724</v>
       </c>
       <c r="B6" s="4">
-        <v>0.33888888888888885</v>
+        <v>0.47152777777777777</v>
       </c>
       <c r="C6" s="4">
-        <v>0.5180555555555556</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.55625000000000002</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.0555555555555558E-2</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
@@ -5023,11 +6524,11 @@
       </c>
       <c r="H6" s="5">
         <f t="shared" si="2"/>
-        <v>0.17916666666666675</v>
+        <v>0.19930555555555551</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="3"/>
-        <v>1.2500000000000094E-2</v>
+        <v>3.2638888888888856E-2</v>
       </c>
       <c r="J6" s="90">
         <f t="shared" si="4"/>
@@ -5042,25 +6543,25 @@
       <c r="O6" s="23"/>
       <c r="P6" s="24"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>39695</v>
+        <v>39725</v>
       </c>
       <c r="B7" s="4">
-        <v>0.36458333333333331</v>
+        <v>0.35069444444444442</v>
       </c>
       <c r="C7" s="4">
-        <v>0.55069444444444449</v>
+        <v>0.53819444444444442</v>
       </c>
       <c r="D7" s="4">
-        <v>0.57708333333333328</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="E7" s="4">
-        <v>0.70833333333333337</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>2.6388888888888795E-2</v>
+        <v>1.736111111111116E-2</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
@@ -5068,11 +6569,11 @@
       </c>
       <c r="H7" s="5">
         <f t="shared" si="2"/>
-        <v>0.31736111111111126</v>
+        <v>0.23611111111111105</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="3"/>
-        <v>0.1506944444444446</v>
+        <v>6.9444444444444392E-2</v>
       </c>
       <c r="J7" s="90">
         <f t="shared" si="4"/>
@@ -5087,41 +6588,33 @@
       <c r="O7" s="26"/>
       <c r="P7" s="27"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>39696</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0.36319444444444443</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.52430555555555558</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.53402777777777777</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.68541666666666667</v>
-      </c>
+        <v>39726</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>9.7222222222221877E-3</v>
-      </c>
-      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v/>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="2"/>
-        <v>0.31250000000000006</v>
+        <v>0</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" si="3"/>
-        <v>0.1458333333333334</v>
+        <v>0</v>
       </c>
       <c r="J8" s="90">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="25" t="s">
         <v>32</v>
@@ -5132,9 +6625,9 @@
       <c r="O8" s="26"/>
       <c r="P8" s="27"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>39697</v>
+        <v>39727</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -5144,9 +6637,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="2"/>
@@ -5157,6 +6650,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="90">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K9" s="28" t="s">
@@ -5167,88 +6661,97 @@
       <c r="N9" s="29"/>
       <c r="O9" s="29"/>
       <c r="P9" s="30"/>
-      <c r="R9" s="79" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>39698</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+        <v>39728</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.68055555555555547</v>
+      </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="5" t="str">
+        <v>3.125E-2</v>
+      </c>
+      <c r="G10" s="5">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.19444444444444436</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.7777777777777707E-2</v>
       </c>
       <c r="J10" s="90">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>39699</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+        <v>39729</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.53263888888888888</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="5" t="str">
+      <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.3333333333333315E-3</v>
       </c>
       <c r="J11" s="90">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="74"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>39700</v>
+        <v>39730</v>
       </c>
       <c r="B12" s="4">
-        <v>0.34027777777777773</v>
+        <v>0.33263888888888887</v>
       </c>
       <c r="C12" s="4">
-        <v>0.52569444444444446</v>
+        <v>0.53055555555555556</v>
       </c>
       <c r="D12" s="4">
-        <v>0.55625000000000002</v>
+        <v>0.54722222222222217</v>
       </c>
       <c r="E12" s="4">
-        <v>0.625</v>
+        <v>0.57013888888888886</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>3.0555555555555558E-2</v>
+        <v>1.6666666666666607E-2</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
@@ -5256,36 +6759,32 @@
       </c>
       <c r="H12" s="5">
         <f t="shared" si="2"/>
-        <v>0.25416666666666671</v>
+        <v>0.22083333333333338</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" si="3"/>
-        <v>8.750000000000005E-2</v>
+        <v>5.4166666666666724E-2</v>
       </c>
       <c r="J12" s="90">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>39701</v>
+        <v>39731</v>
       </c>
       <c r="B13" s="4">
         <v>0.34722222222222227</v>
       </c>
       <c r="C13" s="4">
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.54027777777777775</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.60347222222222219</v>
-      </c>
+        <v>0.53125</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>0</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
@@ -5293,205 +6792,195 @@
       </c>
       <c r="H13" s="5">
         <f t="shared" si="2"/>
-        <v>0.2493055555555555</v>
+        <v>0.18402777777777773</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="3"/>
-        <v>8.2638888888888845E-2</v>
+        <v>1.7361111111111077E-2</v>
       </c>
       <c r="J13" s="90">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>39702</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.40277777777777773</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.5395833333333333</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.55972222222222223</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.6118055555555556</v>
-      </c>
+        <v>39732</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>2.0138888888888928E-2</v>
+        <v>0</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="2"/>
-        <v>0.18888888888888894</v>
+        <v>0</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="3"/>
-        <v>2.2222222222222282E-2</v>
+        <v>0</v>
       </c>
       <c r="J14" s="90">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="79" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>39703</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.33680555555555558</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.52708333333333335</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.61805555555555558</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.69513888888888886</v>
-      </c>
+        <v>39733</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>9.0972222222222232E-2</v>
-      </c>
-      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>39734</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>39735</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.34375</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.51180555555555551</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="0"/>
+        <v>9.0277777777778567E-3</v>
+      </c>
+      <c r="G17" s="5">
         <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="H15" s="5">
-        <f t="shared" si="2"/>
-        <v>0.26736111111111105</v>
-      </c>
-      <c r="I15" s="5">
-        <f t="shared" si="3"/>
-        <v>0.10069444444444439</v>
-      </c>
-      <c r="J15" s="90">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>39704</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0.4861111111111111</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.54305555555555551</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="0"/>
-        <v>1.2500000000000067E-2</v>
-      </c>
-      <c r="G16" s="5">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="H16" s="5">
-        <f t="shared" si="2"/>
-        <v>0.2097222222222222</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" si="3"/>
-        <v>4.3055555555555541E-2</v>
-      </c>
-      <c r="J16" s="90">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>39705</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="H17" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.18888888888888877</v>
       </c>
       <c r="I17" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.2222222222222116E-2</v>
       </c>
       <c r="J17" s="90">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>39706</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+        <v>39736</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.54027777777777775</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="5" t="str">
+      <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.20902777777777776</v>
       </c>
       <c r="I18" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.2361111111111099E-2</v>
       </c>
       <c r="J18" s="90">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>39707</v>
+        <v>39737</v>
       </c>
       <c r="B19" s="4">
-        <v>0.4861111111111111</v>
+        <v>0.31875000000000003</v>
       </c>
       <c r="C19" s="4">
-        <v>0.54166666666666663</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="D19" s="4">
-        <v>0.55625000000000002</v>
+        <v>0.4770833333333333</v>
       </c>
       <c r="E19" s="4">
-        <v>0.71319444444444446</v>
+        <v>0.68611111111111101</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>1.4583333333333393E-2</v>
+        <v>0.12291666666666662</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
@@ -5499,11 +6988,11 @@
       </c>
       <c r="H19" s="5">
         <f t="shared" si="2"/>
-        <v>0.21249999999999997</v>
+        <v>0.24444444444444435</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" si="3"/>
-        <v>4.5833333333333309E-2</v>
+        <v>7.7777777777777696E-2</v>
       </c>
       <c r="J19" s="90">
         <f t="shared" si="4"/>
@@ -5512,23 +7001,23 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>39708</v>
+        <v>39738</v>
       </c>
       <c r="B20" s="4">
-        <v>0.41041666666666665</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="C20" s="4">
-        <v>0.55833333333333335</v>
+        <v>0.52986111111111112</v>
       </c>
       <c r="D20" s="4">
-        <v>0.56805555555555554</v>
+        <v>0.57777777777777783</v>
       </c>
       <c r="E20" s="4">
-        <v>0.65277777777777779</v>
+        <v>0.61875000000000002</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>9.7222222222221877E-3</v>
+        <v>4.7916666666666718E-2</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" si="1"/>
@@ -5536,11 +7025,11 @@
       </c>
       <c r="H20" s="5">
         <f t="shared" si="2"/>
-        <v>0.23263888888888895</v>
+        <v>0.21666666666666662</v>
       </c>
       <c r="I20" s="5">
         <f t="shared" si="3"/>
-        <v>6.5972222222222293E-2</v>
+        <v>4.9999999999999961E-2</v>
       </c>
       <c r="J20" s="90">
         <f t="shared" si="4"/>
@@ -5550,23 +7039,19 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>39709</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0.34375</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0.53263888888888888</v>
-      </c>
+        <v>39739</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="4">
-        <v>0.5625</v>
+        <v>0.57500000000000007</v>
       </c>
       <c r="E21" s="4">
-        <v>0.67708333333333337</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="0"/>
-        <v>2.9861111111111116E-2</v>
+        <v>0</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="1"/>
@@ -5574,11 +7059,11 @@
       </c>
       <c r="H21" s="5">
         <f t="shared" si="2"/>
-        <v>0.30347222222222225</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="I21" s="5">
         <f t="shared" si="3"/>
-        <v>0.1368055555555556</v>
+        <v>-3.3333333333333354E-2</v>
       </c>
       <c r="J21" s="90">
         <f t="shared" si="4"/>
@@ -5587,135 +7072,135 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>39710</v>
-      </c>
-      <c r="B22" s="4">
-        <v>0.34027777777777773</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0.52083333333333337</v>
-      </c>
+        <v>39740</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v/>
       </c>
       <c r="H22" s="5">
         <f t="shared" si="2"/>
-        <v>0.18055555555555564</v>
+        <v>0</v>
       </c>
       <c r="I22" s="5">
         <f t="shared" si="3"/>
-        <v>1.3888888888888978E-2</v>
+        <v>0</v>
       </c>
       <c r="J22" s="90">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>39711</v>
-      </c>
-      <c r="B23" s="4">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0.53472222222222221</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0.7055555555555556</v>
-      </c>
+        <v>39741</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="5">
         <f t="shared" si="0"/>
-        <v>3.472222222222221E-2</v>
-      </c>
-      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v/>
       </c>
       <c r="H23" s="5">
         <f t="shared" si="2"/>
-        <v>0.33750000000000008</v>
+        <v>0</v>
       </c>
       <c r="I23" s="5">
         <f t="shared" si="3"/>
-        <v>0.17083333333333342</v>
+        <v>0</v>
       </c>
       <c r="J23" s="90">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>39712</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+        <v>39742</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.53541666666666665</v>
+      </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="5" t="str">
+      <c r="G24" s="5">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.18124999999999997</v>
       </c>
       <c r="I24" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.4583333333333309E-2</v>
       </c>
       <c r="J24" s="90">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>39713</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+        <v>39743</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.51111111111111118</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="F25" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="5" t="str">
+        <v>1.8749999999999933E-2</v>
+      </c>
+      <c r="G25" s="5">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.2104166666666667</v>
       </c>
       <c r="I25" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.3750000000000039E-2</v>
       </c>
       <c r="J25" s="90">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>39714</v>
+        <v>39744</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -5744,10 +7229,14 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>39715</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+        <v>39745</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.33263888888888887</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.50972222222222219</v>
+      </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="5">
@@ -5756,15 +7245,15 @@
       </c>
       <c r="G27" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.17708333333333331</v>
       </c>
       <c r="I27" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.0416666666666657E-2</v>
       </c>
       <c r="J27" s="90">
         <f t="shared" si="4"/>
@@ -5773,10 +7262,14 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>39716</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+        <v>39746</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.55555555555555558</v>
+      </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="5">
@@ -5785,15 +7278,15 @@
       </c>
       <c r="G28" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="I28" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="J28" s="90">
         <f t="shared" si="4"/>
@@ -5802,78 +7295,66 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>39717</v>
-      </c>
-      <c r="B29" s="4">
-        <v>0.41180555555555554</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0.53819444444444442</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0.55208333333333337</v>
-      </c>
-      <c r="E29" s="4">
-        <v>0.62569444444444444</v>
-      </c>
+        <v>39747</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="5">
         <f t="shared" si="0"/>
-        <v>1.3888888888888951E-2</v>
-      </c>
-      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v/>
       </c>
       <c r="H29" s="5">
         <f t="shared" si="2"/>
-        <v>0.19999999999999996</v>
+        <v>0</v>
       </c>
       <c r="I29" s="5">
         <f t="shared" si="3"/>
-        <v>3.3333333333333298E-2</v>
+        <v>0</v>
       </c>
       <c r="J29" s="90">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="19"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>39718</v>
+        <v>39748</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="4">
-        <v>0.55208333333333337</v>
-      </c>
-      <c r="E30" s="4">
-        <v>0.76458333333333339</v>
-      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v/>
       </c>
       <c r="H30" s="5">
         <f t="shared" si="2"/>
-        <v>0.21250000000000002</v>
+        <v>0</v>
       </c>
       <c r="I30" s="5">
         <f t="shared" si="3"/>
-        <v>4.5833333333333365E-2</v>
+        <v>0</v>
       </c>
       <c r="J30" s="90">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>39719</v>
+        <v>39749</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -5883,9 +7364,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G31" s="5" t="str">
+      <c r="G31" s="5">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H31" s="5">
         <f t="shared" si="2"/>
@@ -5896,13 +7377,15 @@
         <v>0</v>
       </c>
       <c r="J31" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K31" s="79" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>39720</v>
+        <v>39750</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -5912,9 +7395,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G32" s="5" t="str">
+      <c r="G32" s="5">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H32" s="5">
         <f t="shared" si="2"/>
@@ -5926,11 +7409,13 @@
       </c>
       <c r="J32" s="90">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
+      <c r="A33" s="3">
+        <v>39751</v>
+      </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -5951,7 +7436,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J33" s="90"/>
+      <c r="J33" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
@@ -5962,15 +7450,15 @@
       <c r="F34" s="10"/>
       <c r="G34" s="21">
         <f>SUM(G3:G33)</f>
-        <v>2.6666666666666661</v>
+        <v>2.9999999999999991</v>
       </c>
       <c r="H34" s="21">
         <f>SUM(H3:H33)</f>
-        <v>3.9236111111111112</v>
+        <v>3.7013888888888888</v>
       </c>
       <c r="I34" s="20">
         <f>SUM(I3:I33)</f>
-        <v>1.2569444444444449</v>
+        <v>0.70138888888888828</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -5989,15 +7477,15 @@
       </c>
       <c r="H36" s="83">
         <f>IF(H40&gt;'BH 2012'!F4,'BH 2012'!F4,H40)</f>
-        <v>3.1666666666666665</v>
+        <v>3.5</v>
       </c>
       <c r="I36" s="97"/>
       <c r="R36" s="94">
         <v>2000</v>
       </c>
-      <c r="S36" s="100">
-        <f>'08-2012'!S43</f>
-        <v>636.36363636363603</v>
+      <c r="S36" s="104">
+        <f>'09-2012'!S43</f>
+        <v>320.57416267942517</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
@@ -6012,19 +7500,19 @@
       </c>
       <c r="H37" s="86">
         <f>G34/H36</f>
-        <v>0.84210526315789458</v>
+        <v>0.85714285714285687</v>
       </c>
       <c r="I37" s="86">
         <f>H34/H36</f>
-        <v>1.2390350877192984</v>
+        <v>1.0575396825396826</v>
       </c>
       <c r="R37" s="95">
         <f>$R$36*H37</f>
-        <v>1684.2105263157891</v>
+        <v>1714.2857142857138</v>
       </c>
       <c r="S37" s="92">
         <f>$R$36*I37</f>
-        <v>2478.0701754385968</v>
+        <v>2115.0793650793653</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
@@ -6039,19 +7527,19 @@
       </c>
       <c r="H38" s="89">
         <f>1-H37</f>
-        <v>0.15789473684210542</v>
+        <v>0.14285714285714313</v>
       </c>
       <c r="I38" s="89">
         <f>1-I37</f>
-        <v>-0.23903508771929838</v>
-      </c>
-      <c r="R38" s="99">
+        <v>-5.7539682539682557E-2</v>
+      </c>
+      <c r="R38" s="95">
         <f>$R$36*H38</f>
-        <v>315.78947368421086</v>
+        <v>285.71428571428623</v>
       </c>
       <c r="S38" s="92">
         <f>$R$36*I38</f>
-        <v>-478.07017543859678</v>
+        <v>-115.07936507936512</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
@@ -6070,7 +7558,7 @@
       </c>
       <c r="H40" s="83">
         <f>$P$4*SUM(J3:J33)</f>
-        <v>3.1666666666666665</v>
+        <v>3.5</v>
       </c>
       <c r="I40" s="98"/>
       <c r="R40" s="95"/>
@@ -6088,19 +7576,19 @@
       </c>
       <c r="H41" s="86">
         <f>G34/H40</f>
-        <v>0.84210526315789458</v>
+        <v>0.85714285714285687</v>
       </c>
       <c r="I41" s="86">
         <f>H34/H40</f>
-        <v>1.2390350877192984</v>
+        <v>1.0575396825396826</v>
       </c>
       <c r="R41" s="95">
         <f>$R$36*H41</f>
-        <v>1684.2105263157891</v>
+        <v>1714.2857142857138</v>
       </c>
       <c r="S41" s="92">
         <f>$R$36*I41</f>
-        <v>2478.0701754385968</v>
+        <v>2115.0793650793653</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
@@ -6115,27 +7603,30 @@
       </c>
       <c r="H42" s="89">
         <f>1-H41</f>
-        <v>0.15789473684210542</v>
+        <v>0.14285714285714313</v>
       </c>
       <c r="I42" s="89">
         <f>1-I41</f>
-        <v>-0.23903508771929838</v>
+        <v>-5.7539682539682557E-2</v>
       </c>
       <c r="R42" s="96">
         <f>$R$36*H42</f>
-        <v>315.78947368421086</v>
+        <v>285.71428571428623</v>
       </c>
       <c r="S42" s="93">
         <f>$R$36*I42</f>
-        <v>-478.07017543859678</v>
+        <v>-115.07936507936512</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="R43" s="101"/>
       <c r="S43" s="102">
         <f>S36-R38</f>
-        <v>320.57416267942517</v>
-      </c>
+        <v>34.859876965138938</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S44" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6182,12 +7673,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -6213,17 +7704,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="114"/>
+      <c r="A1" s="113" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="115"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -6253,46 +7744,40 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="115" t="s">
+      <c r="K2" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="118"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>39721</v>
+        <v>39752</v>
       </c>
       <c r="B3" s="4">
-        <v>0.36388888888888887</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.61805555555555558</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.64583333333333337</v>
-      </c>
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="5">
         <f>(IF(AND(C3&gt;0,D3&gt;0),D3-C3,0))</f>
-        <v>7.6388888888888951E-2</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5">
         <f>IF(AND(WEEKDAY(A3)&gt;1,WEEKDAY(A3)&lt;7),IF(((E3-D3)+(C3-B3))&gt;0,$P$4,0),"")</f>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5">
         <f>IF(G3&lt;&gt;0,(E3-D3)+(C3-B3),0)</f>
-        <v>0.20555555555555555</v>
+        <v>0</v>
       </c>
       <c r="I3" s="5">
         <f>IF(G3&lt;&gt;"",H3-G3,0)</f>
-        <v>3.888888888888889E-2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="90">
         <f>IF(AND(WEEKDAY(A3)&gt;1,WEEKDAY(A3)&lt;7),1,0)</f>
@@ -6319,38 +7804,30 @@
     </row>
     <row r="4" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>39722</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.34375</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.53125</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.55069444444444449</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.59722222222222221</v>
-      </c>
+        <v>39753</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="5">
         <f t="shared" ref="F4:F33" si="0">(IF(AND(C4&gt;0,D4&gt;0),D4-C4,0))</f>
-        <v>1.9444444444444486E-2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" ref="G4:G33" si="1">IF(AND(WEEKDAY(A4)&gt;1,WEEKDAY(A4)&lt;7),IF(((E4-D4)+(C4-B4))&gt;0,$P$4,0),"")</f>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" ref="H4:H33" si="2">IF(G4&lt;&gt;0,(E4-D4)+(C4-B4),0)</f>
-        <v>0.23402777777777772</v>
+        <v>0</v>
       </c>
       <c r="I4" s="5">
         <f t="shared" ref="I4:I33" si="3">IF(G4&lt;&gt;"",H4-G4,0)</f>
-        <v>6.7361111111111066E-2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="90">
-        <f t="shared" ref="J4:J33" si="4">IF(AND(WEEKDAY(A4)&gt;1,WEEKDAY(A4)&lt;7),1,0)</f>
+        <f t="shared" ref="J4:J32" si="4">IF(AND(WEEKDAY(A4)&gt;1,WEEKDAY(A4)&lt;7),1,0)</f>
         <v>1</v>
       </c>
       <c r="K4" s="14">
@@ -6377,76 +7854,60 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>39723</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.34375</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.65416666666666667</v>
-      </c>
+        <v>39754</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>2.777777777777779E-2</v>
-      </c>
-      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v/>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="2"/>
-        <v>0.28263888888888888</v>
+        <v>0</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" si="3"/>
-        <v>0.11597222222222223</v>
+        <v>0</v>
       </c>
       <c r="J5" s="90">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>39724</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.47152777777777777</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.52569444444444446</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.55625000000000002</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.70138888888888884</v>
-      </c>
+        <v>39755</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>3.0555555555555558E-2</v>
-      </c>
-      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v/>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="2"/>
-        <v>0.19930555555555551</v>
+        <v>0</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="3"/>
-        <v>3.2638888888888856E-2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="90">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="22" t="s">
         <v>10</v>
@@ -6459,35 +7920,27 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>39725</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.35069444444444442</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.53819444444444442</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.60416666666666663</v>
-      </c>
+        <v>39756</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>1.736111111111116E-2</v>
+        <v>0</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="2"/>
-        <v>0.23611111111111105</v>
+        <v>0</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="3"/>
-        <v>6.9444444444444392E-2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="90">
         <f t="shared" si="4"/>
@@ -6504,7 +7957,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>39726</v>
+        <v>39757</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -6514,9 +7967,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="5" t="str">
+      <c r="G8" s="5">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="2"/>
@@ -6528,7 +7981,7 @@
       </c>
       <c r="J8" s="90">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="25" t="s">
         <v>32</v>
@@ -6541,7 +7994,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>39727</v>
+        <v>39758</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -6551,9 +8004,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="5" t="str">
+      <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="2"/>
@@ -6565,7 +8018,7 @@
       </c>
       <c r="J9" s="90">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="28" t="s">
         <v>31</v>
@@ -6578,35 +8031,27 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>39728</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.4548611111111111</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.55902777777777779</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.59027777777777779</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.68055555555555547</v>
-      </c>
+        <v>39759</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>0</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="2"/>
-        <v>0.19444444444444436</v>
+        <v>0</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" si="3"/>
-        <v>2.7777777777777707E-2</v>
+        <v>0</v>
       </c>
       <c r="J10" s="90">
         <f t="shared" si="4"/>
@@ -6615,14 +8060,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>39729</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0.3576388888888889</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.53263888888888888</v>
-      </c>
+        <v>39760</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="5">
@@ -6631,15 +8072,15 @@
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="2"/>
-        <v>0.17499999999999999</v>
+        <v>0</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="3"/>
-        <v>8.3333333333333315E-3</v>
+        <v>0</v>
       </c>
       <c r="J11" s="90">
         <f t="shared" si="4"/>
@@ -6649,77 +8090,65 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>39730</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0.33263888888888887</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.53055555555555556</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.54722222222222217</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.57013888888888886</v>
-      </c>
+        <v>39761</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>1.6666666666666607E-2</v>
-      </c>
-      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v/>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="2"/>
-        <v>0.22083333333333338</v>
+        <v>0</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" si="3"/>
-        <v>5.4166666666666724E-2</v>
+        <v>0</v>
       </c>
       <c r="J12" s="90">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>39731</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0.34722222222222227</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.53125</v>
-      </c>
+        <v>39762</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v/>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="2"/>
-        <v>0.18402777777777773</v>
+        <v>0</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="3"/>
-        <v>1.7361111111111077E-2</v>
+        <v>0</v>
       </c>
       <c r="J13" s="90">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>39732</v>
+        <v>39763</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -6742,15 +8171,14 @@
         <v>0</v>
       </c>
       <c r="J14" s="90">
-        <v>0</v>
-      </c>
-      <c r="K14" s="79" t="s">
-        <v>49</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="79"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>39733</v>
+        <v>39764</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -6760,9 +8188,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="5" t="str">
+      <c r="G15" s="5">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="2"/>
@@ -6774,12 +8202,12 @@
       </c>
       <c r="J15" s="90">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>39734</v>
+        <v>39765</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -6789,9 +8217,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="5" t="str">
+      <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="2"/>
@@ -6803,40 +8231,32 @@
       </c>
       <c r="J16" s="90">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>39735</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0.34375</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0.51180555555555551</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.54166666666666663</v>
-      </c>
+        <v>39766</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>9.0277777777778567E-3</v>
+        <v>0</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" si="2"/>
-        <v>0.18888888888888877</v>
+        <v>0</v>
       </c>
       <c r="I17" s="5">
         <f t="shared" si="3"/>
-        <v>2.2222222222222116E-2</v>
+        <v>0</v>
       </c>
       <c r="J17" s="90">
         <f t="shared" si="4"/>
@@ -6845,14 +8265,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>39736</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0.33124999999999999</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0.54027777777777775</v>
-      </c>
+        <v>39767</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="5">
@@ -6861,15 +8277,15 @@
       </c>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="2"/>
-        <v>0.20902777777777776</v>
+        <v>0</v>
       </c>
       <c r="I18" s="5">
         <f t="shared" si="3"/>
-        <v>4.2361111111111099E-2</v>
+        <v>0</v>
       </c>
       <c r="J18" s="90">
         <f t="shared" si="4"/>
@@ -6878,106 +8294,86 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>39737</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0.31875000000000003</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.4770833333333333</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.68611111111111101</v>
-      </c>
+        <v>39768</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>0.12291666666666662</v>
-      </c>
-      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v/>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="2"/>
-        <v>0.24444444444444435</v>
+        <v>0</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" si="3"/>
-        <v>7.7777777777777696E-2</v>
+        <v>0</v>
       </c>
       <c r="J19" s="90">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>39738</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0.52986111111111112</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.57777777777777783</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0.61875000000000002</v>
-      </c>
+        <v>39769</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>4.7916666666666718E-2</v>
-      </c>
-      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v/>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="2"/>
-        <v>0.21666666666666662</v>
+        <v>0</v>
       </c>
       <c r="I20" s="5">
         <f t="shared" si="3"/>
-        <v>4.9999999999999961E-2</v>
+        <v>0</v>
       </c>
       <c r="J20" s="90">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>39739</v>
+        <v>39770</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="4">
-        <v>0.57500000000000007</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0.70833333333333337</v>
-      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" si="2"/>
-        <v>0.1333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I21" s="5">
         <f t="shared" si="3"/>
-        <v>-3.3333333333333354E-2</v>
+        <v>0</v>
       </c>
       <c r="J21" s="90">
         <f t="shared" si="4"/>
@@ -6986,7 +8382,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>39740</v>
+        <v>39771</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -6996,9 +8392,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="5" t="str">
+      <c r="G22" s="5">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" si="2"/>
@@ -7010,12 +8406,12 @@
       </c>
       <c r="J22" s="90">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>39741</v>
+        <v>39772</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -7025,9 +8421,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="5" t="str">
+      <c r="G23" s="5">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" si="2"/>
@@ -7039,12 +8435,12 @@
       </c>
       <c r="J23" s="90">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>39742</v>
+        <v>39773</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -7073,7 +8469,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>39743</v>
+        <v>39774</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -7102,7 +8498,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>39744</v>
+        <v>39775</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -7112,9 +8508,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="H26" s="5">
         <f t="shared" si="2"/>
@@ -7126,12 +8522,12 @@
       </c>
       <c r="J26" s="90">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>39745</v>
+        <v>39776</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -7141,9 +8537,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="H27" s="5">
         <f t="shared" si="2"/>
@@ -7155,12 +8551,12 @@
       </c>
       <c r="J27" s="90">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>39746</v>
+        <v>39777</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -7189,7 +8585,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>39747</v>
+        <v>39778</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -7199,9 +8595,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="5" t="str">
+      <c r="G29" s="5">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H29" s="5">
         <f t="shared" si="2"/>
@@ -7213,13 +8609,13 @@
       </c>
       <c r="J29" s="90">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="19"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>39748</v>
+        <v>39779</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -7229,9 +8625,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G30" s="5" t="str">
+      <c r="G30" s="5">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" si="2"/>
@@ -7243,12 +8639,12 @@
       </c>
       <c r="J30" s="90">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>39749</v>
+        <v>39780</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -7274,10 +8670,11 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
+      <c r="K31" s="79"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>39750</v>
+        <v>39781</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -7305,33 +8702,16 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>39751</v>
-      </c>
+      <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="90">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="90"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
@@ -7342,15 +8722,15 @@
       <c r="F34" s="10"/>
       <c r="G34" s="21">
         <f>SUM(G3:G33)</f>
-        <v>2.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H34" s="21">
         <f>SUM(H3:H33)</f>
-        <v>2.9243055555555553</v>
+        <v>0</v>
       </c>
       <c r="I34" s="20">
         <f>SUM(I3:I33)</f>
-        <v>0.59097222222222168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -7392,19 +8772,19 @@
       </c>
       <c r="H37" s="86">
         <f>G34/H36</f>
-        <v>0.63636363636363635</v>
+        <v>0</v>
       </c>
       <c r="I37" s="86">
         <f>H34/H36</f>
-        <v>0.79753787878787874</v>
+        <v>0</v>
       </c>
       <c r="R37" s="95">
         <f>$R$36*H37</f>
-        <v>1272.7272727272727</v>
+        <v>0</v>
       </c>
       <c r="S37" s="92">
         <f>$R$36*I37</f>
-        <v>1595.0757575757575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
@@ -7419,19 +8799,19 @@
       </c>
       <c r="H38" s="89">
         <f>1-H37</f>
-        <v>0.36363636363636365</v>
+        <v>1</v>
       </c>
       <c r="I38" s="89">
         <f>1-I37</f>
-        <v>0.20246212121212126</v>
+        <v>1</v>
       </c>
       <c r="R38" s="95">
         <f>$R$36*H38</f>
-        <v>727.27272727272725</v>
+        <v>2000</v>
       </c>
       <c r="S38" s="92">
         <f>$R$36*I38</f>
-        <v>404.92424242424249</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
@@ -7468,19 +8848,19 @@
       </c>
       <c r="H41" s="86">
         <f>G34/H40</f>
-        <v>0.63636363636363635</v>
+        <v>0</v>
       </c>
       <c r="I41" s="86">
         <f>H34/H40</f>
-        <v>0.79753787878787874</v>
+        <v>0</v>
       </c>
       <c r="R41" s="95">
         <f>$R$36*H41</f>
-        <v>1272.7272727272727</v>
+        <v>0</v>
       </c>
       <c r="S41" s="92">
         <f>$R$36*I41</f>
-        <v>1595.0757575757575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
@@ -7495,27 +8875,30 @@
       </c>
       <c r="H42" s="89">
         <f>1-H41</f>
-        <v>0.36363636363636365</v>
+        <v>1</v>
       </c>
       <c r="I42" s="89">
         <f>1-I41</f>
-        <v>0.20246212121212126</v>
+        <v>1</v>
       </c>
       <c r="R42" s="96">
         <f>$R$36*H42</f>
-        <v>727.27272727272725</v>
+        <v>2000</v>
       </c>
       <c r="S42" s="93">
         <f>$R$36*I42</f>
-        <v>404.92424242424249</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="R43" s="101"/>
       <c r="S43" s="102">
         <f>S36-R38</f>
-        <v>-406.69856459330208</v>
-      </c>
+        <v>-1679.4258373205748</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S44" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/e-Controle de Horas (IMR).xlsx
+++ b/e-Controle de Horas (IMR).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr date1904="1" codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="11340" windowHeight="8580" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="11340" windowHeight="8580" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="BH 2012" sheetId="17" r:id="rId1"/>
@@ -6272,7 +6272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -7677,8 +7677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -7760,7 +7760,9 @@
       <c r="B3" s="4">
         <v>0.36458333333333331</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="5">
@@ -7769,15 +7771,15 @@
       </c>
       <c r="G3" s="5">
         <f>IF(AND(WEEKDAY(A3)&gt;1,WEEKDAY(A3)&lt;7),IF(((E3-D3)+(C3-B3))&gt;0,$P$4,0),"")</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H3" s="5">
         <f>IF(G3&lt;&gt;0,(E3-D3)+(C3-B3),0)</f>
-        <v>0</v>
+        <v>0.17708333333333331</v>
       </c>
       <c r="I3" s="5">
         <f>IF(G3&lt;&gt;"",H3-G3,0)</f>
-        <v>0</v>
+        <v>1.0416666666666657E-2</v>
       </c>
       <c r="J3" s="90">
         <f>IF(AND(WEEKDAY(A3)&gt;1,WEEKDAY(A3)&lt;7),1,0)</f>
@@ -7811,19 +7813,19 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F33" si="0">(IF(AND(C4&gt;0,D4&gt;0),D4-C4,0))</f>
+        <f t="shared" ref="F4:F32" si="0">(IF(AND(C4&gt;0,D4&gt;0),D4-C4,0))</f>
         <v>0</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" ref="G4:G33" si="1">IF(AND(WEEKDAY(A4)&gt;1,WEEKDAY(A4)&lt;7),IF(((E4-D4)+(C4-B4))&gt;0,$P$4,0),"")</f>
+        <f t="shared" ref="G4:G32" si="1">IF(AND(WEEKDAY(A4)&gt;1,WEEKDAY(A4)&lt;7),IF(((E4-D4)+(C4-B4))&gt;0,$P$4,0),"")</f>
         <v>0</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" ref="H4:H33" si="2">IF(G4&lt;&gt;0,(E4-D4)+(C4-B4),0)</f>
+        <f t="shared" ref="H4:H32" si="2">IF(G4&lt;&gt;0,(E4-D4)+(C4-B4),0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" ref="I4:I33" si="3">IF(G4&lt;&gt;"",H4-G4,0)</f>
+        <f t="shared" ref="I4:I32" si="3">IF(G4&lt;&gt;"",H4-G4,0)</f>
         <v>0</v>
       </c>
       <c r="J4" s="90">
@@ -8722,15 +8724,15 @@
       <c r="F34" s="10"/>
       <c r="G34" s="21">
         <f>SUM(G3:G33)</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H34" s="21">
         <f>SUM(H3:H33)</f>
-        <v>0</v>
+        <v>0.17708333333333331</v>
       </c>
       <c r="I34" s="20">
         <f>SUM(I3:I33)</f>
-        <v>0</v>
+        <v>1.0416666666666657E-2</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -8772,19 +8774,19 @@
       </c>
       <c r="H37" s="86">
         <f>G34/H36</f>
-        <v>0</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="I37" s="86">
         <f>H34/H36</f>
-        <v>0</v>
+        <v>4.8295454545454544E-2</v>
       </c>
       <c r="R37" s="95">
         <f>$R$36*H37</f>
-        <v>0</v>
+        <v>90.909090909090907</v>
       </c>
       <c r="S37" s="92">
         <f>$R$36*I37</f>
-        <v>0</v>
+        <v>96.590909090909093</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
@@ -8799,19 +8801,19 @@
       </c>
       <c r="H38" s="89">
         <f>1-H37</f>
-        <v>1</v>
+        <v>0.95454545454545459</v>
       </c>
       <c r="I38" s="89">
         <f>1-I37</f>
-        <v>1</v>
+        <v>0.95170454545454541</v>
       </c>
       <c r="R38" s="95">
         <f>$R$36*H38</f>
-        <v>2000</v>
+        <v>1909.0909090909092</v>
       </c>
       <c r="S38" s="92">
         <f>$R$36*I38</f>
-        <v>2000</v>
+        <v>1903.4090909090908</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
@@ -8848,19 +8850,19 @@
       </c>
       <c r="H41" s="86">
         <f>G34/H40</f>
-        <v>0</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="I41" s="86">
         <f>H34/H40</f>
-        <v>0</v>
+        <v>4.8295454545454544E-2</v>
       </c>
       <c r="R41" s="95">
         <f>$R$36*H41</f>
-        <v>0</v>
+        <v>90.909090909090907</v>
       </c>
       <c r="S41" s="92">
         <f>$R$36*I41</f>
-        <v>0</v>
+        <v>96.590909090909093</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
@@ -8875,26 +8877,26 @@
       </c>
       <c r="H42" s="89">
         <f>1-H41</f>
-        <v>1</v>
+        <v>0.95454545454545459</v>
       </c>
       <c r="I42" s="89">
         <f>1-I41</f>
-        <v>1</v>
+        <v>0.95170454545454541</v>
       </c>
       <c r="R42" s="96">
         <f>$R$36*H42</f>
-        <v>2000</v>
+        <v>1909.0909090909092</v>
       </c>
       <c r="S42" s="93">
         <f>$R$36*I42</f>
-        <v>2000</v>
+        <v>1903.4090909090908</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="R43" s="101"/>
       <c r="S43" s="102">
         <f>S36-R38</f>
-        <v>-1679.4258373205748</v>
+        <v>-1588.5167464114841</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">

--- a/e-Controle de Horas (IMR).xlsx
+++ b/e-Controle de Horas (IMR).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="54">
   <si>
     <t>Data</t>
   </si>
@@ -173,6 +173,15 @@
   <si>
     <t>HORAS DE ISAQUE MARINHO RIBEIRO - NOVEMBRO/2012</t>
   </si>
+  <si>
+    <t>Base:</t>
+  </si>
+  <si>
+    <t>A Pagar:</t>
+  </si>
+  <si>
+    <t>Descontar:</t>
+  </si>
 </sst>
 </file>
 
@@ -182,7 +191,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -362,6 +371,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -419,7 +441,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -800,13 +822,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1159,6 +1192,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="26" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="28" fillId="8" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="29" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7675,10 +7732,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -7703,7 +7760,7 @@
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="113" t="s">
         <v>50</v>
       </c>
@@ -7716,7 +7773,7 @@
       <c r="H1" s="114"/>
       <c r="I1" s="115"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7753,7 +7810,7 @@
       <c r="O2" s="117"/>
       <c r="P2" s="118"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>39752</v>
       </c>
@@ -7804,7 +7861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>39753</v>
       </c>
@@ -7829,8 +7886,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="90">
-        <f t="shared" ref="J4:J32" si="4">IF(AND(WEEKDAY(A4)&gt;1,WEEKDAY(A4)&lt;7),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="14">
         <v>0.33333333333333331</v>
@@ -7853,8 +7909,11 @@
         <f>'BH 2012'!F3</f>
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R4" s="79" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>39754</v>
       </c>
@@ -7879,11 +7938,11 @@
         <v>0</v>
       </c>
       <c r="J5" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" ref="J5:J32" si="4">IF(AND(WEEKDAY(A5)&gt;1,WEEKDAY(A5)&lt;7),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>39755</v>
       </c>
@@ -7920,7 +7979,7 @@
       <c r="O6" s="23"/>
       <c r="P6" s="24"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>39756</v>
       </c>
@@ -7957,12 +8016,16 @@
       <c r="O7" s="26"/>
       <c r="P7" s="27"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>39757</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="4">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.55902777777777779</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="5">
@@ -7971,15 +8034,15 @@
       </c>
       <c r="G8" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.2277777777777778</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.1111111111111144E-2</v>
       </c>
       <c r="J8" s="90">
         <f t="shared" si="4"/>
@@ -7994,7 +8057,7 @@
       <c r="O8" s="26"/>
       <c r="P8" s="27"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>39758</v>
       </c>
@@ -8031,7 +8094,7 @@
       <c r="O9" s="29"/>
       <c r="P9" s="30"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>39759</v>
       </c>
@@ -8060,7 +8123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>39760</v>
       </c>
@@ -8090,7 +8153,7 @@
       </c>
       <c r="K11" s="74"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>39761</v>
       </c>
@@ -8119,7 +8182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>39762</v>
       </c>
@@ -8148,7 +8211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>39763</v>
       </c>
@@ -8178,7 +8241,7 @@
       </c>
       <c r="K14" s="79"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>39764</v>
       </c>
@@ -8207,7 +8270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>39765</v>
       </c>
@@ -8703,7 +8766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -8715,7 +8778,7 @@
       <c r="I33" s="5"/>
       <c r="J33" s="90"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -8724,22 +8787,18 @@
       <c r="F34" s="10"/>
       <c r="G34" s="21">
         <f>SUM(G3:G33)</f>
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H34" s="21">
         <f>SUM(H3:H33)</f>
-        <v>0.17708333333333331</v>
+        <v>0.40486111111111112</v>
       </c>
       <c r="I34" s="20">
         <f>SUM(I3:I33)</f>
-        <v>1.0416666666666657E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="11"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+        <v>7.1527777777777801E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="80"/>
       <c r="B36" s="81"/>
       <c r="C36" s="80"/>
@@ -8747,22 +8806,21 @@
       <c r="E36" s="80"/>
       <c r="F36" s="80"/>
       <c r="G36" s="82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" s="83">
-        <f>IF(H40&gt;'BH 2012'!F4,'BH 2012'!F4,H40)</f>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="I36" s="97"/>
-      <c r="R36" s="94">
+        <f>$P$4*SUM(J3:J33)</f>
+        <v>3.5</v>
+      </c>
+      <c r="I36" s="98"/>
+      <c r="P36" s="120" t="s">
+        <v>51</v>
+      </c>
+      <c r="R36" s="119">
         <v>2000</v>
       </c>
-      <c r="S36" s="104">
-        <f>'09-2012'!S43</f>
-        <v>320.57416267942517</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="26"/>
       <c r="B37" s="84"/>
       <c r="C37" s="26"/>
@@ -8772,24 +8830,22 @@
       <c r="G37" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="86">
-        <f>G34/H36</f>
-        <v>4.5454545454545456E-2</v>
-      </c>
+      <c r="H37" s="86"/>
       <c r="I37" s="86">
         <f>H34/H36</f>
-        <v>4.8295454545454544E-2</v>
-      </c>
-      <c r="R37" s="95">
-        <f>$R$36*H37</f>
-        <v>90.909090909090907</v>
-      </c>
-      <c r="S37" s="92">
-        <f>$R$36*I37</f>
-        <v>96.590909090909093</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.11567460317460318</v>
+      </c>
+      <c r="O37" s="121"/>
+      <c r="P37" s="122" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q37" s="121"/>
+      <c r="R37" s="123">
+        <f>R36*I37</f>
+        <v>231.34920634920636</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="29"/>
       <c r="B38" s="87"/>
       <c r="C38" s="29"/>
@@ -8799,108 +8855,20 @@
       <c r="G38" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="H38" s="89">
-        <f>1-H37</f>
-        <v>0.95454545454545459</v>
-      </c>
+      <c r="H38" s="89"/>
       <c r="I38" s="89">
         <f>1-I37</f>
-        <v>0.95170454545454541</v>
-      </c>
-      <c r="R38" s="95">
-        <f>$R$36*H38</f>
-        <v>1909.0909090909092</v>
-      </c>
-      <c r="S38" s="92">
-        <f>$R$36*I38</f>
-        <v>1903.4090909090908</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="R39" s="95"/>
-      <c r="S39" s="27"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="80"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="82" t="s">
-        <v>47</v>
-      </c>
-      <c r="H40" s="83">
-        <f>$P$4*SUM(J3:J33)</f>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="I40" s="98"/>
-      <c r="R40" s="95"/>
-      <c r="S40" s="27"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="26"/>
-      <c r="B41" s="84"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="H41" s="86">
-        <f>G34/H40</f>
-        <v>4.5454545454545456E-2</v>
-      </c>
-      <c r="I41" s="86">
-        <f>H34/H40</f>
-        <v>4.8295454545454544E-2</v>
-      </c>
-      <c r="R41" s="95">
-        <f>$R$36*H41</f>
-        <v>90.909090909090907</v>
-      </c>
-      <c r="S41" s="92">
-        <f>$R$36*I41</f>
-        <v>96.590909090909093</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" s="29"/>
-      <c r="B42" s="87"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="88" t="s">
-        <v>45</v>
-      </c>
-      <c r="H42" s="89">
-        <f>1-H41</f>
-        <v>0.95454545454545459</v>
-      </c>
-      <c r="I42" s="89">
-        <f>1-I41</f>
-        <v>0.95170454545454541</v>
-      </c>
-      <c r="R42" s="96">
-        <f>$R$36*H42</f>
-        <v>1909.0909090909092</v>
-      </c>
-      <c r="S42" s="93">
-        <f>$R$36*I42</f>
-        <v>1903.4090909090908</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="R43" s="101"/>
-      <c r="S43" s="102">
-        <f>S36-R38</f>
-        <v>-1588.5167464114841</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="S44" s="105"/>
+        <v>0.88432539682539679</v>
+      </c>
+      <c r="O38" s="124"/>
+      <c r="P38" s="125" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q38" s="124"/>
+      <c r="R38" s="126">
+        <f>R36*I38</f>
+        <v>1768.6507936507935</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/e-Controle de Horas (IMR).xlsx
+++ b/e-Controle de Horas (IMR).xlsx
@@ -1154,6 +1154,30 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="26" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="28" fillId="8" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="29" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1192,30 +1216,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="26" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="28" fillId="8" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="29" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1968,29 +1968,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
       <c r="G1" s="33" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="111" t="s">
+      <c r="B2" s="120"/>
+      <c r="C2" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
       <c r="G2" s="33" t="s">
         <v>40</v>
       </c>
@@ -2341,11 +2341,11 @@
       <c r="D20" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="107">
+      <c r="E20" s="115">
         <f>SUM(D7:D18)</f>
         <v>2.136111111111112</v>
       </c>
-      <c r="F20" s="107"/>
+      <c r="F20" s="115"/>
       <c r="G20" s="33" t="s">
         <v>40</v>
       </c>
@@ -2358,11 +2358,11 @@
       <c r="D21" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="108">
+      <c r="E21" s="116">
         <f>SUM(E8:E19)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="108"/>
+      <c r="F21" s="116"/>
       <c r="G21" s="33" t="s">
         <v>40</v>
       </c>
@@ -2375,11 +2375,11 @@
       <c r="D22" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="109">
+      <c r="E22" s="117">
         <f>SUM(F9:F20)</f>
         <v>2.136111111111112</v>
       </c>
-      <c r="F22" s="109"/>
+      <c r="F22" s="117"/>
       <c r="G22" s="33" t="s">
         <v>40</v>
       </c>
@@ -2400,11 +2400,11 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="70"/>
       <c r="B24" s="71"/>
-      <c r="C24" s="110" t="s">
+      <c r="C24" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="72">
         <f>E22/F3</f>
         <v>12.816666666666672</v>
@@ -2511,17 +2511,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="115"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="123"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -2551,14 +2551,14 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="116" t="s">
+      <c r="K2" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="118"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="126"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -3536,17 +3536,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="115"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="123"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -3576,14 +3576,14 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="116" t="s">
+      <c r="K2" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="118"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="126"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -4961,17 +4961,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="115"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="123"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -5001,14 +5001,14 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="116" t="s">
+      <c r="K2" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="118"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="126"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -6356,17 +6356,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="115"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="123"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -6396,14 +6396,14 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="116" t="s">
+      <c r="K2" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="118"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="126"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -7735,7 +7735,7 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -7761,17 +7761,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="115"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="123"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -7801,14 +7801,14 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="116" t="s">
+      <c r="K2" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="118"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="126"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -8061,25 +8061,33 @@
       <c r="A9" s="3">
         <v>39758</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="B9" s="4">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.53263888888888888</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.55625000000000002</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.68402777777777779</v>
+      </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.3611111111111138E-2</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.19513888888888892</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.847222222222226E-2</v>
       </c>
       <c r="J9" s="90">
         <f t="shared" si="4"/>
@@ -8098,25 +8106,33 @@
       <c r="A10" s="3">
         <v>39759</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="B10" s="4">
+        <v>0.33819444444444446</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.56458333333333333</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.64513888888888882</v>
+      </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.0277777777777746E-2</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.26666666666666661</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.999999999999995E-2</v>
       </c>
       <c r="J10" s="90">
         <f t="shared" si="4"/>
@@ -8127,25 +8143,33 @@
       <c r="A11" s="3">
         <v>39760</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="B11" s="4">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.55069444444444449</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.70486111111111116</v>
+      </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.8611111111111094E-2</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.22361111111111115</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.6944444444444492E-2</v>
       </c>
       <c r="J11" s="90">
         <f t="shared" si="4"/>
@@ -8215,25 +8239,33 @@
       <c r="A14" s="3">
         <v>39763</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="B14" s="4">
+        <v>0.32708333333333334</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.52013888888888882</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.69791666666666663</v>
+      </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4027777777777879E-2</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.33680555555555541</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.17013888888888876</v>
       </c>
       <c r="J14" s="90">
         <f t="shared" si="4"/>
@@ -8245,25 +8277,33 @@
       <c r="A15" s="3">
         <v>39764</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="B15" s="4">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.67569444444444438</v>
+      </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.0138888888888973E-2</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.28263888888888872</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.11597222222222206</v>
       </c>
       <c r="J15" s="90">
         <f t="shared" si="4"/>
@@ -8787,15 +8827,15 @@
       <c r="F34" s="10"/>
       <c r="G34" s="21">
         <f>SUM(G3:G33)</f>
-        <v>0.33333333333333331</v>
+        <v>1.1666666666666665</v>
       </c>
       <c r="H34" s="21">
         <f>SUM(H3:H33)</f>
-        <v>0.40486111111111112</v>
+        <v>1.7097222222222219</v>
       </c>
       <c r="I34" s="20">
         <f>SUM(I3:I33)</f>
-        <v>7.1527777777777801E-2</v>
+        <v>0.54305555555555529</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -8813,10 +8853,10 @@
         <v>3.5</v>
       </c>
       <c r="I36" s="98"/>
-      <c r="P36" s="120" t="s">
+      <c r="P36" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="R36" s="119">
+      <c r="R36" s="106">
         <v>2000</v>
       </c>
     </row>
@@ -8833,16 +8873,16 @@
       <c r="H37" s="86"/>
       <c r="I37" s="86">
         <f>H34/H36</f>
-        <v>0.11567460317460318</v>
-      </c>
-      <c r="O37" s="121"/>
-      <c r="P37" s="122" t="s">
+        <v>0.48849206349206342</v>
+      </c>
+      <c r="O37" s="108"/>
+      <c r="P37" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="Q37" s="121"/>
-      <c r="R37" s="123">
+      <c r="Q37" s="108"/>
+      <c r="R37" s="110">
         <f>R36*I37</f>
-        <v>231.34920634920636</v>
+        <v>976.98412698412687</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -8858,16 +8898,16 @@
       <c r="H38" s="89"/>
       <c r="I38" s="89">
         <f>1-I37</f>
-        <v>0.88432539682539679</v>
-      </c>
-      <c r="O38" s="124"/>
-      <c r="P38" s="125" t="s">
+        <v>0.51150793650793658</v>
+      </c>
+      <c r="O38" s="111"/>
+      <c r="P38" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="Q38" s="124"/>
-      <c r="R38" s="126">
+      <c r="Q38" s="111"/>
+      <c r="R38" s="113">
         <f>R36*I38</f>
-        <v>1768.6507936507935</v>
+        <v>1023.0158730158731</v>
       </c>
     </row>
   </sheetData>

--- a/e-Controle de Horas (IMR).xlsx
+++ b/e-Controle de Horas (IMR).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="54">
   <si>
     <t>Data</t>
   </si>
@@ -7735,7 +7735,7 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -8314,25 +8314,33 @@
       <c r="A16" s="3">
         <v>39765</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="B16" s="4">
+        <v>0.34583333333333338</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.51458333333333328</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.6791666666666667</v>
+      </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.736111111111116E-2</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.31597222222222215</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.1493055555555555</v>
       </c>
       <c r="J16" s="90">
         <f t="shared" si="4"/>
@@ -8364,8 +8372,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="90">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K17" s="79" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -8374,23 +8384,27 @@
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="D18" s="4">
+        <v>0.55138888888888882</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.7680555555555556</v>
+      </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.21666666666666679</v>
       </c>
       <c r="I18" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.0000000000000128E-2</v>
       </c>
       <c r="J18" s="90">
         <f t="shared" si="4"/>
@@ -8460,25 +8474,33 @@
       <c r="A21" s="3">
         <v>39770</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="B21" s="4">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.6118055555555556</v>
+      </c>
       <c r="F21" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.4305555555555469E-2</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.2472222222222224</v>
       </c>
       <c r="I21" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.0555555555555741E-2</v>
       </c>
       <c r="J21" s="90">
         <f t="shared" si="4"/>
@@ -8489,25 +8511,33 @@
       <c r="A22" s="3">
         <v>39771</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="B22" s="4">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.63750000000000007</v>
+      </c>
       <c r="F22" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.26944444444444449</v>
       </c>
       <c r="I22" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.10277777777777783</v>
       </c>
       <c r="J22" s="90">
         <f t="shared" si="4"/>
@@ -8520,23 +8550,27 @@
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="D23" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F23" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.16666666666666674</v>
       </c>
       <c r="I23" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.3266726846886741E-17</v>
       </c>
       <c r="J23" s="90">
         <f t="shared" si="4"/>
@@ -8547,25 +8581,33 @@
       <c r="A24" s="3">
         <v>39773</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="B24" s="4">
+        <v>0.31805555555555554</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.56111111111111112</v>
+      </c>
       <c r="F24" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.7083333333333348E-2</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.21597222222222223</v>
       </c>
       <c r="I24" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.9305555555555575E-2</v>
       </c>
       <c r="J24" s="90">
         <f t="shared" si="4"/>
@@ -8578,23 +8620,27 @@
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="D25" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F25" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.16666666666666674</v>
       </c>
       <c r="I25" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.3266726846886741E-17</v>
       </c>
       <c r="J25" s="90">
         <f t="shared" si="4"/>
@@ -8827,15 +8873,15 @@
       <c r="F34" s="10"/>
       <c r="G34" s="21">
         <f>SUM(G3:G33)</f>
-        <v>1.1666666666666665</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="H34" s="21">
         <f>SUM(H3:H33)</f>
-        <v>1.7097222222222219</v>
+        <v>3.3083333333333327</v>
       </c>
       <c r="I34" s="20">
         <f>SUM(I3:I33)</f>
-        <v>0.54305555555555529</v>
+        <v>0.97500000000000031</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -8850,7 +8896,7 @@
       </c>
       <c r="H36" s="83">
         <f>$P$4*SUM(J3:J33)</f>
-        <v>3.5</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="I36" s="98"/>
       <c r="P36" s="107" t="s">
@@ -8873,7 +8919,7 @@
       <c r="H37" s="86"/>
       <c r="I37" s="86">
         <f>H34/H36</f>
-        <v>0.48849206349206342</v>
+        <v>0.99249999999999994</v>
       </c>
       <c r="O37" s="108"/>
       <c r="P37" s="109" t="s">
@@ -8882,7 +8928,7 @@
       <c r="Q37" s="108"/>
       <c r="R37" s="110">
         <f>R36*I37</f>
-        <v>976.98412698412687</v>
+        <v>1984.9999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -8898,7 +8944,7 @@
       <c r="H38" s="89"/>
       <c r="I38" s="89">
         <f>1-I37</f>
-        <v>0.51150793650793658</v>
+        <v>7.5000000000000622E-3</v>
       </c>
       <c r="O38" s="111"/>
       <c r="P38" s="112" t="s">
@@ -8907,7 +8953,7 @@
       <c r="Q38" s="111"/>
       <c r="R38" s="113">
         <f>R36*I38</f>
-        <v>1023.0158730158731</v>
+        <v>15.000000000000124</v>
       </c>
     </row>
   </sheetData>

--- a/e-Controle de Horas (IMR).xlsx
+++ b/e-Controle de Horas (IMR).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="53">
   <si>
     <t>Data</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>A Pagar:</t>
-  </si>
-  <si>
-    <t>Descontar:</t>
   </si>
 </sst>
 </file>
@@ -7735,7 +7732,7 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -8797,25 +8794,33 @@
       <c r="A31" s="3">
         <v>39780</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="B31" s="4">
+        <v>0.43541666666666662</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.57847222222222217</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.69652777777777775</v>
+      </c>
       <c r="F31" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6666666666666607E-2</v>
       </c>
       <c r="G31" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H31" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.24444444444444452</v>
       </c>
       <c r="I31" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.7777777777777862E-2</v>
       </c>
       <c r="J31" s="90">
         <f t="shared" si="4"/>
@@ -8827,8 +8832,12 @@
       <c r="A32" s="3">
         <v>39781</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="B32" s="4">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.5180555555555556</v>
+      </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="5">
@@ -8837,15 +8846,15 @@
       </c>
       <c r="G32" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H32" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.11805555555555564</v>
       </c>
       <c r="I32" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-4.8611111111111022E-2</v>
       </c>
       <c r="J32" s="90">
         <f t="shared" si="4"/>
@@ -8873,15 +8882,15 @@
       <c r="F34" s="10"/>
       <c r="G34" s="21">
         <f>SUM(G3:G33)</f>
-        <v>2.333333333333333</v>
+        <v>2.6666666666666661</v>
       </c>
       <c r="H34" s="21">
         <f>SUM(H3:H33)</f>
-        <v>3.3083333333333327</v>
+        <v>3.6708333333333329</v>
       </c>
       <c r="I34" s="20">
         <f>SUM(I3:I33)</f>
-        <v>0.97500000000000031</v>
+        <v>1.0041666666666673</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -8919,7 +8928,7 @@
       <c r="H37" s="86"/>
       <c r="I37" s="86">
         <f>H34/H36</f>
-        <v>0.99249999999999994</v>
+        <v>1.1012500000000001</v>
       </c>
       <c r="O37" s="108"/>
       <c r="P37" s="109" t="s">
@@ -8928,7 +8937,7 @@
       <c r="Q37" s="108"/>
       <c r="R37" s="110">
         <f>R36*I37</f>
-        <v>1984.9999999999998</v>
+        <v>2202.5</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -8944,16 +8953,17 @@
       <c r="H38" s="89"/>
       <c r="I38" s="89">
         <f>1-I37</f>
-        <v>7.5000000000000622E-3</v>
+        <v>-0.10125000000000006</v>
       </c>
       <c r="O38" s="111"/>
-      <c r="P38" s="112" t="s">
-        <v>53</v>
+      <c r="P38" s="112" t="str">
+        <f>IF(R38&gt;0,"Descontar:","Creditar:")</f>
+        <v>Creditar:</v>
       </c>
       <c r="Q38" s="111"/>
       <c r="R38" s="113">
         <f>R36*I38</f>
-        <v>15.000000000000124</v>
+        <v>-202.50000000000011</v>
       </c>
     </row>
   </sheetData>

--- a/e-Controle de Horas (IMR).xlsx
+++ b/e-Controle de Horas (IMR).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr date1904="1" codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="11340" windowHeight="8580" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="11340" windowHeight="8580" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="BH 2012" sheetId="17" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="09-2012" sheetId="18" r:id="rId4"/>
     <sheet name="10-2012" sheetId="19" r:id="rId5"/>
     <sheet name="11-2012" sheetId="20" r:id="rId6"/>
+    <sheet name="12-2012" sheetId="21" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="54">
   <si>
     <t>Data</t>
   </si>
@@ -178,6 +179,9 @@
   </si>
   <si>
     <t>A Pagar:</t>
+  </si>
+  <si>
+    <t>HORAS DE ISAQUE MARINHO RIBEIRO - DEZEMBRO/2012</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1224,86 @@
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="58">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <u val="none"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="13"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1951,7 +2034,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2264,15 +2347,24 @@
       <c r="A16" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="44"/>
+      <c r="B16" s="39">
+        <f>'10-2012'!G34</f>
+        <v>2.9999999999999991</v>
+      </c>
+      <c r="C16" s="39">
+        <f>'10-2012'!H34</f>
+        <v>3.7013888888888888</v>
+      </c>
+      <c r="D16" s="44">
+        <f>'10-2012'!I34</f>
+        <v>0.70138888888888828</v>
+      </c>
       <c r="E16" s="40">
         <v>0</v>
       </c>
       <c r="F16" s="41">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.70138888888888828</v>
       </c>
       <c r="G16" s="33" t="s">
         <v>40</v>
@@ -2283,15 +2375,24 @@
       <c r="A17" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="64"/>
+      <c r="B17" s="63">
+        <f>'11-2012'!G34</f>
+        <v>2.6666666666666661</v>
+      </c>
+      <c r="C17" s="63">
+        <f>'11-2012'!H34</f>
+        <v>3.6708333333333329</v>
+      </c>
+      <c r="D17" s="64">
+        <f>'11-2012'!I34</f>
+        <v>1.0041666666666673</v>
+      </c>
       <c r="E17" s="65">
         <v>0</v>
       </c>
       <c r="F17" s="66">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.0041666666666673</v>
       </c>
       <c r="G17" s="33" t="s">
         <v>40</v>
@@ -2340,7 +2441,7 @@
       </c>
       <c r="E20" s="115">
         <f>SUM(D7:D18)</f>
-        <v>2.136111111111112</v>
+        <v>3.8416666666666677</v>
       </c>
       <c r="F20" s="115"/>
       <c r="G20" s="33" t="s">
@@ -2374,7 +2475,7 @@
       </c>
       <c r="E22" s="117">
         <f>SUM(F9:F20)</f>
-        <v>2.136111111111112</v>
+        <v>3.8416666666666677</v>
       </c>
       <c r="F22" s="117"/>
       <c r="G22" s="33" t="s">
@@ -2404,7 +2505,7 @@
       <c r="E24" s="118"/>
       <c r="F24" s="72">
         <f>E22/F3</f>
-        <v>12.816666666666672</v>
+        <v>23.050000000000008</v>
       </c>
       <c r="G24" s="33" t="s">
         <v>40</v>
@@ -3444,53 +3545,53 @@
     <mergeCell ref="K2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="I34">
-    <cfRule type="cellIs" dxfId="48" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="19" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="20" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="20" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F33">
-    <cfRule type="cellIs" dxfId="45" priority="17" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="54" priority="17" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>0.0833333333333333</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="18" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>0.0833333333333333</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I33">
-    <cfRule type="cellIs" dxfId="43" priority="15" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="52" priority="15" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H33">
-    <cfRule type="cellIs" dxfId="41" priority="13" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="50" priority="13" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0.333333333333333</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0.333333333333333</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="39" priority="11" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="48" priority="11" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>0.0833333333333333</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="12" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>0.0833333333333333</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F33">
-    <cfRule type="cellIs" dxfId="37" priority="9" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="46" priority="9" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>0.0833333333333333</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="10" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="10" stopIfTrue="1" operator="greaterThan">
       <formula>0.0833333333333333</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4888,37 +4989,37 @@
     <mergeCell ref="K2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="I34">
-    <cfRule type="cellIs" dxfId="35" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="7" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="8" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F33">
-    <cfRule type="cellIs" dxfId="32" priority="5" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="41" priority="5" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>0.0833333333333333</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="6" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>0.0833333333333333</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I33">
-    <cfRule type="cellIs" dxfId="30" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="39" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H33">
-    <cfRule type="cellIs" dxfId="28" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="37" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0.333333333333333</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0.333333333333333</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6276,6 +6377,1411 @@
         <f>S36-R38</f>
         <v>320.57416267942517</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="K2:P2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="cellIs" dxfId="35" priority="7" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="8" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F33">
+    <cfRule type="cellIs" dxfId="32" priority="5" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>0.0833333333333333</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="6" stopIfTrue="1" operator="greaterThan">
+      <formula>0.0833333333333333</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I33">
+    <cfRule type="cellIs" dxfId="30" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H33">
+    <cfRule type="cellIs" dxfId="28" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>0.333333333333333</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0.333333333333333</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="121" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="123"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="126"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>39721</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.36388888888888887</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F3" s="5">
+        <f>(IF(AND(C3&gt;0,D3&gt;0),D3-C3,0))</f>
+        <v>7.6388888888888951E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <f>IF(AND(WEEKDAY(A3)&gt;1,WEEKDAY(A3)&lt;7),IF(((E3-D3)+(C3-B3))&gt;0,$P$4,0),"")</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H3" s="5">
+        <f>IF(G3&lt;&gt;0,(E3-D3)+(C3-B3),0)</f>
+        <v>0.20555555555555555</v>
+      </c>
+      <c r="I3" s="5">
+        <f>IF(G3&lt;&gt;"",H3-G3,0)</f>
+        <v>3.888888888888889E-2</v>
+      </c>
+      <c r="J3" s="90">
+        <f>IF(AND(WEEKDAY(A3)&gt;1,WEEKDAY(A3)&lt;7),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>39722</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.34375</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.53125</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.55069444444444449</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F33" si="0">(IF(AND(C4&gt;0,D4&gt;0),D4-C4,0))</f>
+        <v>1.9444444444444486E-2</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" ref="G4:G33" si="1">IF(AND(WEEKDAY(A4)&gt;1,WEEKDAY(A4)&lt;7),IF(((E4-D4)+(C4-B4))&gt;0,$P$4,0),"")</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" ref="H4:H33" si="2">IF(G4&lt;&gt;0,(E4-D4)+(C4-B4),0)</f>
+        <v>0.23402777777777772</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" ref="I4:I33" si="3">IF(G4&lt;&gt;"",H4-G4,0)</f>
+        <v>6.7361111111111066E-2</v>
+      </c>
+      <c r="J4" s="90">
+        <f t="shared" ref="J4:J33" si="4">IF(AND(WEEKDAY(A4)&gt;1,WEEKDAY(A4)&lt;7),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L4" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M4" s="15">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="N4" s="16">
+        <f>(M4-L4)</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="O4" s="17">
+        <f>(P4-(L4-K4)+M4)</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="P4" s="18">
+        <f>'BH 2012'!F3</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>39723</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.34375</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.65416666666666667</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="2"/>
+        <v>0.28263888888888888</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="3"/>
+        <v>0.11597222222222223</v>
+      </c>
+      <c r="J5" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>39724</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.55625000000000002</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>3.0555555555555558E-2</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="2"/>
+        <v>0.19930555555555551</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="3"/>
+        <v>3.2638888888888856E-2</v>
+      </c>
+      <c r="J6" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="24"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>39725</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.736111111111116E-2</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="2"/>
+        <v>0.23611111111111105</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="3"/>
+        <v>6.9444444444444392E-2</v>
+      </c>
+      <c r="J7" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="27"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>39726</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="27"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>39727</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="30"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>39728</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="2"/>
+        <v>0.19444444444444436</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="3"/>
+        <v>2.7777777777777707E-2</v>
+      </c>
+      <c r="J10" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>39729</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.53263888888888888</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="2"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333315E-3</v>
+      </c>
+      <c r="J11" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="74"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>39730</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.33263888888888887</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.54722222222222217</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.57013888888888886</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666607E-2</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="2"/>
+        <v>0.22083333333333338</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="3"/>
+        <v>5.4166666666666724E-2</v>
+      </c>
+      <c r="J12" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>39731</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.53125</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="2"/>
+        <v>0.18402777777777773</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="3"/>
+        <v>1.7361111111111077E-2</v>
+      </c>
+      <c r="J13" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>39732</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="90">
+        <v>0</v>
+      </c>
+      <c r="K14" s="79" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>39733</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>39734</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>39735</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.34375</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.51180555555555551</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="0"/>
+        <v>9.0277777777778567E-3</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="2"/>
+        <v>0.18888888888888877</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="3"/>
+        <v>2.2222222222222116E-2</v>
+      </c>
+      <c r="J17" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>39736</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="2"/>
+        <v>0.20902777777777776</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="3"/>
+        <v>4.2361111111111099E-2</v>
+      </c>
+      <c r="J18" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>39737</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.31875000000000003</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.68611111111111101</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="0"/>
+        <v>0.12291666666666662</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="2"/>
+        <v>0.24444444444444435</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="3"/>
+        <v>7.7777777777777696E-2</v>
+      </c>
+      <c r="J19" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>39738</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.61875000000000002</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="0"/>
+        <v>4.7916666666666718E-2</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="2"/>
+        <v>0.21666666666666662</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="3"/>
+        <v>4.9999999999999961E-2</v>
+      </c>
+      <c r="J20" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>39739</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="2"/>
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="3"/>
+        <v>-3.3333333333333354E-2</v>
+      </c>
+      <c r="J21" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>39740</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>39741</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>39742</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.53541666666666665</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="2"/>
+        <v>0.18124999999999997</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" si="3"/>
+        <v>1.4583333333333309E-2</v>
+      </c>
+      <c r="J24" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>39743</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.51111111111111118</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8749999999999933E-2</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="2"/>
+        <v>0.2104166666666667</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="3"/>
+        <v>4.3750000000000039E-2</v>
+      </c>
+      <c r="J25" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>39744</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>39745</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.33263888888888887</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="2"/>
+        <v>0.17708333333333331</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="3"/>
+        <v>1.0416666666666657E-2</v>
+      </c>
+      <c r="J27" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>39746</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="2"/>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="3"/>
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="J28" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>39747</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="19"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>39748</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>39749</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="90">
+        <v>0</v>
+      </c>
+      <c r="K31" s="79" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>39750</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>39751</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="21">
+        <f>SUM(G3:G33)</f>
+        <v>2.9999999999999991</v>
+      </c>
+      <c r="H34" s="21">
+        <f>SUM(H3:H33)</f>
+        <v>3.7013888888888888</v>
+      </c>
+      <c r="I34" s="20">
+        <f>SUM(I3:I33)</f>
+        <v>0.70138888888888828</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="7"/>
+      <c r="B35" s="11"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="80"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" s="83">
+        <f>IF(H40&gt;'BH 2012'!F4,'BH 2012'!F4,H40)</f>
+        <v>3.5</v>
+      </c>
+      <c r="I36" s="97"/>
+      <c r="R36" s="94">
+        <v>2000</v>
+      </c>
+      <c r="S36" s="104">
+        <f>'09-2012'!S43</f>
+        <v>320.57416267942517</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="26"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" s="86">
+        <f>G34/H36</f>
+        <v>0.85714285714285687</v>
+      </c>
+      <c r="I37" s="86">
+        <f>H34/H36</f>
+        <v>1.0575396825396826</v>
+      </c>
+      <c r="R37" s="95">
+        <f>$R$36*H37</f>
+        <v>1714.2857142857138</v>
+      </c>
+      <c r="S37" s="92">
+        <f>$R$36*I37</f>
+        <v>2115.0793650793653</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="29"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" s="89">
+        <f>1-H37</f>
+        <v>0.14285714285714313</v>
+      </c>
+      <c r="I38" s="89">
+        <f>1-I37</f>
+        <v>-5.7539682539682557E-2</v>
+      </c>
+      <c r="R38" s="95">
+        <f>$R$36*H38</f>
+        <v>285.71428571428623</v>
+      </c>
+      <c r="S38" s="92">
+        <f>$R$36*I38</f>
+        <v>-115.07936507936512</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R39" s="95"/>
+      <c r="S39" s="27"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="80"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" s="83">
+        <f>$P$4*SUM(J3:J33)</f>
+        <v>3.5</v>
+      </c>
+      <c r="I40" s="98"/>
+      <c r="R40" s="95"/>
+      <c r="S40" s="27"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="26"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" s="86">
+        <f>G34/H40</f>
+        <v>0.85714285714285687</v>
+      </c>
+      <c r="I41" s="86">
+        <f>H34/H40</f>
+        <v>1.0575396825396826</v>
+      </c>
+      <c r="R41" s="95">
+        <f>$R$36*H41</f>
+        <v>1714.2857142857138</v>
+      </c>
+      <c r="S41" s="92">
+        <f>$R$36*I41</f>
+        <v>2115.0793650793653</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="29"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" s="89">
+        <f>1-H41</f>
+        <v>0.14285714285714313</v>
+      </c>
+      <c r="I42" s="89">
+        <f>1-I41</f>
+        <v>-5.7539682539682557E-2</v>
+      </c>
+      <c r="R42" s="96">
+        <f>$R$36*H42</f>
+        <v>285.71428571428623</v>
+      </c>
+      <c r="S42" s="93">
+        <f>$R$36*I42</f>
+        <v>-115.07936507936512</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R43" s="101"/>
+      <c r="S43" s="102">
+        <f>S36-R38</f>
+        <v>34.859876965138938</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S44" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6322,12 +7828,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -6352,9 +7858,9 @@
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="121" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B1" s="122"/>
       <c r="C1" s="122"/>
@@ -6365,7 +7871,7 @@
       <c r="H1" s="122"/>
       <c r="I1" s="123"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -6402,25 +7908,21 @@
       <c r="O2" s="125"/>
       <c r="P2" s="126"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>39721</v>
+        <v>39752</v>
       </c>
       <c r="B3" s="4">
-        <v>0.36388888888888887</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="C3" s="4">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D3" s="4">
-        <v>0.61805555555555558</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="5">
         <f>(IF(AND(C3&gt;0,D3&gt;0),D3-C3,0))</f>
-        <v>7.6388888888888951E-2</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5">
         <f>IF(AND(WEEKDAY(A3)&gt;1,WEEKDAY(A3)&lt;7),IF(((E3-D3)+(C3-B3))&gt;0,$P$4,0),"")</f>
@@ -6428,11 +7930,11 @@
       </c>
       <c r="H3" s="5">
         <f>IF(G3&lt;&gt;0,(E3-D3)+(C3-B3),0)</f>
-        <v>0.20555555555555555</v>
+        <v>0.17708333333333331</v>
       </c>
       <c r="I3" s="5">
         <f>IF(G3&lt;&gt;"",H3-G3,0)</f>
-        <v>3.888888888888889E-2</v>
+        <v>1.0416666666666657E-2</v>
       </c>
       <c r="J3" s="90">
         <f>IF(AND(WEEKDAY(A3)&gt;1,WEEKDAY(A3)&lt;7),1,0)</f>
@@ -6457,41 +7959,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>39722</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.34375</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.53125</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.55069444444444449</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.59722222222222221</v>
-      </c>
+        <v>39753</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F33" si="0">(IF(AND(C4&gt;0,D4&gt;0),D4-C4,0))</f>
-        <v>1.9444444444444486E-2</v>
+        <f t="shared" ref="F4:F32" si="0">(IF(AND(C4&gt;0,D4&gt;0),D4-C4,0))</f>
+        <v>0</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" ref="G4:G33" si="1">IF(AND(WEEKDAY(A4)&gt;1,WEEKDAY(A4)&lt;7),IF(((E4-D4)+(C4-B4))&gt;0,$P$4,0),"")</f>
-        <v>0.16666666666666666</v>
+        <f t="shared" ref="G4:G32" si="1">IF(AND(WEEKDAY(A4)&gt;1,WEEKDAY(A4)&lt;7),IF(((E4-D4)+(C4-B4))&gt;0,$P$4,0),"")</f>
+        <v>0</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" ref="H4:H33" si="2">IF(G4&lt;&gt;0,(E4-D4)+(C4-B4),0)</f>
-        <v>0.23402777777777772</v>
+        <f t="shared" ref="H4:H32" si="2">IF(G4&lt;&gt;0,(E4-D4)+(C4-B4),0)</f>
+        <v>0</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" ref="I4:I33" si="3">IF(G4&lt;&gt;"",H4-G4,0)</f>
-        <v>6.7361111111111066E-2</v>
+        <f t="shared" ref="I4:I32" si="3">IF(G4&lt;&gt;"",H4-G4,0)</f>
+        <v>0</v>
       </c>
       <c r="J4" s="90">
-        <f t="shared" ref="J4:J33" si="4">IF(AND(WEEKDAY(A4)&gt;1,WEEKDAY(A4)&lt;7),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="14">
         <v>0.33333333333333331</v>
@@ -6514,79 +8007,66 @@
         <f>'BH 2012'!F3</f>
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R4" s="79" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>39723</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.34375</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.65416666666666667</v>
-      </c>
+        <v>39754</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>2.777777777777779E-2</v>
-      </c>
-      <c r="G5" s="5">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="2"/>
-        <v>0.28263888888888888</v>
+        <v>0</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" si="3"/>
-        <v>0.11597222222222223</v>
+        <v>0</v>
       </c>
       <c r="J5" s="90">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" ref="J5:J32" si="4">IF(AND(WEEKDAY(A5)&gt;1,WEEKDAY(A5)&lt;7),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>39724</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.47152777777777777</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.52569444444444446</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.55625000000000002</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.70138888888888884</v>
-      </c>
+        <v>39755</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>3.0555555555555558E-2</v>
-      </c>
-      <c r="G6" s="5">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="2"/>
-        <v>0.19930555555555551</v>
+        <v>0</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="3"/>
-        <v>3.2638888888888856E-2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="90">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="22" t="s">
         <v>10</v>
@@ -6597,37 +8077,29 @@
       <c r="O6" s="23"/>
       <c r="P6" s="24"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>39725</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.35069444444444442</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.53819444444444442</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.60416666666666663</v>
-      </c>
+        <v>39756</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>1.736111111111116E-2</v>
+        <v>0</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="2"/>
-        <v>0.23611111111111105</v>
+        <v>0</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="3"/>
-        <v>6.9444444444444392E-2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="90">
         <f t="shared" si="4"/>
@@ -6642,33 +8114,37 @@
       <c r="O7" s="26"/>
       <c r="P7" s="27"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>39726</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+        <v>39757</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.55902777777777779</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="G8" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.2277777777777778</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.1111111111111144E-2</v>
       </c>
       <c r="J8" s="90">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="25" t="s">
         <v>32</v>
@@ -6679,33 +8155,41 @@
       <c r="O8" s="26"/>
       <c r="P8" s="27"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>39727</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+        <v>39758</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.53263888888888888</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.55625000000000002</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.68402777777777779</v>
+      </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>2.3611111111111138E-2</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.19513888888888892</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.847222222222226E-2</v>
       </c>
       <c r="J9" s="90">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="28" t="s">
         <v>31</v>
@@ -6716,25 +8200,25 @@
       <c r="O9" s="29"/>
       <c r="P9" s="30"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>39728</v>
+        <v>39759</v>
       </c>
       <c r="B10" s="4">
-        <v>0.4548611111111111</v>
+        <v>0.33819444444444446</v>
       </c>
       <c r="C10" s="4">
-        <v>0.55902777777777779</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="D10" s="4">
-        <v>0.59027777777777779</v>
+        <v>0.56458333333333333</v>
       </c>
       <c r="E10" s="4">
-        <v>0.68055555555555547</v>
+        <v>0.64513888888888882</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>4.0277777777777746E-2</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
@@ -6742,32 +8226,36 @@
       </c>
       <c r="H10" s="5">
         <f t="shared" si="2"/>
-        <v>0.19444444444444436</v>
+        <v>0.26666666666666661</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" si="3"/>
-        <v>2.7777777777777707E-2</v>
+        <v>9.999999999999995E-2</v>
       </c>
       <c r="J10" s="90">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>39729</v>
+        <v>39760</v>
       </c>
       <c r="B11" s="4">
-        <v>0.3576388888888889</v>
+        <v>0.38263888888888892</v>
       </c>
       <c r="C11" s="4">
-        <v>0.53263888888888888</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+        <v>0.55069444444444449</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.70486111111111116</v>
+      </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.8611111111111094E-2</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
@@ -6775,11 +8263,11 @@
       </c>
       <c r="H11" s="5">
         <f t="shared" si="2"/>
-        <v>0.17499999999999999</v>
+        <v>0.22361111111111115</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="3"/>
-        <v>8.3333333333333315E-3</v>
+        <v>5.6944444444444492E-2</v>
       </c>
       <c r="J11" s="90">
         <f t="shared" si="4"/>
@@ -6787,214 +8275,219 @@
       </c>
       <c r="K11" s="74"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>39730</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0.33263888888888887</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.53055555555555556</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.54722222222222217</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.57013888888888886</v>
-      </c>
+        <v>39761</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>1.6666666666666607E-2</v>
-      </c>
-      <c r="G12" s="5">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="2"/>
-        <v>0.22083333333333338</v>
+        <v>0</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" si="3"/>
-        <v>5.4166666666666724E-2</v>
+        <v>0</v>
       </c>
       <c r="J12" s="90">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>39731</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0.34722222222222227</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.53125</v>
-      </c>
+        <v>39762</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>39763</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.32708333333333334</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.52013888888888882</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>3.4027777777777879E-2</v>
+      </c>
+      <c r="G14" s="5">
         <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="H13" s="5">
-        <f t="shared" si="2"/>
-        <v>0.18402777777777773</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" si="3"/>
-        <v>1.7361111111111077E-2</v>
-      </c>
-      <c r="J13" s="90">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>39732</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="H14" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.33680555555555541</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.17013888888888876</v>
       </c>
       <c r="J14" s="90">
-        <v>0</v>
-      </c>
-      <c r="K14" s="79" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="79"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>39733</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+        <v>39764</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.67569444444444438</v>
+      </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>7.0138888888888973E-2</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.28263888888888872</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.11597222222222206</v>
       </c>
       <c r="J15" s="90">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>39734</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+        <v>39765</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.34583333333333338</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.51458333333333328</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.6791666666666667</v>
+      </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>1.736111111111116E-2</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.31597222222222215</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.1493055555555555</v>
       </c>
       <c r="J16" s="90">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>39735</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0.34375</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0.51180555555555551</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.54166666666666663</v>
-      </c>
+        <v>39766</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>9.0277777777778567E-3</v>
+        <v>0</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" si="2"/>
-        <v>0.18888888888888877</v>
+        <v>0</v>
       </c>
       <c r="I17" s="5">
         <f t="shared" si="3"/>
-        <v>2.2222222222222116E-2</v>
+        <v>0</v>
       </c>
       <c r="J17" s="90">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K17" s="79" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>39736</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0.33124999999999999</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0.54027777777777775</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+        <v>39767</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4">
+        <v>0.55138888888888882</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.7680555555555556</v>
+      </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7005,11 +8498,11 @@
       </c>
       <c r="H18" s="5">
         <f t="shared" si="2"/>
-        <v>0.20902777777777776</v>
+        <v>0.21666666666666679</v>
       </c>
       <c r="I18" s="5">
         <f t="shared" si="3"/>
-        <v>4.2361111111111099E-2</v>
+        <v>5.0000000000000128E-2</v>
       </c>
       <c r="J18" s="90">
         <f t="shared" si="4"/>
@@ -7018,94 +8511,82 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>39737</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0.31875000000000003</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.4770833333333333</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.68611111111111101</v>
-      </c>
+        <v>39768</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>0.12291666666666662</v>
-      </c>
-      <c r="G19" s="5">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="2"/>
-        <v>0.24444444444444435</v>
+        <v>0</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" si="3"/>
-        <v>7.7777777777777696E-2</v>
+        <v>0</v>
       </c>
       <c r="J19" s="90">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>39738</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0.52986111111111112</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.57777777777777783</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0.61875000000000002</v>
-      </c>
+        <v>39769</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>4.7916666666666718E-2</v>
-      </c>
-      <c r="G20" s="5">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="2"/>
-        <v>0.21666666666666662</v>
+        <v>0</v>
       </c>
       <c r="I20" s="5">
         <f t="shared" si="3"/>
-        <v>4.9999999999999961E-2</v>
+        <v>0</v>
       </c>
       <c r="J20" s="90">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>39739</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+        <v>39770</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.52430555555555558</v>
+      </c>
       <c r="D21" s="4">
-        <v>0.57500000000000007</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="E21" s="4">
-        <v>0.70833333333333337</v>
+        <v>0.6118055555555556</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.4305555555555469E-2</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="1"/>
@@ -7113,11 +8594,11 @@
       </c>
       <c r="H21" s="5">
         <f t="shared" si="2"/>
-        <v>0.1333333333333333</v>
+        <v>0.2472222222222224</v>
       </c>
       <c r="I21" s="5">
         <f t="shared" si="3"/>
-        <v>-3.3333333333333354E-2</v>
+        <v>8.0555555555555741E-2</v>
       </c>
       <c r="J21" s="90">
         <f t="shared" si="4"/>
@@ -7126,77 +8607,93 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>39740</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+        <v>39771</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.63750000000000007</v>
+      </c>
       <c r="F22" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.26944444444444449</v>
       </c>
       <c r="I22" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.10277777777777783</v>
       </c>
       <c r="J22" s="90">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>39741</v>
+        <v>39772</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="D23" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F23" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="G23" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.16666666666666674</v>
       </c>
       <c r="I23" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.3266726846886741E-17</v>
       </c>
       <c r="J23" s="90">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>39742</v>
+        <v>39773</v>
       </c>
       <c r="B24" s="4">
-        <v>0.35416666666666669</v>
+        <v>0.31805555555555554</v>
       </c>
       <c r="C24" s="4">
-        <v>0.53541666666666665</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.56111111111111112</v>
+      </c>
       <c r="F24" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.7083333333333348E-2</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="1"/>
@@ -7204,11 +8701,11 @@
       </c>
       <c r="H24" s="5">
         <f t="shared" si="2"/>
-        <v>0.18124999999999997</v>
+        <v>0.21597222222222223</v>
       </c>
       <c r="I24" s="5">
         <f t="shared" si="3"/>
-        <v>1.4583333333333309E-2</v>
+        <v>4.9305555555555575E-2</v>
       </c>
       <c r="J24" s="90">
         <f t="shared" si="4"/>
@@ -7217,23 +8714,19 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>39743</v>
-      </c>
-      <c r="B25" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0.51111111111111118</v>
-      </c>
+        <v>39774</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="4">
-        <v>0.52986111111111112</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E25" s="4">
-        <v>0.60416666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="0"/>
-        <v>1.8749999999999933E-2</v>
+        <v>0</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="1"/>
@@ -7241,11 +8734,11 @@
       </c>
       <c r="H25" s="5">
         <f t="shared" si="2"/>
-        <v>0.2104166666666667</v>
+        <v>0.16666666666666674</v>
       </c>
       <c r="I25" s="5">
         <f t="shared" si="3"/>
-        <v>4.3750000000000039E-2</v>
+        <v>8.3266726846886741E-17</v>
       </c>
       <c r="J25" s="90">
         <f t="shared" si="4"/>
@@ -7254,7 +8747,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>39744</v>
+        <v>39775</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -7264,9 +8757,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H26" s="5">
         <f t="shared" si="2"/>
@@ -7278,52 +8771,44 @@
       </c>
       <c r="J26" s="90">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>39745</v>
-      </c>
-      <c r="B27" s="4">
-        <v>0.33263888888888887</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0.50972222222222219</v>
-      </c>
+        <v>39776</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="5">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+      <c r="G27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H27" s="5">
         <f t="shared" si="2"/>
-        <v>0.17708333333333331</v>
+        <v>0</v>
       </c>
       <c r="I27" s="5">
         <f t="shared" si="3"/>
-        <v>1.0416666666666657E-2</v>
+        <v>0</v>
       </c>
       <c r="J27" s="90">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>39746</v>
-      </c>
-      <c r="B28" s="4">
-        <v>0.34722222222222227</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0.55555555555555558</v>
-      </c>
+        <v>39777</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="5">
@@ -7332,15 +8817,15 @@
       </c>
       <c r="G28" s="5">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" si="2"/>
-        <v>0.20833333333333331</v>
+        <v>0</v>
       </c>
       <c r="I28" s="5">
         <f t="shared" si="3"/>
-        <v>4.1666666666666657E-2</v>
+        <v>0</v>
       </c>
       <c r="J28" s="90">
         <f t="shared" si="4"/>
@@ -7349,7 +8834,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>39747</v>
+        <v>39778</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -7359,9 +8844,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="G29" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H29" s="5">
         <f t="shared" si="2"/>
@@ -7373,13 +8858,13 @@
       </c>
       <c r="J29" s="90">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="19"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>39748</v>
+        <v>39779</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -7389,9 +8874,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G30" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="G30" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" si="2"/>
@@ -7403,46 +8888,57 @@
       </c>
       <c r="J30" s="90">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>39749</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+        <v>39780</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.43541666666666662</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.57847222222222217</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.69652777777777775</v>
+      </c>
       <c r="F31" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6666666666666607E-2</v>
       </c>
       <c r="G31" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H31" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.24444444444444452</v>
       </c>
       <c r="I31" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.7777777777777862E-2</v>
       </c>
       <c r="J31" s="90">
-        <v>0</v>
-      </c>
-      <c r="K31" s="79" t="s">
-        <v>49</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K31" s="79"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>39750</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+        <v>39781</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.5180555555555556</v>
+      </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="5">
@@ -7451,51 +8947,34 @@
       </c>
       <c r="G32" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H32" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.11805555555555564</v>
       </c>
       <c r="I32" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-4.8611111111111022E-2</v>
       </c>
       <c r="J32" s="90">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>39751</v>
-      </c>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="90">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="90"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -7504,22 +8983,18 @@
       <c r="F34" s="10"/>
       <c r="G34" s="21">
         <f>SUM(G3:G33)</f>
-        <v>2.9999999999999991</v>
+        <v>2.6666666666666661</v>
       </c>
       <c r="H34" s="21">
         <f>SUM(H3:H33)</f>
-        <v>3.7013888888888888</v>
+        <v>3.6708333333333329</v>
       </c>
       <c r="I34" s="20">
         <f>SUM(I3:I33)</f>
-        <v>0.70138888888888828</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="11"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1.0041666666666673</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="80"/>
       <c r="B36" s="81"/>
       <c r="C36" s="80"/>
@@ -7527,22 +9002,21 @@
       <c r="E36" s="80"/>
       <c r="F36" s="80"/>
       <c r="G36" s="82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" s="83">
-        <f>IF(H40&gt;'BH 2012'!F4,'BH 2012'!F4,H40)</f>
-        <v>3.5</v>
-      </c>
-      <c r="I36" s="97"/>
-      <c r="R36" s="94">
+        <f>$P$4*SUM(J3:J33)</f>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="I36" s="98"/>
+      <c r="P36" s="107" t="s">
+        <v>51</v>
+      </c>
+      <c r="R36" s="106">
         <v>2000</v>
       </c>
-      <c r="S36" s="104">
-        <f>'09-2012'!S43</f>
-        <v>320.57416267942517</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="26"/>
       <c r="B37" s="84"/>
       <c r="C37" s="26"/>
@@ -7552,24 +9026,22 @@
       <c r="G37" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="86">
-        <f>G34/H36</f>
-        <v>0.85714285714285687</v>
-      </c>
+      <c r="H37" s="86"/>
       <c r="I37" s="86">
         <f>H34/H36</f>
-        <v>1.0575396825396826</v>
-      </c>
-      <c r="R37" s="95">
-        <f>$R$36*H37</f>
-        <v>1714.2857142857138</v>
-      </c>
-      <c r="S37" s="92">
-        <f>$R$36*I37</f>
-        <v>2115.0793650793653</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1.1012500000000001</v>
+      </c>
+      <c r="O37" s="108"/>
+      <c r="P37" s="109" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q37" s="108"/>
+      <c r="R37" s="110">
+        <f>R36*I37</f>
+        <v>2202.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="29"/>
       <c r="B38" s="87"/>
       <c r="C38" s="29"/>
@@ -7579,108 +9051,21 @@
       <c r="G38" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="H38" s="89">
-        <f>1-H37</f>
-        <v>0.14285714285714313</v>
-      </c>
+      <c r="H38" s="89"/>
       <c r="I38" s="89">
         <f>1-I37</f>
-        <v>-5.7539682539682557E-2</v>
-      </c>
-      <c r="R38" s="95">
-        <f>$R$36*H38</f>
-        <v>285.71428571428623</v>
-      </c>
-      <c r="S38" s="92">
-        <f>$R$36*I38</f>
-        <v>-115.07936507936512</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="R39" s="95"/>
-      <c r="S39" s="27"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="80"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="82" t="s">
-        <v>47</v>
-      </c>
-      <c r="H40" s="83">
-        <f>$P$4*SUM(J3:J33)</f>
-        <v>3.5</v>
-      </c>
-      <c r="I40" s="98"/>
-      <c r="R40" s="95"/>
-      <c r="S40" s="27"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="26"/>
-      <c r="B41" s="84"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="H41" s="86">
-        <f>G34/H40</f>
-        <v>0.85714285714285687</v>
-      </c>
-      <c r="I41" s="86">
-        <f>H34/H40</f>
-        <v>1.0575396825396826</v>
-      </c>
-      <c r="R41" s="95">
-        <f>$R$36*H41</f>
-        <v>1714.2857142857138</v>
-      </c>
-      <c r="S41" s="92">
-        <f>$R$36*I41</f>
-        <v>2115.0793650793653</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" s="29"/>
-      <c r="B42" s="87"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="88" t="s">
-        <v>45</v>
-      </c>
-      <c r="H42" s="89">
-        <f>1-H41</f>
-        <v>0.14285714285714313</v>
-      </c>
-      <c r="I42" s="89">
-        <f>1-I41</f>
-        <v>-5.7539682539682557E-2</v>
-      </c>
-      <c r="R42" s="96">
-        <f>$R$36*H42</f>
-        <v>285.71428571428623</v>
-      </c>
-      <c r="S42" s="93">
-        <f>$R$36*I42</f>
-        <v>-115.07936507936512</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="R43" s="101"/>
-      <c r="S43" s="102">
-        <f>S36-R38</f>
-        <v>34.859876965138938</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="S44" s="105"/>
+        <v>-0.10125000000000006</v>
+      </c>
+      <c r="O38" s="111"/>
+      <c r="P38" s="112" t="str">
+        <f>IF(R38&gt;0,"Descontar:","Creditar:")</f>
+        <v>Creditar:</v>
+      </c>
+      <c r="Q38" s="111"/>
+      <c r="R38" s="113">
+        <f>R36*I38</f>
+        <v>-202.50000000000011</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7727,12 +9112,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -7759,7 +9144,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="121" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B1" s="122"/>
       <c r="C1" s="122"/>
@@ -7809,35 +9194,31 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>39752</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.36458333333333331</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.54166666666666663</v>
-      </c>
+        <v>39782</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="5">
         <f>(IF(AND(C3&gt;0,D3&gt;0),D3-C3,0))</f>
         <v>0</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="5" t="str">
         <f>IF(AND(WEEKDAY(A3)&gt;1,WEEKDAY(A3)&lt;7),IF(((E3-D3)+(C3-B3))&gt;0,$P$4,0),"")</f>
-        <v>0.16666666666666666</v>
+        <v/>
       </c>
       <c r="H3" s="5">
         <f>IF(G3&lt;&gt;0,(E3-D3)+(C3-B3),0)</f>
-        <v>0.17708333333333331</v>
+        <v>0</v>
       </c>
       <c r="I3" s="5">
         <f>IF(G3&lt;&gt;"",H3-G3,0)</f>
-        <v>1.0416666666666657E-2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="90">
         <f>IF(AND(WEEKDAY(A3)&gt;1,WEEKDAY(A3)&lt;7),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>1</v>
@@ -7860,29 +9241,30 @@
     </row>
     <row r="4" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>39753</v>
+        <v>39783</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F32" si="0">(IF(AND(C4&gt;0,D4&gt;0),D4-C4,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <f t="shared" ref="G4:G32" si="1">IF(AND(WEEKDAY(A4)&gt;1,WEEKDAY(A4)&lt;7),IF(((E4-D4)+(C4-B4))&gt;0,$P$4,0),"")</f>
-        <v>0</v>
+        <f t="shared" ref="F4:F31" si="0">(IF(AND(C4&gt;0,D4&gt;0),D4-C4,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="str">
+        <f t="shared" ref="G4:G31" si="1">IF(AND(WEEKDAY(A4)&gt;1,WEEKDAY(A4)&lt;7),IF(((E4-D4)+(C4-B4))&gt;0,$P$4,0),"")</f>
+        <v/>
       </c>
       <c r="H4" s="5">
-        <f t="shared" ref="H4:H32" si="2">IF(G4&lt;&gt;0,(E4-D4)+(C4-B4),0)</f>
+        <f t="shared" ref="H4:H31" si="2">IF(G4&lt;&gt;0,(E4-D4)+(C4-B4),0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" ref="I4:I32" si="3">IF(G4&lt;&gt;"",H4-G4,0)</f>
+        <f t="shared" ref="I4:I31" si="3">IF(G4&lt;&gt;"",H4-G4,0)</f>
         <v>0</v>
       </c>
       <c r="J4" s="90">
+        <f t="shared" ref="J4:J33" si="4">IF(AND(WEEKDAY(A4)&gt;1,WEEKDAY(A4)&lt;7),1,0)</f>
         <v>0</v>
       </c>
       <c r="K4" s="14">
@@ -7906,66 +9288,72 @@
         <f>'BH 2012'!F3</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="R4" s="79" t="s">
-        <v>49</v>
-      </c>
+      <c r="R4" s="79"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>39754</v>
+        <v>39784</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="4">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="G5" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.18541666666666667</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.8750000000000017E-2</v>
       </c>
       <c r="J5" s="90">
-        <f t="shared" ref="J5:J32" si="4">IF(AND(WEEKDAY(A5)&gt;1,WEEKDAY(A5)&lt;7),1,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>39755</v>
+        <v>39785</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="4">
+        <v>0.54236111111111118</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.71180555555555547</v>
+      </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="G6" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.16944444444444429</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.7777777777776291E-3</v>
       </c>
       <c r="J6" s="90">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="22" t="s">
         <v>10</v>
@@ -7978,27 +9366,35 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>39756</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+        <v>39786</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.3125</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.6777777777777777</v>
+      </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.7777777777777679E-2</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.33750000000000002</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.17083333333333336</v>
       </c>
       <c r="J7" s="90">
         <f t="shared" si="4"/>
@@ -8015,13 +9411,13 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>39757</v>
+        <v>39787</v>
       </c>
       <c r="B8" s="4">
-        <v>0.33124999999999999</v>
+        <v>0.32291666666666669</v>
       </c>
       <c r="C8" s="4">
-        <v>0.55902777777777779</v>
+        <v>0.53819444444444442</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -8035,11 +9431,11 @@
       </c>
       <c r="H8" s="5">
         <f t="shared" si="2"/>
-        <v>0.2277777777777778</v>
+        <v>0.21527777777777773</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" si="3"/>
-        <v>6.1111111111111144E-2</v>
+        <v>4.8611111111111077E-2</v>
       </c>
       <c r="J8" s="90">
         <f t="shared" si="4"/>
@@ -8056,23 +9452,19 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>39758</v>
+        <v>39788</v>
       </c>
       <c r="B9" s="4">
-        <v>0.46527777777777773</v>
+        <v>0.33749999999999997</v>
       </c>
       <c r="C9" s="4">
-        <v>0.53263888888888888</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.55625000000000002</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.68402777777777779</v>
-      </c>
+        <v>0.51597222222222217</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>2.3611111111111138E-2</v>
+        <v>0</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
@@ -8080,11 +9472,11 @@
       </c>
       <c r="H9" s="5">
         <f t="shared" si="2"/>
-        <v>0.19513888888888892</v>
+        <v>0.1784722222222222</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="3"/>
-        <v>2.847222222222226E-2</v>
+        <v>1.1805555555555541E-2</v>
       </c>
       <c r="J9" s="90">
         <f t="shared" si="4"/>
@@ -8101,82 +9493,66 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>39759</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.33819444444444446</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.52430555555555558</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.56458333333333333</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.64513888888888882</v>
-      </c>
+        <v>39789</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>4.0277777777777746E-2</v>
-      </c>
-      <c r="G10" s="5">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
+      </c>
+      <c r="G10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="2"/>
-        <v>0.26666666666666661</v>
+        <v>0</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" si="3"/>
-        <v>9.999999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="J10" s="90">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>39760</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0.38263888888888892</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.55069444444444449</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.64930555555555558</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.70486111111111116</v>
-      </c>
+        <v>39790</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>9.8611111111111094E-2</v>
-      </c>
-      <c r="G11" s="5">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="2"/>
-        <v>0.22361111111111115</v>
+        <v>0</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="3"/>
-        <v>5.6944444444444492E-2</v>
+        <v>0</v>
       </c>
       <c r="J11" s="90">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="74"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>39761</v>
+        <v>39791</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -8186,9 +9562,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="G12" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="2"/>
@@ -8200,12 +9576,12 @@
       </c>
       <c r="J12" s="90">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>39762</v>
+        <v>39792</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -8215,9 +9591,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="G13" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="2"/>
@@ -8229,40 +9605,32 @@
       </c>
       <c r="J13" s="90">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>39763</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.32708333333333334</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.52013888888888882</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.5541666666666667</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.69791666666666663</v>
-      </c>
+        <v>39793</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>3.4027777777777879E-2</v>
+        <v>0</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="2"/>
-        <v>0.33680555555555541</v>
+        <v>0</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="3"/>
-        <v>0.17013888888888876</v>
+        <v>0</v>
       </c>
       <c r="J14" s="90">
         <f t="shared" si="4"/>
@@ -8272,35 +9640,27 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>39764</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.32291666666666669</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.51736111111111105</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.58750000000000002</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.67569444444444438</v>
-      </c>
+        <v>39794</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>7.0138888888888973E-2</v>
+        <v>0</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="2"/>
-        <v>0.28263888888888872</v>
+        <v>0</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" si="3"/>
-        <v>0.11597222222222206</v>
+        <v>0</v>
       </c>
       <c r="J15" s="90">
         <f t="shared" si="4"/>
@@ -8309,35 +9669,27 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>39765</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0.34583333333333338</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.51458333333333328</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.53194444444444444</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.6791666666666667</v>
-      </c>
+        <v>39795</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>1.736111111111116E-2</v>
+        <v>0</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="2"/>
-        <v>0.31597222222222215</v>
+        <v>0</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" si="3"/>
-        <v>0.1493055555555555</v>
+        <v>0</v>
       </c>
       <c r="J16" s="90">
         <f t="shared" si="4"/>
@@ -8346,7 +9698,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>39766</v>
+        <v>39796</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -8356,9 +9708,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H17" s="5">
         <f t="shared" si="2"/>
@@ -8369,48 +9721,43 @@
         <v>0</v>
       </c>
       <c r="J17" s="90">
-        <v>0</v>
-      </c>
-      <c r="K17" s="79" t="s">
-        <v>49</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="79"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>39767</v>
+        <v>39797</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="4">
-        <v>0.55138888888888882</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0.7680555555555556</v>
-      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="5">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+      <c r="G18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="2"/>
-        <v>0.21666666666666679</v>
+        <v>0</v>
       </c>
       <c r="I18" s="5">
         <f t="shared" si="3"/>
-        <v>5.0000000000000128E-2</v>
+        <v>0</v>
       </c>
       <c r="J18" s="90">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>39768</v>
+        <v>39798</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -8420,9 +9767,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="G19" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="2"/>
@@ -8434,12 +9781,12 @@
       </c>
       <c r="J19" s="90">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>39769</v>
+        <v>39799</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -8449,9 +9796,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="G20" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="2"/>
@@ -8463,41 +9810,33 @@
       </c>
       <c r="J20" s="90">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>39770</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0.34027777777777773</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0.52430555555555558</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0.6118055555555556</v>
-      </c>
+        <v>39800</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="5">
         <f t="shared" si="0"/>
-        <v>2.4305555555555469E-2</v>
+        <v>0</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" si="2"/>
-        <v>0.2472222222222224</v>
+        <v>0</v>
       </c>
       <c r="I21" s="5">
         <f t="shared" si="3"/>
-        <v>8.0555555555555741E-2</v>
+        <v>0</v>
       </c>
       <c r="J21" s="90">
         <f t="shared" si="4"/>
@@ -8506,35 +9845,27 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>39771</v>
-      </c>
-      <c r="B22" s="4">
-        <v>0.33680555555555558</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0.51736111111111105</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0.63750000000000007</v>
-      </c>
+        <v>39801</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="5">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>0</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" si="2"/>
-        <v>0.26944444444444449</v>
+        <v>0</v>
       </c>
       <c r="I22" s="5">
         <f t="shared" si="3"/>
-        <v>0.10277777777777783</v>
+        <v>0</v>
       </c>
       <c r="J22" s="90">
         <f t="shared" si="4"/>
@@ -8543,31 +9874,27 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>39772</v>
+        <v>39802</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="4">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0.70833333333333337</v>
-      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" si="2"/>
-        <v>0.16666666666666674</v>
+        <v>0</v>
       </c>
       <c r="I23" s="5">
         <f t="shared" si="3"/>
-        <v>8.3266726846886741E-17</v>
+        <v>0</v>
       </c>
       <c r="J23" s="90">
         <f t="shared" si="4"/>
@@ -8576,77 +9903,65 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>39773</v>
-      </c>
-      <c r="B24" s="4">
-        <v>0.31805555555555554</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0.50138888888888888</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0.52847222222222223</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0.56111111111111112</v>
-      </c>
+        <v>39803</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="5">
         <f t="shared" si="0"/>
-        <v>2.7083333333333348E-2</v>
-      </c>
-      <c r="G24" s="5">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
+      </c>
+      <c r="G24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H24" s="5">
         <f t="shared" si="2"/>
-        <v>0.21597222222222223</v>
+        <v>0</v>
       </c>
       <c r="I24" s="5">
         <f t="shared" si="3"/>
-        <v>4.9305555555555575E-2</v>
+        <v>0</v>
       </c>
       <c r="J24" s="90">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>39774</v>
+        <v>39804</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="4">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0.70833333333333337</v>
-      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="5">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+      <c r="G25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H25" s="5">
         <f t="shared" si="2"/>
-        <v>0.16666666666666674</v>
+        <v>0</v>
       </c>
       <c r="I25" s="5">
         <f t="shared" si="3"/>
-        <v>8.3266726846886741E-17</v>
+        <v>0</v>
       </c>
       <c r="J25" s="90">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>39775</v>
+        <v>39805</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -8656,9 +9971,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="G26" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H26" s="5">
         <f t="shared" si="2"/>
@@ -8670,12 +9985,12 @@
       </c>
       <c r="J26" s="90">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>39776</v>
+        <v>39806</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -8685,9 +10000,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="G27" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" si="2"/>
@@ -8699,12 +10014,12 @@
       </c>
       <c r="J27" s="90">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>39777</v>
+        <v>39807</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -8733,7 +10048,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>39778</v>
+        <v>39808</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -8763,7 +10078,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>39779</v>
+        <v>39809</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -8792,86 +10107,91 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>39780</v>
-      </c>
-      <c r="B31" s="4">
-        <v>0.43541666666666662</v>
-      </c>
-      <c r="C31" s="4">
-        <v>0.56180555555555556</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0.57847222222222217</v>
-      </c>
-      <c r="E31" s="4">
-        <v>0.69652777777777775</v>
-      </c>
+        <v>39810</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="5">
         <f t="shared" si="0"/>
-        <v>1.6666666666666607E-2</v>
-      </c>
-      <c r="G31" s="5">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
+      </c>
+      <c r="G31" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H31" s="5">
         <f t="shared" si="2"/>
-        <v>0.24444444444444452</v>
+        <v>0</v>
       </c>
       <c r="I31" s="5">
         <f t="shared" si="3"/>
-        <v>7.7777777777777862E-2</v>
+        <v>0</v>
       </c>
       <c r="J31" s="90">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="79"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>39781</v>
-      </c>
-      <c r="B32" s="4">
-        <v>0.39999999999999997</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0.5180555555555556</v>
-      </c>
+        <v>39811</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="5">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <f t="shared" ref="F32:F33" si="5">(IF(AND(C32&gt;0,D32&gt;0),D32-C32,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="5" t="str">
+        <f t="shared" ref="G32:G33" si="6">IF(AND(WEEKDAY(A32)&gt;1,WEEKDAY(A32)&lt;7),IF(((E32-D32)+(C32-B32))&gt;0,$P$4,0),"")</f>
+        <v/>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="2"/>
-        <v>0.11805555555555564</v>
+        <f t="shared" ref="H32:H33" si="7">IF(G32&lt;&gt;0,(E32-D32)+(C32-B32),0)</f>
+        <v>0</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="3"/>
-        <v>-4.8611111111111022E-2</v>
+        <f t="shared" ref="I32:I33" si="8">IF(G32&lt;&gt;"",H32-G32,0)</f>
+        <v>0</v>
       </c>
       <c r="J32" s="90">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
+      <c r="A33" s="3">
+        <v>39812</v>
+      </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="90"/>
+      <c r="F33" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
@@ -8882,15 +10202,15 @@
       <c r="F34" s="10"/>
       <c r="G34" s="21">
         <f>SUM(G3:G33)</f>
-        <v>2.6666666666666661</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="H34" s="21">
         <f>SUM(H3:H33)</f>
-        <v>3.6708333333333329</v>
+        <v>1.0861111111111108</v>
       </c>
       <c r="I34" s="20">
         <f>SUM(I3:I33)</f>
-        <v>1.0041666666666673</v>
+        <v>0.25277777777777766</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -8905,7 +10225,7 @@
       </c>
       <c r="H36" s="83">
         <f>$P$4*SUM(J3:J33)</f>
-        <v>3.333333333333333</v>
+        <v>3.5</v>
       </c>
       <c r="I36" s="98"/>
       <c r="P36" s="107" t="s">
@@ -8928,7 +10248,7 @@
       <c r="H37" s="86"/>
       <c r="I37" s="86">
         <f>H34/H36</f>
-        <v>1.1012500000000001</v>
+        <v>0.31031746031746021</v>
       </c>
       <c r="O37" s="108"/>
       <c r="P37" s="109" t="s">
@@ -8937,7 +10257,7 @@
       <c r="Q37" s="108"/>
       <c r="R37" s="110">
         <f>R36*I37</f>
-        <v>2202.5</v>
+        <v>620.63492063492038</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -8953,17 +10273,17 @@
       <c r="H38" s="89"/>
       <c r="I38" s="89">
         <f>1-I37</f>
-        <v>-0.10125000000000006</v>
+        <v>0.68968253968253979</v>
       </c>
       <c r="O38" s="111"/>
       <c r="P38" s="112" t="str">
         <f>IF(R38&gt;0,"Descontar:","Creditar:")</f>
-        <v>Creditar:</v>
+        <v>Descontar:</v>
       </c>
       <c r="Q38" s="111"/>
       <c r="R38" s="113">
         <f>R36*I38</f>
-        <v>-202.50000000000011</v>
+        <v>1379.3650793650795</v>
       </c>
     </row>
   </sheetData>
